--- a/i18n/i18n.xlsx
+++ b/i18n/i18n.xlsx
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">Do not display this welcome screen again.</t>
   </si>
   <si>
-    <t xml:space="preserve">Den Willkommensbildschirm nicht erneut angezeigt werden.</t>
+    <t xml:space="preserve">Dieses Fenster nicht nochmals anzeigen.</t>
   </si>
   <si>
     <t xml:space="preserve">No volver a mostrar esta pantalla de bienvenida.</t>
@@ -4002,27 +4002,7 @@
     <t xml:space="preserve">Tjenesten tilbyr ikke et støttet koordinatreferansesystem</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.no-supported-character-encoding</t>
-    </r>
+    <t xml:space="preserve">additional-error.no-supported-character-encoding</t>
   </si>
   <si>
     <t xml:space="preserve">The service does not provide a supported character encoding</t>
@@ -4100,27 +4080,7 @@
     <t xml:space="preserve">Denne tjenesten tilbyr ikke en støttet tegnkoding </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.metadata-erroneous</t>
-    </r>
+    <t xml:space="preserve">additional-error.metadata-erroneous</t>
   </si>
   <si>
     <t xml:space="preserve">The metadata document of the service is erroneous</t>
@@ -4141,27 +4101,7 @@
     <t xml:space="preserve">Metadataen til tjenesten er feilaktig</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.invalid-data-format</t>
-    </r>
+    <t xml:space="preserve">additional-error.invalid-data-format</t>
   </si>
   <si>
     <t xml:space="preserve">An invalid data format was received at the given URL</t>
@@ -4239,27 +4179,7 @@
     <t xml:space="preserve">Dataformatet til den angitte URLen er ugyldig</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.invalid-response</t>
-    </r>
+    <t xml:space="preserve">additional-error.invalid-response</t>
   </si>
   <si>
     <t xml:space="preserve">While querying the data of the service an invalid response has been received. Reasons for this may be, for example: internal server error, wrong configuration of the service, non-standard-compliant behaviour of the service, etc.</t>
@@ -4338,27 +4258,7 @@
     <t xml:space="preserve">Det ble mottat en ugyldig respons ved innhenting av dataen til tjenesten. Dette kan f.eks. skyldes en intern serverfeil, feil konfigurasjon av tjenesten, ikke-standardiserte kompatibel oppførsel til tjenesten, osv…</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.response-under-another-uri</t>
-    </r>
+    <t xml:space="preserve">additional-error.response-under-another-uri</t>
   </si>
   <si>
     <t xml:space="preserve">The response to the request can be found under another URI</t>
@@ -4436,27 +4336,7 @@
     <t xml:space="preserve">Svaret på forespørselen finnes under en annen URL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.only-available-through-proxy</t>
-    </r>
+    <t xml:space="preserve">additional-error.only-available-through-proxy</t>
   </si>
   <si>
     <t xml:space="preserve">The requested resource is only available through a proxy</t>
@@ -4534,27 +4414,7 @@
     <t xml:space="preserve">Den forespurte ressursen er kun tilgjengelig via proxy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.perceived-client-error</t>
-    </r>
+    <t xml:space="preserve">additional-error.perceived-client-error</t>
   </si>
   <si>
     <t xml:space="preserve">The server cannot or will not process the request due to a perceived client error</t>
@@ -4632,27 +4492,7 @@
     <t xml:space="preserve">Serveren kan ikke eller vil ikke behandle forespørselen på grunn av klientfeil</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.authorization-required</t>
-    </r>
+    <t xml:space="preserve">additional-error.authorization-required</t>
   </si>
   <si>
     <t xml:space="preserve">The requested resource required authorization</t>
@@ -4730,27 +4570,7 @@
     <t xml:space="preserve">Den forespurte ressursen krever tillatelse</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.no-available-publicly</t>
-    </r>
+    <t xml:space="preserve">additional-error.no-available-publicly</t>
   </si>
   <si>
     <t xml:space="preserve">The requested resource is not available publicly</t>
@@ -4828,27 +4648,7 @@
     <t xml:space="preserve">Den forespurte ressursen er ikke offentlig tilgjengelig</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.could-not-be-found</t>
-    </r>
+    <t xml:space="preserve">additional-error.could-not-be-found</t>
   </si>
   <si>
     <t xml:space="preserve">The requested resource could not be found</t>
@@ -4926,27 +4726,7 @@
     <t xml:space="preserve">Den forespurte ressursen ble ikke funnet</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.not-allowed-http-method</t>
-    </r>
+    <t xml:space="preserve">additional-error.not-allowed-http-method</t>
   </si>
   <si>
     <t xml:space="preserve">The resource was requested through a not allowed HTTP method</t>
@@ -5024,27 +4804,7 @@
     <t xml:space="preserve">Ressursen ble etterspurt via en ikke-godkjent HTTP-metode</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.not-acceptable-content</t>
-    </r>
+    <t xml:space="preserve">additional-error.not-acceptable-content</t>
   </si>
   <si>
     <t xml:space="preserve">A not acceptable content was requested from the resource</t>
@@ -5122,27 +4882,7 @@
     <t xml:space="preserve">Et uakseptabelt innhold ble bedt om via ressursen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.requires-prior-authentication</t>
-    </r>
+    <t xml:space="preserve">additional-error.requires-prior-authentication</t>
   </si>
   <si>
     <t xml:space="preserve">The resource requires a prior authentication at a proxy service</t>
@@ -5220,27 +4960,7 @@
     <t xml:space="preserve">Ressursen krever forhåndsgodkjenning i en proxy-tjeneste</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.resource-not-available-internal-server-errror</t>
-    </r>
+    <t xml:space="preserve">additional-error.resource-not-available-internal-server-errror</t>
   </si>
   <si>
     <t xml:space="preserve">The resource is not available due to an internal server error</t>
@@ -5318,27 +5038,7 @@
     <t xml:space="preserve">Ressursen er ikke tilgjengelig på grunn av serverfeil</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.unrecognised-request-method</t>
-    </r>
+    <t xml:space="preserve">additional-error.unrecognised-request-method</t>
   </si>
   <si>
     <t xml:space="preserve">The resource is not available due to an unrecognised request method</t>
@@ -5416,27 +5116,7 @@
     <t xml:space="preserve">Ressursen er ikke tilgjengelig på grunn av en ukjent forespørselsmetode</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.erroneously-configrued-proxy</t>
-    </r>
+    <t xml:space="preserve">additional-error.erroneously-configrued-proxy</t>
   </si>
   <si>
     <t xml:space="preserve">The resource is not available due to a erroneously configured gateway</t>
@@ -5514,27 +5194,7 @@
     <t xml:space="preserve">Ressursen er ikke tilgjengelig på grunn av en feilaktig konfigurert gateway</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.not-available-overload-or-maintenance</t>
-    </r>
+    <t xml:space="preserve">additional-error.not-available-overload-or-maintenance</t>
   </si>
   <si>
     <t xml:space="preserve">The resource is currently not available due to overload or maintenance</t>
@@ -5612,27 +5272,7 @@
     <t xml:space="preserve">Ressursen er for tiden ikke tilgjengelig på grunn av overbelastning eller vedlikehold</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.erroneous-gateway</t>
-    </r>
+    <t xml:space="preserve">additional-error.erroneous-gateway</t>
   </si>
   <si>
     <t xml:space="preserve">The resource is not available due to a erroneously configured or unresponsive gateway</t>
@@ -5710,27 +5350,7 @@
     <t xml:space="preserve">Ressursen er ikke tilgjengelig på grunn av feilaktig konfigurert eller ikke-responsiv gateway </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">additional-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">error.wrong-http-version</t>
-    </r>
+    <t xml:space="preserve">additional-error.wrong-http-version</t>
   </si>
   <si>
     <t xml:space="preserve">The resource does not support the given HTTP version</t>
@@ -5815,7 +5435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5860,13 +5480,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -6173,7 +5786,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6422,10 +6035,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6662,11 +6271,11 @@
   <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="A46" activeCellId="0" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8153,7 +7762,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="44" t="s">
         <v>397</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -8233,7 +7842,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="44" t="s">
         <v>423</v>
       </c>
       <c r="B25" s="50" t="s">
@@ -8313,7 +7922,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="170.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="44" t="s">
         <v>449</v>
       </c>
       <c r="B26" s="50" t="s">
@@ -8633,7 +8242,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T30" s="63"/>
+      <c r="T30" s="62"/>
       <c r="U30" s="41"/>
       <c r="V30" s="42"/>
       <c r="W30" s="42"/>
@@ -9124,24 +8733,24 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="30"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="67"/>
-      <c r="T37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="62"/>
       <c r="U37" s="41"/>
       <c r="V37" s="42"/>
       <c r="W37" s="42"/>
@@ -9287,25 +8896,25 @@
       <c r="S39" s="51" t="s">
         <v>736</v>
       </c>
-      <c r="T39" s="69" t="s">
+      <c r="T39" s="68" t="s">
         <v>737</v>
       </c>
-      <c r="U39" s="70" t="s">
+      <c r="U39" s="69" t="s">
         <v>738</v>
       </c>
-      <c r="V39" s="71" t="s">
+      <c r="V39" s="70" t="s">
         <v>739</v>
       </c>
-      <c r="W39" s="71" t="s">
+      <c r="W39" s="70" t="s">
         <v>740</v>
       </c>
-      <c r="X39" s="71" t="s">
+      <c r="X39" s="70" t="s">
         <v>741</v>
       </c>
-      <c r="Y39" s="72" t="s">
+      <c r="Y39" s="71" t="s">
         <v>742</v>
       </c>
-      <c r="Z39" s="72" t="s">
+      <c r="Z39" s="71" t="s">
         <v>743</v>
       </c>
     </row>
@@ -9367,7 +8976,7 @@
       <c r="S40" s="51" t="s">
         <v>762</v>
       </c>
-      <c r="T40" s="73" t="s">
+      <c r="T40" s="72" t="s">
         <v>763</v>
       </c>
       <c r="U40" s="53" t="s">
@@ -9382,10 +8991,10 @@
       <c r="X40" s="52" t="s">
         <v>767</v>
       </c>
-      <c r="Y40" s="74" t="s">
+      <c r="Y40" s="73" t="s">
         <v>768</v>
       </c>
-      <c r="Z40" s="74" t="s">
+      <c r="Z40" s="73" t="s">
         <v>769</v>
       </c>
     </row>
@@ -9447,31 +9056,31 @@
       <c r="S41" s="55" t="s">
         <v>787</v>
       </c>
-      <c r="T41" s="75" t="s">
+      <c r="T41" s="74" t="s">
         <v>788</v>
       </c>
-      <c r="U41" s="76" t="s">
+      <c r="U41" s="75" t="s">
         <v>789</v>
       </c>
-      <c r="V41" s="77" t="s">
+      <c r="V41" s="76" t="s">
         <v>790</v>
       </c>
-      <c r="W41" s="77" t="s">
+      <c r="W41" s="76" t="s">
         <v>791</v>
       </c>
-      <c r="X41" s="77" t="s">
+      <c r="X41" s="76" t="s">
         <v>792</v>
       </c>
-      <c r="Y41" s="78" t="s">
+      <c r="Y41" s="77" t="s">
         <v>793</v>
       </c>
-      <c r="Z41" s="78" t="s">
+      <c r="Z41" s="77" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T42" s="41"/>
-      <c r="U42" s="79"/>
+      <c r="U42" s="78"/>
       <c r="V42" s="42"/>
       <c r="W42" s="42"/>
       <c r="X42" s="42"/>
@@ -9536,25 +9145,25 @@
       <c r="S43" s="47" t="s">
         <v>813</v>
       </c>
-      <c r="T43" s="69" t="s">
+      <c r="T43" s="68" t="s">
         <v>814</v>
       </c>
-      <c r="U43" s="70" t="s">
+      <c r="U43" s="69" t="s">
         <v>815</v>
       </c>
-      <c r="V43" s="71" t="s">
+      <c r="V43" s="70" t="s">
         <v>816</v>
       </c>
-      <c r="W43" s="71" t="s">
+      <c r="W43" s="70" t="s">
         <v>817</v>
       </c>
-      <c r="X43" s="71" t="s">
+      <c r="X43" s="70" t="s">
         <v>818</v>
       </c>
-      <c r="Y43" s="72" t="s">
+      <c r="Y43" s="71" t="s">
         <v>819</v>
       </c>
-      <c r="Z43" s="72" t="s">
+      <c r="Z43" s="71" t="s">
         <v>820</v>
       </c>
     </row>
@@ -9616,7 +9225,7 @@
       <c r="S44" s="51" t="s">
         <v>839</v>
       </c>
-      <c r="T44" s="73" t="s">
+      <c r="T44" s="72" t="s">
         <v>840</v>
       </c>
       <c r="U44" s="53" t="s">
@@ -9631,10 +9240,10 @@
       <c r="X44" s="52" t="s">
         <v>844</v>
       </c>
-      <c r="Y44" s="74" t="s">
+      <c r="Y44" s="73" t="s">
         <v>845</v>
       </c>
-      <c r="Z44" s="74" t="s">
+      <c r="Z44" s="73" t="s">
         <v>846</v>
       </c>
     </row>
@@ -9696,7 +9305,7 @@
       <c r="S45" s="51" t="s">
         <v>865</v>
       </c>
-      <c r="T45" s="73" t="s">
+      <c r="T45" s="72" t="s">
         <v>866</v>
       </c>
       <c r="U45" s="53" t="s">
@@ -9711,10 +9320,10 @@
       <c r="X45" s="52" t="s">
         <v>870</v>
       </c>
-      <c r="Y45" s="74" t="s">
+      <c r="Y45" s="73" t="s">
         <v>871</v>
       </c>
-      <c r="Z45" s="74" t="s">
+      <c r="Z45" s="73" t="s">
         <v>872</v>
       </c>
     </row>
@@ -9776,36 +9385,36 @@
       <c r="S46" s="55" t="s">
         <v>891</v>
       </c>
-      <c r="T46" s="75" t="s">
+      <c r="T46" s="74" t="s">
         <v>892</v>
       </c>
-      <c r="U46" s="76" t="s">
+      <c r="U46" s="75" t="s">
         <v>893</v>
       </c>
-      <c r="V46" s="77" t="s">
+      <c r="V46" s="76" t="s">
         <v>894</v>
       </c>
-      <c r="W46" s="77" t="s">
+      <c r="W46" s="76" t="s">
         <v>895</v>
       </c>
-      <c r="X46" s="77" t="s">
+      <c r="X46" s="76" t="s">
         <v>896</v>
       </c>
-      <c r="Y46" s="78" t="s">
+      <c r="Y46" s="77" t="s">
         <v>897</v>
       </c>
-      <c r="Z46" s="78" t="s">
+      <c r="Z46" s="77" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T47" s="41"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="80"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="80"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="80"/>
+      <c r="Z47" s="80"/>
     </row>
     <row r="48" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
@@ -9831,25 +9440,25 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="10"/>
-      <c r="T48" s="82" t="s">
+      <c r="T48" s="81" t="s">
         <v>901</v>
       </c>
-      <c r="U48" s="83" t="s">
+      <c r="U48" s="82" t="s">
         <v>902</v>
       </c>
-      <c r="V48" s="82" t="s">
+      <c r="V48" s="81" t="s">
         <v>903</v>
       </c>
-      <c r="W48" s="82" t="s">
+      <c r="W48" s="81" t="s">
         <v>904</v>
       </c>
-      <c r="X48" s="82" t="s">
+      <c r="X48" s="81" t="s">
         <v>905</v>
       </c>
-      <c r="Y48" s="82" t="s">
+      <c r="Y48" s="81" t="s">
         <v>906</v>
       </c>
-      <c r="Z48" s="82" t="s">
+      <c r="Z48" s="81" t="s">
         <v>907</v>
       </c>
     </row>
@@ -9969,36 +9578,36 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="25"/>
-      <c r="T51" s="84" t="s">
+      <c r="T51" s="83" t="s">
         <v>928</v>
       </c>
-      <c r="U51" s="85" t="s">
+      <c r="U51" s="84" t="s">
         <v>929</v>
       </c>
-      <c r="V51" s="84" t="s">
+      <c r="V51" s="83" t="s">
         <v>930</v>
       </c>
-      <c r="W51" s="84" t="s">
+      <c r="W51" s="83" t="s">
         <v>931</v>
       </c>
-      <c r="X51" s="84" t="s">
+      <c r="X51" s="83" t="s">
         <v>931</v>
       </c>
-      <c r="Y51" s="84" t="s">
+      <c r="Y51" s="83" t="s">
         <v>931</v>
       </c>
-      <c r="Z51" s="84" t="s">
+      <c r="Z51" s="83" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T52" s="41"/>
-      <c r="U52" s="80"/>
-      <c r="V52" s="80"/>
-      <c r="W52" s="80"/>
-      <c r="X52" s="80"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
+      <c r="U52" s="79"/>
+      <c r="V52" s="79"/>
+      <c r="W52" s="79"/>
+      <c r="X52" s="79"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
@@ -10688,69 +10297,69 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T62" s="41"/>
-      <c r="U62" s="80"/>
-      <c r="V62" s="80"/>
-      <c r="W62" s="80"/>
-      <c r="X62" s="80"/>
-      <c r="Y62" s="81"/>
-      <c r="Z62" s="81"/>
+      <c r="U62" s="79"/>
+      <c r="V62" s="79"/>
+      <c r="W62" s="79"/>
+      <c r="X62" s="79"/>
+      <c r="Y62" s="80"/>
+      <c r="Z62" s="80"/>
     </row>
     <row r="63" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="44" t="s">
         <v>1149</v>
       </c>
-      <c r="B63" s="86" t="s">
+      <c r="B63" s="85" t="s">
         <v>1150</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="85" t="s">
         <v>1151</v>
       </c>
-      <c r="D63" s="86" t="s">
+      <c r="D63" s="85" t="s">
         <v>1152</v>
       </c>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="85" t="s">
         <v>1153</v>
       </c>
-      <c r="F63" s="86" t="s">
+      <c r="F63" s="85" t="s">
         <v>1154</v>
       </c>
-      <c r="G63" s="86" t="s">
+      <c r="G63" s="85" t="s">
         <v>1155</v>
       </c>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="85" t="s">
         <v>1156</v>
       </c>
-      <c r="I63" s="86" t="s">
+      <c r="I63" s="85" t="s">
         <v>1157</v>
       </c>
-      <c r="J63" s="86" t="s">
+      <c r="J63" s="85" t="s">
         <v>1158</v>
       </c>
-      <c r="K63" s="86" t="s">
+      <c r="K63" s="85" t="s">
         <v>1159</v>
       </c>
-      <c r="L63" s="87" t="s">
+      <c r="L63" s="86" t="s">
         <v>1160</v>
       </c>
-      <c r="M63" s="86" t="s">
+      <c r="M63" s="85" t="s">
         <v>1161</v>
       </c>
-      <c r="N63" s="86" t="s">
+      <c r="N63" s="85" t="s">
         <v>1162</v>
       </c>
-      <c r="O63" s="86" t="s">
+      <c r="O63" s="85" t="s">
         <v>1163</v>
       </c>
-      <c r="P63" s="86" t="s">
+      <c r="P63" s="85" t="s">
         <v>1164</v>
       </c>
-      <c r="Q63" s="86" t="s">
+      <c r="Q63" s="85" t="s">
         <v>1165</v>
       </c>
-      <c r="R63" s="86" t="s">
+      <c r="R63" s="85" t="s">
         <v>1166</v>
       </c>
-      <c r="S63" s="88" t="s">
+      <c r="S63" s="87" t="s">
         <v>1167</v>
       </c>
       <c r="T63" s="48" t="s">
@@ -10775,29 +10384,29 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="64" s="92" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="89"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="91"/>
+    <row r="64" s="91" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="89"/>
+      <c r="S64" s="89"/>
+      <c r="T64" s="90"/>
     </row>
-    <row r="65" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="44" t="s">
         <v>1175</v>
       </c>
@@ -10855,29 +10464,29 @@
       <c r="S65" s="47" t="s">
         <v>1193</v>
       </c>
-      <c r="T65" s="93" t="s">
+      <c r="T65" s="92" t="s">
         <v>1194</v>
       </c>
-      <c r="U65" s="94" t="s">
+      <c r="U65" s="93" t="s">
         <v>1195</v>
       </c>
-      <c r="V65" s="93" t="s">
+      <c r="V65" s="92" t="s">
         <v>1196</v>
       </c>
-      <c r="W65" s="93" t="s">
+      <c r="W65" s="92" t="s">
         <v>1197</v>
       </c>
-      <c r="X65" s="93" t="s">
+      <c r="X65" s="92" t="s">
         <v>1198</v>
       </c>
-      <c r="Y65" s="93" t="s">
+      <c r="Y65" s="92" t="s">
         <v>1199</v>
       </c>
-      <c r="Z65" s="93" t="s">
+      <c r="Z65" s="92" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="66" s="95" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="94" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="44" t="s">
         <v>1201</v>
       </c>
@@ -10935,29 +10544,29 @@
       <c r="S66" s="51" t="s">
         <v>1217</v>
       </c>
-      <c r="T66" s="93" t="s">
+      <c r="T66" s="92" t="s">
         <v>1218</v>
       </c>
-      <c r="U66" s="94" t="s">
+      <c r="U66" s="93" t="s">
         <v>1219</v>
       </c>
-      <c r="V66" s="93" t="s">
+      <c r="V66" s="92" t="s">
         <v>1220</v>
       </c>
-      <c r="W66" s="93" t="s">
+      <c r="W66" s="92" t="s">
         <v>1221</v>
       </c>
-      <c r="X66" s="93" t="s">
+      <c r="X66" s="92" t="s">
         <v>1222</v>
       </c>
-      <c r="Y66" s="93" t="s">
+      <c r="Y66" s="92" t="s">
         <v>1223</v>
       </c>
-      <c r="Z66" s="93" t="s">
+      <c r="Z66" s="92" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="67" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
         <v>1225</v>
       </c>
@@ -11015,29 +10624,29 @@
       <c r="S67" s="51" t="s">
         <v>1241</v>
       </c>
-      <c r="T67" s="93" t="s">
+      <c r="T67" s="92" t="s">
         <v>1242</v>
       </c>
-      <c r="U67" s="94" t="s">
+      <c r="U67" s="93" t="s">
         <v>1243</v>
       </c>
-      <c r="V67" s="93" t="s">
+      <c r="V67" s="92" t="s">
         <v>1244</v>
       </c>
-      <c r="W67" s="93" t="s">
+      <c r="W67" s="92" t="s">
         <v>1245</v>
       </c>
-      <c r="X67" s="93" t="s">
+      <c r="X67" s="92" t="s">
         <v>1246</v>
       </c>
-      <c r="Y67" s="93" t="s">
+      <c r="Y67" s="92" t="s">
         <v>1247</v>
       </c>
-      <c r="Z67" s="93" t="s">
+      <c r="Z67" s="92" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="68" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="44" t="s">
         <v>1249</v>
       </c>
@@ -11095,29 +10704,29 @@
       <c r="S68" s="51" t="s">
         <v>1266</v>
       </c>
-      <c r="T68" s="93" t="s">
+      <c r="T68" s="92" t="s">
         <v>1267</v>
       </c>
-      <c r="U68" s="94" t="s">
+      <c r="U68" s="93" t="s">
         <v>1268</v>
       </c>
-      <c r="V68" s="93" t="s">
+      <c r="V68" s="92" t="s">
         <v>1269</v>
       </c>
-      <c r="W68" s="93" t="s">
+      <c r="W68" s="92" t="s">
         <v>1270</v>
       </c>
-      <c r="X68" s="93" t="s">
+      <c r="X68" s="92" t="s">
         <v>1271</v>
       </c>
-      <c r="Y68" s="93" t="s">
+      <c r="Y68" s="92" t="s">
         <v>1272</v>
       </c>
-      <c r="Z68" s="93" t="s">
+      <c r="Z68" s="92" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="69" s="95" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="94" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="44" t="s">
         <v>1274</v>
       </c>
@@ -11175,41 +10784,41 @@
       <c r="S69" s="55" t="s">
         <v>1292</v>
       </c>
-      <c r="T69" s="96" t="s">
+      <c r="T69" s="95" t="s">
         <v>1293</v>
       </c>
-      <c r="U69" s="97" t="s">
+      <c r="U69" s="96" t="s">
         <v>1294</v>
       </c>
-      <c r="V69" s="96" t="s">
+      <c r="V69" s="95" t="s">
         <v>1295</v>
       </c>
-      <c r="W69" s="96" t="s">
+      <c r="W69" s="95" t="s">
         <v>1296</v>
       </c>
-      <c r="X69" s="96" t="s">
+      <c r="X69" s="95" t="s">
         <v>1297</v>
       </c>
-      <c r="Y69" s="96" t="s">
+      <c r="Y69" s="95" t="s">
         <v>1298</v>
       </c>
-      <c r="Z69" s="96" t="s">
+      <c r="Z69" s="95" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="70" s="95" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="94" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
       <c r="H70" s="31"/>
-      <c r="I70" s="65"/>
+      <c r="I70" s="64"/>
       <c r="J70" s="31"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
@@ -11217,13 +10826,13 @@
       <c r="Q70" s="31"/>
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
-      <c r="T70" s="98"/>
-      <c r="U70" s="99"/>
-      <c r="V70" s="99"/>
-      <c r="W70" s="99"/>
-      <c r="X70" s="99"/>
-      <c r="Y70" s="100"/>
-      <c r="Z70" s="100"/>
+      <c r="T70" s="97"/>
+      <c r="U70" s="98"/>
+      <c r="V70" s="98"/>
+      <c r="W70" s="98"/>
+      <c r="X70" s="98"/>
+      <c r="Y70" s="99"/>
+      <c r="Z70" s="99"/>
     </row>
     <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="44" t="s">
@@ -11298,15 +10907,15 @@
       <c r="X71" s="48" t="s">
         <v>1323</v>
       </c>
-      <c r="Y71" s="101" t="s">
+      <c r="Y71" s="100" t="s">
         <v>1324</v>
       </c>
-      <c r="Z71" s="101" t="s">
+      <c r="Z71" s="100" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="44" t="s">
         <v>1326</v>
       </c>
       <c r="B72" s="50" t="s">
@@ -11378,15 +10987,15 @@
       <c r="X72" s="52" t="s">
         <v>1349</v>
       </c>
-      <c r="Y72" s="74" t="s">
+      <c r="Y72" s="73" t="s">
         <v>1350</v>
       </c>
-      <c r="Z72" s="74" t="s">
+      <c r="Z72" s="73" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="44" t="s">
         <v>1352</v>
       </c>
       <c r="B73" s="50" t="s">
@@ -11458,15 +11067,15 @@
       <c r="X73" s="52" t="s">
         <v>1356</v>
       </c>
-      <c r="Y73" s="74" t="s">
+      <c r="Y73" s="73" t="s">
         <v>1357</v>
       </c>
-      <c r="Z73" s="74" t="s">
+      <c r="Z73" s="73" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="44" t="s">
         <v>1359</v>
       </c>
       <c r="B74" s="50" t="s">
@@ -11538,15 +11147,15 @@
       <c r="X74" s="52" t="s">
         <v>1382</v>
       </c>
-      <c r="Y74" s="74" t="s">
+      <c r="Y74" s="73" t="s">
         <v>1383</v>
       </c>
-      <c r="Z74" s="74" t="s">
+      <c r="Z74" s="73" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="44" t="s">
         <v>1385</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -11618,15 +11227,15 @@
       <c r="X75" s="52" t="s">
         <v>1408</v>
       </c>
-      <c r="Y75" s="74" t="s">
+      <c r="Y75" s="73" t="s">
         <v>1409</v>
       </c>
-      <c r="Z75" s="74" t="s">
+      <c r="Z75" s="73" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="44" t="s">
         <v>1411</v>
       </c>
       <c r="B76" s="50" t="s">
@@ -11698,15 +11307,15 @@
       <c r="X76" s="52" t="s">
         <v>1434</v>
       </c>
-      <c r="Y76" s="74" t="s">
+      <c r="Y76" s="73" t="s">
         <v>1435</v>
       </c>
-      <c r="Z76" s="74" t="s">
+      <c r="Z76" s="73" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="44" t="s">
         <v>1437</v>
       </c>
       <c r="B77" s="50" t="s">
@@ -11778,15 +11387,15 @@
       <c r="X77" s="52" t="s">
         <v>1460</v>
       </c>
-      <c r="Y77" s="74" t="s">
+      <c r="Y77" s="73" t="s">
         <v>1461</v>
       </c>
-      <c r="Z77" s="74" t="s">
+      <c r="Z77" s="73" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="44" t="s">
         <v>1463</v>
       </c>
       <c r="B78" s="50" t="s">
@@ -11858,15 +11467,15 @@
       <c r="X78" s="52" t="s">
         <v>1486</v>
       </c>
-      <c r="Y78" s="74" t="s">
+      <c r="Y78" s="73" t="s">
         <v>1487</v>
       </c>
-      <c r="Z78" s="74" t="s">
+      <c r="Z78" s="73" t="s">
         <v>1488</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="44" t="s">
         <v>1489</v>
       </c>
       <c r="B79" s="50" t="s">
@@ -11938,15 +11547,15 @@
       <c r="X79" s="52" t="s">
         <v>1512</v>
       </c>
-      <c r="Y79" s="74" t="s">
+      <c r="Y79" s="73" t="s">
         <v>1513</v>
       </c>
-      <c r="Z79" s="74" t="s">
+      <c r="Z79" s="73" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="44" t="s">
         <v>1515</v>
       </c>
       <c r="B80" s="50" t="s">
@@ -12018,15 +11627,15 @@
       <c r="X80" s="52" t="s">
         <v>1538</v>
       </c>
-      <c r="Y80" s="74" t="s">
+      <c r="Y80" s="73" t="s">
         <v>1539</v>
       </c>
-      <c r="Z80" s="74" t="s">
+      <c r="Z80" s="73" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="44" t="s">
         <v>1541</v>
       </c>
       <c r="B81" s="50" t="s">
@@ -12098,15 +11707,15 @@
       <c r="X81" s="52" t="s">
         <v>1564</v>
       </c>
-      <c r="Y81" s="74" t="s">
+      <c r="Y81" s="73" t="s">
         <v>1565</v>
       </c>
-      <c r="Z81" s="74" t="s">
+      <c r="Z81" s="73" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="44" t="s">
         <v>1567</v>
       </c>
       <c r="B82" s="50" t="s">
@@ -12178,15 +11787,15 @@
       <c r="X82" s="52" t="s">
         <v>1590</v>
       </c>
-      <c r="Y82" s="74" t="s">
+      <c r="Y82" s="73" t="s">
         <v>1591</v>
       </c>
-      <c r="Z82" s="74" t="s">
+      <c r="Z82" s="73" t="s">
         <v>1592</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="44" t="s">
         <v>1593</v>
       </c>
       <c r="B83" s="50" t="s">
@@ -12258,15 +11867,15 @@
       <c r="X83" s="52" t="s">
         <v>1616</v>
       </c>
-      <c r="Y83" s="74" t="s">
+      <c r="Y83" s="73" t="s">
         <v>1617</v>
       </c>
-      <c r="Z83" s="74" t="s">
+      <c r="Z83" s="73" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="44" t="s">
         <v>1619</v>
       </c>
       <c r="B84" s="50" t="s">
@@ -12338,15 +11947,15 @@
       <c r="X84" s="52" t="s">
         <v>1642</v>
       </c>
-      <c r="Y84" s="74" t="s">
+      <c r="Y84" s="73" t="s">
         <v>1643</v>
       </c>
-      <c r="Z84" s="74" t="s">
+      <c r="Z84" s="73" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="44" t="s">
         <v>1645</v>
       </c>
       <c r="B85" s="50" t="s">
@@ -12418,15 +12027,15 @@
       <c r="X85" s="52" t="s">
         <v>1668</v>
       </c>
-      <c r="Y85" s="74" t="s">
+      <c r="Y85" s="73" t="s">
         <v>1669</v>
       </c>
-      <c r="Z85" s="74" t="s">
+      <c r="Z85" s="73" t="s">
         <v>1670</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="44" t="s">
         <v>1671</v>
       </c>
       <c r="B86" s="50" t="s">
@@ -12498,15 +12107,15 @@
       <c r="X86" s="52" t="s">
         <v>1694</v>
       </c>
-      <c r="Y86" s="74" t="s">
+      <c r="Y86" s="73" t="s">
         <v>1695</v>
       </c>
-      <c r="Z86" s="74" t="s">
+      <c r="Z86" s="73" t="s">
         <v>1696</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="44" t="s">
         <v>1697</v>
       </c>
       <c r="B87" s="50" t="s">
@@ -12578,15 +12187,15 @@
       <c r="X87" s="52" t="s">
         <v>1720</v>
       </c>
-      <c r="Y87" s="74" t="s">
+      <c r="Y87" s="73" t="s">
         <v>1721</v>
       </c>
-      <c r="Z87" s="74" t="s">
+      <c r="Z87" s="73" t="s">
         <v>1722</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="44" t="s">
         <v>1723</v>
       </c>
       <c r="B88" s="50" t="s">
@@ -12658,15 +12267,15 @@
       <c r="X88" s="52" t="s">
         <v>1746</v>
       </c>
-      <c r="Y88" s="74" t="s">
+      <c r="Y88" s="73" t="s">
         <v>1747</v>
       </c>
-      <c r="Z88" s="74" t="s">
+      <c r="Z88" s="73" t="s">
         <v>1748</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="44" t="s">
         <v>1749</v>
       </c>
       <c r="B89" s="50" t="s">
@@ -12738,15 +12347,15 @@
       <c r="X89" s="52" t="s">
         <v>1772</v>
       </c>
-      <c r="Y89" s="74" t="s">
+      <c r="Y89" s="73" t="s">
         <v>1773</v>
       </c>
-      <c r="Z89" s="74" t="s">
+      <c r="Z89" s="73" t="s">
         <v>1774</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="44" t="s">
         <v>1775</v>
       </c>
       <c r="B90" s="54" t="s">
@@ -12806,22 +12415,22 @@
       <c r="T90" s="52" t="s">
         <v>1794</v>
       </c>
-      <c r="U90" s="76" t="s">
+      <c r="U90" s="75" t="s">
         <v>1795</v>
       </c>
-      <c r="V90" s="77" t="s">
+      <c r="V90" s="76" t="s">
         <v>1796</v>
       </c>
-      <c r="W90" s="77" t="s">
+      <c r="W90" s="76" t="s">
         <v>1797</v>
       </c>
-      <c r="X90" s="77" t="s">
+      <c r="X90" s="76" t="s">
         <v>1798</v>
       </c>
-      <c r="Y90" s="78" t="s">
+      <c r="Y90" s="77" t="s">
         <v>1799</v>
       </c>
-      <c r="Z90" s="78" t="s">
+      <c r="Z90" s="77" t="s">
         <v>1800</v>
       </c>
     </row>

--- a/i18n/i18n.xlsx
+++ b/i18n/i18n.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">PT</t>
   </si>
   <si>
-    <t xml:space="preserve">CZ</t>
+    <t xml:space="preserve">CS</t>
   </si>
   <si>
     <t xml:space="preserve">FI</t>
@@ -6271,11 +6271,11 @@
   <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/i18n/i18n.xlsx
+++ b/i18n/i18n.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1846">
   <si>
     <t xml:space="preserve">Context</t>
   </si>
@@ -2906,6 +2906,57 @@
     <t xml:space="preserve">The requested service is not supported</t>
   </si>
   <si>
+    <t xml:space="preserve">Der angeforderte Dienst wird nicht unterst\u00fctzt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El servicio solicitado no est\u00e1 soportado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le service demand\u00e9 n'est pas pris en charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il servizio richiesto non \u00e8 supportato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\u017b\u0105dany serwis jest nieobs\u0142ugiwany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De gevraagde dienst staat niet ter ondersteund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po\u017eadovan\u00e1 slu\u017eba nie je podporovan\u00e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den beg\u00e4rda tj\u00e4nsten st\u00f6ds inte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zatra\u017Eena usluga nije podr\u017Eana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A k\u00E9rt szolg\u00E1ltat\u00E1s nem t\u00E1mogatott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tipo de servi\u00E7o prestado n\u00E3o \u00E9 suportada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Po\u017Eadovan\u00E1 slu\u017Eba nen\u00ED podporov\u00E1na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyydetty palvelu ei tueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviciul solicitat nu este acceptat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\u041F\u043E\u0438\u0441\u043A\u0430\u043D\u0430\u0442\u0430 \u0443\u0441\u043B\u0443\u0433\u0430 \u043D\u0435 \u0441\u0435 \u043F\u043E\u0434\u0434\u044A\u0440\u0436\u0430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\u0397 \u03B6\u03B7\u03C4\u03BF\u03CD\u03BC\u03B5\u03BD\u03B7 \u03C5\u03C0\u03B7\u03C1\u03B5\u03C3\u03AF\u03B1 \u03B4\u03B5\u03BD \u03C5\u03C0\u03BF\u03C3\u03C4\u03B7\u03C1\u03AF\u03B6\u03B5\u03C4\u03B1\u03B9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is-servizz mitlub ma hija sostnuta.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Den anmodede tjeneste understøttes ikke</t>
   </si>
   <si>
@@ -4275,8 +4326,7 @@
     <t xml:space="preserve">Se ha recibido una respuesta no válida del servicio al solicitar los datos. Ello podría deberse a un error interno del servidor, un error en la configuración del servicio, un comportamiento del servicio no compatible con los estándares, etc.</t>
   </si>
   <si>
-    <t xml:space="preserve">Le système a reçu une réponse non-valide lors de la recherche de données du service.
-Des raisons peuvent être p.ex. une erreur interne du serveur, une confirguration erronée du service, un comportement non-standard/non-conforme du service etc.</t>
+    <t xml:space="preserve">Le système a reçu une réponse non-valide lors de la recherche de données du service. Des raisons peuvent être p.ex. une erreur interne du serveur, une confirguration erronée du service, un comportement non-standard/non-conforme du service etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Il sistema ha ricevuto una risposta non valida durante la ricerca dei dati del servizio. Le cause possono essere, ad esempio: errore interno del server, configurazione errata del servizio, un comportamento non standard-non conforme del servizio, ecc.</t>
@@ -5519,7 +5569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5564,13 +5614,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5639,7 +5682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5728,51 +5771,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5790,10 +5789,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -5884,11 +5879,11 @@
   <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
-      <selection pane="bottomRight" activeCell="Z64" activeCellId="0" sqref="Z64"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8860,7 +8855,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
         <v>847</v>
       </c>
@@ -9029,913 +9024,928 @@
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
     </row>
-    <row r="48" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="18" t="s">
         <v>900</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="25" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="U48" s="25" t="s">
+      <c r="U48" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="V48" s="25" t="s">
+      <c r="V48" s="20" t="s">
         <v>903</v>
       </c>
-      <c r="W48" s="25" t="s">
+      <c r="W48" s="20" t="s">
         <v>904</v>
       </c>
-      <c r="X48" s="25" t="s">
+      <c r="X48" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="Y48" s="25" t="s">
+      <c r="Y48" s="20" t="s">
         <v>906</v>
       </c>
-      <c r="Z48" s="25" t="s">
+      <c r="Z48" s="20" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="49" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="25" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="U49" s="25" t="s">
+      <c r="U49" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="V49" s="25" t="s">
+      <c r="V49" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="W49" s="25" t="s">
+      <c r="W49" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="X49" s="25" t="s">
+      <c r="X49" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="Y49" s="25" t="s">
+      <c r="Y49" s="20" t="s">
         <v>915</v>
       </c>
-      <c r="Z49" s="25" t="s">
+      <c r="Z49" s="20" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="50" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="25" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="U50" s="25" t="s">
+      <c r="U50" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="V50" s="25" t="s">
+      <c r="V50" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="W50" s="25" t="s">
+      <c r="W50" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="X50" s="25" t="s">
+      <c r="X50" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="Y50" s="25" t="s">
+      <c r="Y50" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="Z50" s="25" t="s">
+      <c r="Z50" s="20" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="51" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="25" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="20" t="s">
         <v>928</v>
       </c>
-      <c r="U51" s="25" t="s">
+      <c r="U51" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="V51" s="25" t="s">
+      <c r="V51" s="20" t="s">
         <v>930</v>
       </c>
-      <c r="W51" s="25" t="s">
+      <c r="W51" s="20" t="s">
         <v>931</v>
       </c>
-      <c r="X51" s="25" t="s">
+      <c r="X51" s="20" t="s">
         <v>931</v>
       </c>
-      <c r="Y51" s="25" t="s">
+      <c r="Y51" s="20" t="s">
         <v>931</v>
       </c>
-      <c r="Z51" s="25" t="s">
+      <c r="Z51" s="20" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="52" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
     </row>
-    <row r="53" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="18" t="s">
         <v>934</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="18" t="s">
         <v>937</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="18" t="s">
         <v>939</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="J53" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="K53" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="L53" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="M53" s="23" t="s">
+      <c r="M53" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="N53" s="23" t="s">
+      <c r="N53" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="O53" s="23" t="s">
+      <c r="O53" s="18" t="s">
         <v>947</v>
       </c>
-      <c r="P53" s="23" t="s">
+      <c r="P53" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="Q53" s="23" t="s">
+      <c r="Q53" s="18" t="s">
         <v>949</v>
       </c>
-      <c r="R53" s="23" t="s">
+      <c r="R53" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="S53" s="23" t="s">
+      <c r="S53" s="18" t="s">
         <v>951</v>
       </c>
-      <c r="T53" s="25" t="s">
+      <c r="T53" s="20" t="s">
         <v>952</v>
       </c>
-      <c r="U53" s="25" t="s">
+      <c r="U53" s="20" t="s">
         <v>953</v>
       </c>
-      <c r="V53" s="25" t="s">
+      <c r="V53" s="20" t="s">
         <v>954</v>
       </c>
-      <c r="W53" s="25" t="s">
+      <c r="W53" s="20" t="s">
         <v>955</v>
       </c>
-      <c r="X53" s="25" t="s">
+      <c r="X53" s="20" t="s">
         <v>956</v>
       </c>
-      <c r="Y53" s="25" t="s">
+      <c r="Y53" s="20" t="s">
         <v>957</v>
       </c>
-      <c r="Z53" s="25" t="s">
+      <c r="Z53" s="20" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="54" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31" t="s">
+    <row r="54" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="18" t="s">
         <v>960</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="25" t="s">
+      <c r="C54" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="U54" s="25" t="s">
+      <c r="D54" s="18" t="s">
         <v>962</v>
       </c>
-      <c r="V54" s="25" t="s">
+      <c r="E54" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="W54" s="25" t="s">
+      <c r="F54" s="18" t="s">
         <v>964</v>
       </c>
-      <c r="X54" s="25" t="s">
+      <c r="G54" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="Y54" s="25" t="s">
+      <c r="H54" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="Z54" s="25" t="s">
+      <c r="I54" s="18" t="s">
         <v>967</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>970</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>973</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q54" s="18" t="s">
+        <v>975</v>
+      </c>
+      <c r="R54" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="S54" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="T54" s="20" t="s">
+        <v>978</v>
+      </c>
+      <c r="U54" s="20" t="s">
+        <v>979</v>
+      </c>
+      <c r="V54" s="20" t="s">
+        <v>980</v>
+      </c>
+      <c r="W54" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="X54" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="Y54" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="Z54" s="20" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="32" t="s">
-        <v>968</v>
+      <c r="A55" s="15" t="s">
+        <v>985</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>982</v>
+        <v>999</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
       <c r="R55" s="18" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="S55" s="18" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="T55" s="20" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
       <c r="U55" s="20" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="V55" s="20" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="W55" s="20" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="X55" s="20" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="Y55" s="20" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
       <c r="Z55" s="20" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="32" t="s">
-        <v>994</v>
+      <c r="A56" s="15" t="s">
+        <v>1011</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>1009</v>
+        <v>1026</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>1010</v>
+        <v>1027</v>
       </c>
       <c r="R56" s="18" t="s">
-        <v>1011</v>
+        <v>1028</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>1012</v>
+        <v>1029</v>
       </c>
       <c r="T56" s="20" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
       <c r="U56" s="20" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
       <c r="V56" s="20" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
       <c r="W56" s="20" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="X56" s="20" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="Y56" s="20" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="Z56" s="20" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="32" t="s">
-        <v>1020</v>
+      <c r="A57" s="15" t="s">
+        <v>1037</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>1026</v>
+        <v>1043</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>1028</v>
+        <v>1045</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>1029</v>
+        <v>1046</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>1031</v>
+        <v>1048</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>1032</v>
+        <v>1049</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="T57" s="20" t="s">
-        <v>1039</v>
+        <v>1056</v>
       </c>
       <c r="U57" s="20" t="s">
-        <v>1040</v>
+        <v>1057</v>
       </c>
       <c r="V57" s="20" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="W57" s="20" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="X57" s="20" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="Y57" s="20" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
       <c r="Z57" s="20" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="32" t="s">
-        <v>1046</v>
+      <c r="A58" s="15" t="s">
+        <v>1063</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1048</v>
+        <v>1065</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>1049</v>
+        <v>1066</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>1050</v>
+        <v>1067</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>1052</v>
+        <v>1069</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>1053</v>
+        <v>1070</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>1055</v>
+        <v>1072</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>1056</v>
+        <v>1073</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>1057</v>
+        <v>1074</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>1058</v>
+        <v>1075</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>1059</v>
+        <v>1076</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>1060</v>
+        <v>1077</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>1062</v>
+        <v>1079</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>1063</v>
+        <v>1080</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>1064</v>
+        <v>1081</v>
       </c>
       <c r="T58" s="20" t="s">
-        <v>1065</v>
+        <v>1082</v>
       </c>
       <c r="U58" s="20" t="s">
-        <v>1066</v>
+        <v>1083</v>
       </c>
       <c r="V58" s="20" t="s">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="W58" s="20" t="s">
-        <v>1068</v>
+        <v>1085</v>
       </c>
       <c r="X58" s="20" t="s">
-        <v>1069</v>
+        <v>1086</v>
       </c>
       <c r="Y58" s="20" t="s">
-        <v>1070</v>
+        <v>1087</v>
       </c>
       <c r="Z58" s="20" t="s">
-        <v>1071</v>
+        <v>1088</v>
       </c>
     </row>
-    <row r="59" s="37" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="33" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B59" s="34" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I59" s="34" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J59" s="34" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K59" s="34" t="s">
-        <v>1082</v>
-      </c>
-      <c r="L59" s="35" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M59" s="34" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N59" s="34" t="s">
-        <v>1085</v>
-      </c>
-      <c r="O59" s="34" t="s">
-        <v>1086</v>
-      </c>
-      <c r="P59" s="34" t="s">
-        <v>1087</v>
-      </c>
-      <c r="Q59" s="34" t="s">
-        <v>1088</v>
-      </c>
-      <c r="R59" s="34" t="s">
+    <row r="59" s="26" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="22" t="s">
         <v>1089</v>
       </c>
-      <c r="S59" s="34" t="s">
+      <c r="B59" s="23" t="s">
         <v>1090</v>
       </c>
-      <c r="T59" s="36" t="s">
+      <c r="C59" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="U59" s="36" t="s">
+      <c r="D59" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="V59" s="36" t="s">
+      <c r="E59" s="23" t="s">
         <v>1093</v>
       </c>
-      <c r="W59" s="36" t="s">
+      <c r="F59" s="23" t="s">
         <v>1094</v>
       </c>
-      <c r="X59" s="36" t="s">
+      <c r="G59" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="Y59" s="36" t="s">
+      <c r="H59" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="Z59" s="36" t="s">
+      <c r="I59" s="23" t="s">
         <v>1097</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L59" s="24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O59" s="23" t="s">
+        <v>1103</v>
+      </c>
+      <c r="P59" s="23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q59" s="23" t="s">
+        <v>1105</v>
+      </c>
+      <c r="R59" s="23" t="s">
+        <v>1106</v>
+      </c>
+      <c r="S59" s="23" t="s">
+        <v>1107</v>
+      </c>
+      <c r="T59" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="U59" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="V59" s="25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W59" s="25" t="s">
+        <v>1111</v>
+      </c>
+      <c r="X59" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Y59" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Z59" s="25" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>1098</v>
+        <v>1115</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>1100</v>
+        <v>1117</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>1102</v>
+        <v>1119</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>1103</v>
+        <v>1120</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>1104</v>
+        <v>1121</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>1106</v>
+        <v>1123</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>1107</v>
+        <v>1124</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>1108</v>
+        <v>1125</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>1109</v>
+        <v>1126</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>1110</v>
+        <v>1127</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>1106</v>
+        <v>1123</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>1111</v>
+        <v>1128</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>1112</v>
+        <v>1129</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>1113</v>
+        <v>1130</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>1114</v>
+        <v>1131</v>
       </c>
       <c r="S60" s="18" t="s">
-        <v>1115</v>
+        <v>1132</v>
       </c>
       <c r="T60" s="20" t="s">
-        <v>1116</v>
+        <v>1133</v>
       </c>
       <c r="U60" s="20" t="s">
-        <v>1117</v>
+        <v>1134</v>
       </c>
       <c r="V60" s="20" t="s">
-        <v>1118</v>
+        <v>1135</v>
       </c>
       <c r="W60" s="20" t="s">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="X60" s="20" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="Y60" s="20" t="s">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="Z60" s="20" t="s">
-        <v>1122</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15" t="s">
-        <v>1123</v>
+        <v>1140</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1124</v>
+        <v>1141</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>1125</v>
+        <v>1142</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>1126</v>
+        <v>1143</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1127</v>
+        <v>1144</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>1128</v>
+        <v>1145</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>1129</v>
+        <v>1146</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>1130</v>
+        <v>1147</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>1131</v>
+        <v>1148</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>1132</v>
+        <v>1149</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>1133</v>
+        <v>1150</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>1134</v>
+        <v>1151</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>1135</v>
+        <v>1152</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>1136</v>
+        <v>1153</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>1137</v>
+        <v>1154</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>1138</v>
+        <v>1155</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>1139</v>
+        <v>1156</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>1140</v>
+        <v>1157</v>
       </c>
       <c r="S61" s="18" t="s">
-        <v>1141</v>
+        <v>1158</v>
       </c>
       <c r="T61" s="20" t="s">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="U61" s="20" t="s">
-        <v>1143</v>
+        <v>1160</v>
       </c>
       <c r="V61" s="20" t="s">
-        <v>1144</v>
+        <v>1161</v>
       </c>
       <c r="W61" s="20" t="s">
-        <v>1145</v>
+        <v>1162</v>
       </c>
       <c r="X61" s="20" t="s">
-        <v>1146</v>
+        <v>1163</v>
       </c>
       <c r="Y61" s="20" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="Z61" s="20" t="s">
-        <v>1148</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>426</v>
@@ -9950,146 +9960,146 @@
         <v>429</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>1153</v>
+        <v>1170</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>1154</v>
+        <v>1171</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="Q62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="R62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="T62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="U62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="V62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="W62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="X62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="Y62" s="20" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="Z62" s="20" t="s">
-        <v>1155</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="32" t="s">
-        <v>1156</v>
+      <c r="A63" s="15" t="s">
+        <v>1173</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>1158</v>
+        <v>1175</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>1126</v>
+        <v>1143</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>1160</v>
+        <v>1177</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>1161</v>
+        <v>1178</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>1163</v>
+        <v>1180</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>1164</v>
+        <v>1181</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>1167</v>
+        <v>1184</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>1168</v>
+        <v>1185</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>1169</v>
+        <v>1186</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>1170</v>
+        <v>1187</v>
       </c>
       <c r="Q63" s="18" t="s">
-        <v>1171</v>
+        <v>1188</v>
       </c>
       <c r="R63" s="18" t="s">
-        <v>1172</v>
+        <v>1189</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>1173</v>
+        <v>1190</v>
       </c>
       <c r="T63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="U63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="V63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="W63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="X63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="Y63" s="20" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="Z63" s="20" t="s">
-        <v>1174</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="38" t="s">
-        <v>1175</v>
+      <c r="A64" s="1" t="s">
+        <v>1192</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>529</v>
@@ -10140,7 +10150,7 @@
         <v>529</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>529</v>
@@ -10169,507 +10179,489 @@
     </row>
     <row r="65" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1178</v>
+        <v>1195</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>1186</v>
+        <v>1203</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>1187</v>
+        <v>1204</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>1188</v>
+        <v>1205</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>1189</v>
+        <v>1206</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>1190</v>
+        <v>1207</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>1191</v>
+        <v>1208</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>1192</v>
+        <v>1209</v>
       </c>
       <c r="Q65" s="18" t="s">
-        <v>1193</v>
+        <v>1210</v>
       </c>
       <c r="R65" s="18" t="s">
-        <v>1194</v>
+        <v>1211</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>1195</v>
+        <v>1212</v>
       </c>
       <c r="T65" s="20" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="U65" s="20" t="s">
-        <v>1197</v>
+        <v>1214</v>
       </c>
       <c r="V65" s="20" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="W65" s="20" t="s">
-        <v>1199</v>
+        <v>1216</v>
       </c>
       <c r="X65" s="20" t="s">
-        <v>1200</v>
+        <v>1217</v>
       </c>
       <c r="Y65" s="20" t="s">
-        <v>1201</v>
+        <v>1218</v>
       </c>
       <c r="Z65" s="20" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
     </row>
-    <row r="66" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
-      <c r="M66" s="28"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="28"/>
-      <c r="T66" s="29"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T66" s="17"/>
+      <c r="Z66" s="3"/>
     </row>
-    <row r="67" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>1203</v>
+        <v>1220</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>1208</v>
+        <v>1225</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>1209</v>
+        <v>1226</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>1211</v>
+        <v>1228</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>1212</v>
+        <v>1229</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>1213</v>
+        <v>1230</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1214</v>
+        <v>1231</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>1215</v>
+        <v>1232</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>1216</v>
+        <v>1233</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>1217</v>
+        <v>1234</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>1219</v>
+        <v>1236</v>
       </c>
       <c r="R67" s="18" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="S67" s="18" t="s">
-        <v>1221</v>
-      </c>
-      <c r="T67" s="39" t="s">
-        <v>1222</v>
-      </c>
-      <c r="U67" s="39" t="s">
-        <v>1223</v>
-      </c>
-      <c r="V67" s="39" t="s">
-        <v>1224</v>
-      </c>
-      <c r="W67" s="39" t="s">
-        <v>1225</v>
-      </c>
-      <c r="X67" s="39" t="s">
-        <v>1226</v>
-      </c>
-      <c r="Y67" s="39" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Z67" s="39" t="s">
-        <v>1228</v>
+        <v>1238</v>
+      </c>
+      <c r="T67" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="U67" s="27" t="s">
+        <v>1240</v>
+      </c>
+      <c r="V67" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="W67" s="27" t="s">
+        <v>1242</v>
+      </c>
+      <c r="X67" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Y67" s="27" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Z67" s="27" t="s">
+        <v>1245</v>
       </c>
     </row>
-    <row r="68" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>1234</v>
+        <v>1251</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="L68" s="19" t="s">
-        <v>1238</v>
+        <v>1255</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>1244</v>
+        <v>1261</v>
       </c>
       <c r="S68" s="18" t="s">
-        <v>1245</v>
-      </c>
-      <c r="T68" s="39" t="s">
-        <v>1246</v>
-      </c>
-      <c r="U68" s="39" t="s">
-        <v>1247</v>
-      </c>
-      <c r="V68" s="39" t="s">
-        <v>1248</v>
-      </c>
-      <c r="W68" s="39" t="s">
-        <v>1249</v>
-      </c>
-      <c r="X68" s="39" t="s">
-        <v>1250</v>
-      </c>
-      <c r="Y68" s="39" t="s">
-        <v>1251</v>
-      </c>
-      <c r="Z68" s="39" t="s">
-        <v>1252</v>
+        <v>1262</v>
+      </c>
+      <c r="T68" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="U68" s="27" t="s">
+        <v>1264</v>
+      </c>
+      <c r="V68" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W68" s="27" t="s">
+        <v>1266</v>
+      </c>
+      <c r="X68" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Y68" s="27" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Z68" s="27" t="s">
+        <v>1269</v>
       </c>
     </row>
-    <row r="69" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
-        <v>1253</v>
+        <v>1270</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>1257</v>
+        <v>1274</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>1258</v>
+        <v>1275</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>1259</v>
+        <v>1276</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="L69" s="19" t="s">
-        <v>1262</v>
+        <v>1279</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>1263</v>
+        <v>1280</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>1265</v>
+        <v>1282</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>1267</v>
+        <v>1284</v>
       </c>
       <c r="R69" s="18" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>1269</v>
-      </c>
-      <c r="T69" s="39" t="s">
-        <v>1270</v>
-      </c>
-      <c r="U69" s="39" t="s">
-        <v>1271</v>
-      </c>
-      <c r="V69" s="39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="W69" s="39" t="s">
-        <v>1273</v>
-      </c>
-      <c r="X69" s="39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="Y69" s="39" t="s">
-        <v>1275</v>
-      </c>
-      <c r="Z69" s="39" t="s">
-        <v>1276</v>
+        <v>1286</v>
+      </c>
+      <c r="T69" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="U69" s="27" t="s">
+        <v>1288</v>
+      </c>
+      <c r="V69" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W69" s="27" t="s">
+        <v>1290</v>
+      </c>
+      <c r="X69" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Y69" s="27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="Z69" s="27" t="s">
+        <v>1293</v>
       </c>
     </row>
-    <row r="70" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1278</v>
+        <v>1295</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>1282</v>
+        <v>1299</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>1283</v>
+        <v>1300</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>1287</v>
+        <v>1304</v>
       </c>
       <c r="L70" s="19" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>1289</v>
+        <v>1306</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>1293</v>
+        <v>1310</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>1294</v>
-      </c>
-      <c r="T70" s="39" t="s">
-        <v>1295</v>
-      </c>
-      <c r="U70" s="39" t="s">
-        <v>1296</v>
-      </c>
-      <c r="V70" s="39" t="s">
-        <v>1297</v>
-      </c>
-      <c r="W70" s="39" t="s">
-        <v>1298</v>
-      </c>
-      <c r="X70" s="39" t="s">
-        <v>1299</v>
-      </c>
-      <c r="Y70" s="39" t="s">
-        <v>1300</v>
-      </c>
-      <c r="Z70" s="39" t="s">
-        <v>1301</v>
+        <v>1311</v>
+      </c>
+      <c r="T70" s="27" t="s">
+        <v>1312</v>
+      </c>
+      <c r="U70" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="V70" s="27" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W70" s="27" t="s">
+        <v>1315</v>
+      </c>
+      <c r="X70" s="27" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Y70" s="27" t="s">
+        <v>1317</v>
+      </c>
+      <c r="Z70" s="27" t="s">
+        <v>1318</v>
       </c>
     </row>
-    <row r="71" s="40" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="28" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>1302</v>
+        <v>1319</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1303</v>
+        <v>1320</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1306</v>
+        <v>1323</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>1307</v>
+        <v>1324</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>1310</v>
+        <v>1327</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="L71" s="19" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="Q71" s="18" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
       <c r="R71" s="18" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="S71" s="18" t="s">
-        <v>1320</v>
-      </c>
-      <c r="T71" s="39" t="s">
-        <v>1321</v>
-      </c>
-      <c r="U71" s="39" t="s">
-        <v>1322</v>
-      </c>
-      <c r="V71" s="39" t="s">
-        <v>1323</v>
-      </c>
-      <c r="W71" s="39" t="s">
-        <v>1324</v>
-      </c>
-      <c r="X71" s="39" t="s">
-        <v>1325</v>
-      </c>
-      <c r="Y71" s="39" t="s">
-        <v>1326</v>
-      </c>
-      <c r="Z71" s="39" t="s">
-        <v>1327</v>
+        <v>1337</v>
+      </c>
+      <c r="T71" s="27" t="s">
+        <v>1338</v>
+      </c>
+      <c r="U71" s="27" t="s">
+        <v>1339</v>
+      </c>
+      <c r="V71" s="27" t="s">
+        <v>1340</v>
+      </c>
+      <c r="W71" s="27" t="s">
+        <v>1341</v>
+      </c>
+      <c r="X71" s="27" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Y71" s="27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Z71" s="27" t="s">
+        <v>1344</v>
       </c>
     </row>
-    <row r="72" s="40" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -10692,1602 +10684,1602 @@
     </row>
     <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15" t="s">
-        <v>1328</v>
+        <v>1345</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>1330</v>
+        <v>1347</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>1333</v>
+        <v>1350</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>1335</v>
+        <v>1352</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>1336</v>
+        <v>1353</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>1337</v>
+        <v>1354</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>1338</v>
+        <v>1355</v>
       </c>
       <c r="L73" s="19" t="s">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>1340</v>
+        <v>1357</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="Q73" s="18" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="S73" s="18" t="s">
-        <v>1346</v>
+        <v>1363</v>
       </c>
       <c r="T73" s="20" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="U73" s="20" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="V73" s="20" t="s">
-        <v>1349</v>
+        <v>1366</v>
       </c>
       <c r="W73" s="20" t="s">
-        <v>1350</v>
+        <v>1367</v>
       </c>
       <c r="X73" s="20" t="s">
-        <v>1351</v>
+        <v>1368</v>
       </c>
       <c r="Y73" s="20" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="Z73" s="20" t="s">
-        <v>1353</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1355</v>
+        <v>1372</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>1356</v>
+        <v>1373</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>1357</v>
+        <v>1374</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1358</v>
+        <v>1375</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>1359</v>
+        <v>1376</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>1360</v>
+        <v>1377</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>1362</v>
+        <v>1379</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>1363</v>
+        <v>1380</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>1364</v>
+        <v>1381</v>
       </c>
       <c r="L74" s="19" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>1366</v>
+        <v>1383</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>1367</v>
+        <v>1384</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>1368</v>
+        <v>1385</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>1369</v>
+        <v>1386</v>
       </c>
       <c r="Q74" s="18" t="s">
-        <v>1370</v>
+        <v>1387</v>
       </c>
       <c r="R74" s="18" t="s">
-        <v>1371</v>
+        <v>1388</v>
       </c>
       <c r="S74" s="18" t="s">
-        <v>1372</v>
+        <v>1389</v>
       </c>
       <c r="T74" s="20" t="s">
-        <v>1373</v>
+        <v>1390</v>
       </c>
       <c r="U74" s="20" t="s">
-        <v>1374</v>
+        <v>1391</v>
       </c>
       <c r="V74" s="20" t="s">
-        <v>1375</v>
+        <v>1392</v>
       </c>
       <c r="W74" s="20" t="s">
-        <v>1376</v>
+        <v>1393</v>
       </c>
       <c r="X74" s="20" t="s">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="Y74" s="20" t="s">
-        <v>1378</v>
+        <v>1395</v>
       </c>
       <c r="Z74" s="20" t="s">
-        <v>1379</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="32" t="s">
-        <v>1380</v>
+      <c r="A75" s="15" t="s">
+        <v>1397</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>1075</v>
+        <v>1092</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>1076</v>
+        <v>1093</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1077</v>
+        <v>1094</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>1078</v>
+        <v>1095</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>1079</v>
+        <v>1096</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>1080</v>
+        <v>1097</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>1081</v>
+        <v>1098</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>1082</v>
+        <v>1099</v>
       </c>
       <c r="L75" s="19" t="s">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>1085</v>
+        <v>1102</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>1086</v>
+        <v>1103</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>1087</v>
+        <v>1104</v>
       </c>
       <c r="Q75" s="18" t="s">
-        <v>1088</v>
+        <v>1105</v>
       </c>
       <c r="R75" s="18" t="s">
-        <v>1089</v>
+        <v>1106</v>
       </c>
       <c r="S75" s="18" t="s">
-        <v>1090</v>
+        <v>1107</v>
       </c>
       <c r="T75" s="20" t="s">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="U75" s="20" t="s">
-        <v>1092</v>
+        <v>1109</v>
       </c>
       <c r="V75" s="20" t="s">
-        <v>1093</v>
+        <v>1110</v>
       </c>
       <c r="W75" s="20" t="s">
-        <v>1383</v>
+        <v>1400</v>
       </c>
       <c r="X75" s="20" t="s">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="Y75" s="20" t="s">
-        <v>1385</v>
+        <v>1402</v>
       </c>
       <c r="Z75" s="20" t="s">
-        <v>1386</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="32" t="s">
-        <v>1387</v>
+      <c r="A76" s="15" t="s">
+        <v>1404</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>1388</v>
+        <v>1405</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>1390</v>
+        <v>1407</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>1392</v>
+        <v>1409</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>1393</v>
+        <v>1410</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>1394</v>
+        <v>1411</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>1396</v>
+        <v>1413</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>1398</v>
+        <v>1415</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>1399</v>
+        <v>1416</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="Q76" s="18" t="s">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="R76" s="18" t="s">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="S76" s="18" t="s">
-        <v>1405</v>
+        <v>1422</v>
       </c>
       <c r="T76" s="20" t="s">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="U76" s="20" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="V76" s="20" t="s">
-        <v>1408</v>
+        <v>1425</v>
       </c>
       <c r="W76" s="20" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="X76" s="20" t="s">
-        <v>1410</v>
+        <v>1427</v>
       </c>
       <c r="Y76" s="20" t="s">
-        <v>1411</v>
+        <v>1428</v>
       </c>
       <c r="Z76" s="20" t="s">
-        <v>1412</v>
+        <v>1429</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="32" t="s">
-        <v>1413</v>
+    <row r="77" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="15" t="s">
+        <v>1430</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1414</v>
+        <v>1431</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>1415</v>
+        <v>1432</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>1416</v>
+        <v>1433</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1417</v>
+        <v>1434</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>1418</v>
+        <v>1435</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>1420</v>
+        <v>1437</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>1421</v>
+        <v>1438</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>1422</v>
+        <v>1439</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>1423</v>
+        <v>1440</v>
       </c>
       <c r="L77" s="19" t="s">
-        <v>1424</v>
+        <v>1441</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>1425</v>
+        <v>1442</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>1426</v>
+        <v>1443</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>1427</v>
+        <v>1444</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>1428</v>
+        <v>1445</v>
       </c>
       <c r="Q77" s="18" t="s">
-        <v>1429</v>
+        <v>1446</v>
       </c>
       <c r="R77" s="18" t="s">
-        <v>1430</v>
+        <v>1447</v>
       </c>
       <c r="S77" s="18" t="s">
-        <v>1431</v>
+        <v>1448</v>
       </c>
       <c r="T77" s="20" t="s">
-        <v>1432</v>
+        <v>1449</v>
       </c>
       <c r="U77" s="20" t="s">
-        <v>1433</v>
+        <v>1450</v>
       </c>
       <c r="V77" s="20" t="s">
-        <v>1434</v>
+        <v>1451</v>
       </c>
       <c r="W77" s="20" t="s">
-        <v>1435</v>
+        <v>1452</v>
       </c>
       <c r="X77" s="20" t="s">
-        <v>1436</v>
+        <v>1453</v>
       </c>
       <c r="Y77" s="20" t="s">
-        <v>1437</v>
+        <v>1454</v>
       </c>
       <c r="Z77" s="20" t="s">
-        <v>1438</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="32" t="s">
-        <v>1439</v>
+      <c r="A78" s="15" t="s">
+        <v>1456</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>1440</v>
+        <v>1457</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>1441</v>
+        <v>1458</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>1443</v>
+        <v>1460</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>1444</v>
+        <v>1461</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>1445</v>
+        <v>1462</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>1446</v>
+        <v>1463</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>1447</v>
+        <v>1464</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>1448</v>
+        <v>1465</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>1449</v>
+        <v>1466</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1450</v>
+        <v>1467</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>1451</v>
+        <v>1468</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>1452</v>
+        <v>1469</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>1453</v>
+        <v>1470</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>1454</v>
+        <v>1471</v>
       </c>
       <c r="Q78" s="18" t="s">
-        <v>1455</v>
+        <v>1472</v>
       </c>
       <c r="R78" s="18" t="s">
-        <v>1456</v>
+        <v>1473</v>
       </c>
       <c r="S78" s="18" t="s">
-        <v>1457</v>
+        <v>1474</v>
       </c>
       <c r="T78" s="20" t="s">
-        <v>1458</v>
+        <v>1475</v>
       </c>
       <c r="U78" s="20" t="s">
-        <v>1459</v>
+        <v>1476</v>
       </c>
       <c r="V78" s="20" t="s">
-        <v>1460</v>
+        <v>1477</v>
       </c>
       <c r="W78" s="20" t="s">
-        <v>1461</v>
+        <v>1478</v>
       </c>
       <c r="X78" s="20" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="Y78" s="20" t="s">
-        <v>1463</v>
+        <v>1480</v>
       </c>
       <c r="Z78" s="20" t="s">
-        <v>1464</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="32" t="s">
-        <v>1465</v>
+      <c r="A79" s="15" t="s">
+        <v>1482</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1466</v>
+        <v>1483</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>1467</v>
+        <v>1484</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>1468</v>
+        <v>1485</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>1469</v>
+        <v>1486</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>1470</v>
+        <v>1487</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>1471</v>
+        <v>1488</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>1472</v>
+        <v>1489</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>1473</v>
+        <v>1490</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>1474</v>
+        <v>1491</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>1475</v>
+        <v>1492</v>
       </c>
       <c r="L79" s="19" t="s">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="Q79" s="18" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="R79" s="18" t="s">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="S79" s="18" t="s">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="T79" s="20" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
       <c r="U79" s="20" t="s">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="V79" s="20" t="s">
-        <v>1486</v>
+        <v>1503</v>
       </c>
       <c r="W79" s="20" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="X79" s="20" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="Y79" s="20" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="Z79" s="20" t="s">
-        <v>1490</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="32" t="s">
-        <v>1491</v>
+      <c r="A80" s="15" t="s">
+        <v>1508</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>1492</v>
+        <v>1509</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>1495</v>
+        <v>1512</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>1496</v>
+        <v>1513</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>1497</v>
+        <v>1514</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>1498</v>
+        <v>1515</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>1500</v>
+        <v>1517</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>1501</v>
+        <v>1518</v>
       </c>
       <c r="L80" s="19" t="s">
-        <v>1502</v>
+        <v>1519</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>1503</v>
+        <v>1520</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>1504</v>
+        <v>1521</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>1505</v>
+        <v>1522</v>
       </c>
       <c r="P80" s="18" t="s">
-        <v>1506</v>
+        <v>1523</v>
       </c>
       <c r="Q80" s="18" t="s">
-        <v>1507</v>
+        <v>1524</v>
       </c>
       <c r="R80" s="18" t="s">
-        <v>1508</v>
+        <v>1525</v>
       </c>
       <c r="S80" s="18" t="s">
-        <v>1509</v>
+        <v>1526</v>
       </c>
       <c r="T80" s="20" t="s">
-        <v>1510</v>
+        <v>1527</v>
       </c>
       <c r="U80" s="20" t="s">
-        <v>1511</v>
+        <v>1528</v>
       </c>
       <c r="V80" s="20" t="s">
-        <v>1512</v>
+        <v>1529</v>
       </c>
       <c r="W80" s="20" t="s">
-        <v>1513</v>
+        <v>1530</v>
       </c>
       <c r="X80" s="20" t="s">
-        <v>1514</v>
+        <v>1531</v>
       </c>
       <c r="Y80" s="20" t="s">
-        <v>1515</v>
+        <v>1532</v>
       </c>
       <c r="Z80" s="20" t="s">
-        <v>1516</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="32" t="s">
-        <v>1517</v>
+      <c r="A81" s="15" t="s">
+        <v>1534</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>1518</v>
+        <v>1535</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>1519</v>
+        <v>1536</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>1520</v>
+        <v>1537</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>1521</v>
+        <v>1538</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>1522</v>
+        <v>1539</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>1523</v>
+        <v>1540</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>1524</v>
+        <v>1541</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1525</v>
+        <v>1542</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>1526</v>
+        <v>1543</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>1527</v>
+        <v>1544</v>
       </c>
       <c r="L81" s="19" t="s">
-        <v>1528</v>
+        <v>1545</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>1529</v>
+        <v>1546</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>1530</v>
+        <v>1547</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>1531</v>
+        <v>1548</v>
       </c>
       <c r="P81" s="18" t="s">
-        <v>1532</v>
+        <v>1549</v>
       </c>
       <c r="Q81" s="18" t="s">
-        <v>1533</v>
+        <v>1550</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>1534</v>
+        <v>1551</v>
       </c>
       <c r="S81" s="18" t="s">
-        <v>1535</v>
+        <v>1552</v>
       </c>
       <c r="T81" s="20" t="s">
-        <v>1536</v>
+        <v>1553</v>
       </c>
       <c r="U81" s="20" t="s">
-        <v>1537</v>
+        <v>1554</v>
       </c>
       <c r="V81" s="20" t="s">
-        <v>1538</v>
+        <v>1555</v>
       </c>
       <c r="W81" s="20" t="s">
-        <v>1539</v>
+        <v>1556</v>
       </c>
       <c r="X81" s="20" t="s">
-        <v>1540</v>
+        <v>1557</v>
       </c>
       <c r="Y81" s="20" t="s">
-        <v>1541</v>
+        <v>1558</v>
       </c>
       <c r="Z81" s="20" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="32" t="s">
-        <v>1543</v>
+      <c r="A82" s="15" t="s">
+        <v>1560</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>1544</v>
+        <v>1561</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>1545</v>
+        <v>1562</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>1547</v>
+        <v>1564</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>1548</v>
+        <v>1565</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>1549</v>
+        <v>1566</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1551</v>
+        <v>1568</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>1552</v>
+        <v>1569</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>1553</v>
+        <v>1570</v>
       </c>
       <c r="L82" s="19" t="s">
-        <v>1554</v>
+        <v>1571</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>1555</v>
+        <v>1572</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>1556</v>
+        <v>1573</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>1557</v>
+        <v>1574</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>1558</v>
+        <v>1575</v>
       </c>
       <c r="Q82" s="18" t="s">
-        <v>1559</v>
+        <v>1576</v>
       </c>
       <c r="R82" s="18" t="s">
-        <v>1560</v>
+        <v>1577</v>
       </c>
       <c r="S82" s="18" t="s">
-        <v>1561</v>
+        <v>1578</v>
       </c>
       <c r="T82" s="20" t="s">
-        <v>1562</v>
+        <v>1579</v>
       </c>
       <c r="U82" s="20" t="s">
-        <v>1563</v>
+        <v>1580</v>
       </c>
       <c r="V82" s="20" t="s">
-        <v>1564</v>
+        <v>1581</v>
       </c>
       <c r="W82" s="20" t="s">
-        <v>1565</v>
+        <v>1582</v>
       </c>
       <c r="X82" s="20" t="s">
-        <v>1566</v>
+        <v>1583</v>
       </c>
       <c r="Y82" s="20" t="s">
-        <v>1567</v>
+        <v>1584</v>
       </c>
       <c r="Z82" s="20" t="s">
-        <v>1568</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="32" t="s">
-        <v>1569</v>
+      <c r="A83" s="15" t="s">
+        <v>1586</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>1571</v>
+        <v>1588</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>1572</v>
+        <v>1589</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>1573</v>
+        <v>1590</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>1574</v>
+        <v>1591</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>1575</v>
+        <v>1592</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>1576</v>
+        <v>1593</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>1577</v>
+        <v>1594</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>1578</v>
+        <v>1595</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>1579</v>
+        <v>1596</v>
       </c>
       <c r="L83" s="19" t="s">
-        <v>1580</v>
+        <v>1597</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>1582</v>
+        <v>1599</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>1583</v>
+        <v>1600</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>1584</v>
+        <v>1601</v>
       </c>
       <c r="Q83" s="18" t="s">
-        <v>1585</v>
+        <v>1602</v>
       </c>
       <c r="R83" s="18" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="S83" s="18" t="s">
-        <v>1587</v>
+        <v>1604</v>
       </c>
       <c r="T83" s="20" t="s">
-        <v>1588</v>
+        <v>1605</v>
       </c>
       <c r="U83" s="20" t="s">
-        <v>1589</v>
+        <v>1606</v>
       </c>
       <c r="V83" s="20" t="s">
-        <v>1590</v>
+        <v>1607</v>
       </c>
       <c r="W83" s="20" t="s">
-        <v>1591</v>
+        <v>1608</v>
       </c>
       <c r="X83" s="20" t="s">
-        <v>1592</v>
+        <v>1609</v>
       </c>
       <c r="Y83" s="20" t="s">
-        <v>1593</v>
+        <v>1610</v>
       </c>
       <c r="Z83" s="20" t="s">
-        <v>1594</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="32" t="s">
-        <v>1595</v>
+      <c r="A84" s="15" t="s">
+        <v>1612</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>1597</v>
+        <v>1614</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>1598</v>
+        <v>1615</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>1599</v>
+        <v>1616</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>1601</v>
+        <v>1618</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>1602</v>
+        <v>1619</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1603</v>
+        <v>1620</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="L84" s="19" t="s">
-        <v>1606</v>
+        <v>1623</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>1607</v>
+        <v>1624</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>1608</v>
+        <v>1625</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>1610</v>
+        <v>1627</v>
       </c>
       <c r="Q84" s="18" t="s">
-        <v>1611</v>
+        <v>1628</v>
       </c>
       <c r="R84" s="18" t="s">
-        <v>1612</v>
+        <v>1629</v>
       </c>
       <c r="S84" s="18" t="s">
-        <v>1613</v>
+        <v>1630</v>
       </c>
       <c r="T84" s="20" t="s">
-        <v>1614</v>
+        <v>1631</v>
       </c>
       <c r="U84" s="20" t="s">
-        <v>1615</v>
+        <v>1632</v>
       </c>
       <c r="V84" s="20" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="W84" s="20" t="s">
-        <v>1617</v>
+        <v>1634</v>
       </c>
       <c r="X84" s="20" t="s">
-        <v>1618</v>
+        <v>1635</v>
       </c>
       <c r="Y84" s="20" t="s">
-        <v>1619</v>
+        <v>1636</v>
       </c>
       <c r="Z84" s="20" t="s">
-        <v>1620</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="32" t="s">
-        <v>1621</v>
+      <c r="A85" s="15" t="s">
+        <v>1638</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>1622</v>
+        <v>1639</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>1623</v>
+        <v>1640</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>1626</v>
+        <v>1643</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>1627</v>
+        <v>1644</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>1628</v>
+        <v>1645</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1629</v>
+        <v>1646</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>1630</v>
+        <v>1647</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>1631</v>
+        <v>1648</v>
       </c>
       <c r="L85" s="19" t="s">
-        <v>1632</v>
+        <v>1649</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>1633</v>
+        <v>1650</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>1634</v>
+        <v>1651</v>
       </c>
       <c r="O85" s="18" t="s">
-        <v>1635</v>
+        <v>1652</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="Q85" s="18" t="s">
-        <v>1637</v>
+        <v>1654</v>
       </c>
       <c r="R85" s="18" t="s">
-        <v>1638</v>
+        <v>1655</v>
       </c>
       <c r="S85" s="18" t="s">
-        <v>1639</v>
+        <v>1656</v>
       </c>
       <c r="T85" s="20" t="s">
-        <v>1640</v>
+        <v>1657</v>
       </c>
       <c r="U85" s="20" t="s">
-        <v>1641</v>
+        <v>1658</v>
       </c>
       <c r="V85" s="20" t="s">
-        <v>1642</v>
+        <v>1659</v>
       </c>
       <c r="W85" s="20" t="s">
-        <v>1643</v>
+        <v>1660</v>
       </c>
       <c r="X85" s="20" t="s">
-        <v>1644</v>
+        <v>1661</v>
       </c>
       <c r="Y85" s="20" t="s">
-        <v>1645</v>
+        <v>1662</v>
       </c>
       <c r="Z85" s="20" t="s">
-        <v>1646</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="32" t="s">
-        <v>1647</v>
+      <c r="A86" s="15" t="s">
+        <v>1664</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>1648</v>
+        <v>1665</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>1649</v>
+        <v>1666</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>1651</v>
+        <v>1668</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>1652</v>
+        <v>1669</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>1653</v>
+        <v>1670</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>1654</v>
+        <v>1671</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1655</v>
+        <v>1672</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>1656</v>
+        <v>1673</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>1657</v>
+        <v>1674</v>
       </c>
       <c r="L86" s="19" t="s">
-        <v>1658</v>
+        <v>1675</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>1659</v>
+        <v>1676</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>1660</v>
+        <v>1677</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>1661</v>
+        <v>1678</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>1662</v>
+        <v>1679</v>
       </c>
       <c r="Q86" s="18" t="s">
-        <v>1663</v>
+        <v>1680</v>
       </c>
       <c r="R86" s="18" t="s">
-        <v>1664</v>
+        <v>1681</v>
       </c>
       <c r="S86" s="18" t="s">
-        <v>1665</v>
+        <v>1682</v>
       </c>
       <c r="T86" s="20" t="s">
-        <v>1666</v>
+        <v>1683</v>
       </c>
       <c r="U86" s="20" t="s">
-        <v>1667</v>
+        <v>1684</v>
       </c>
       <c r="V86" s="20" t="s">
-        <v>1668</v>
+        <v>1685</v>
       </c>
       <c r="W86" s="20" t="s">
-        <v>1669</v>
+        <v>1686</v>
       </c>
       <c r="X86" s="20" t="s">
-        <v>1670</v>
+        <v>1687</v>
       </c>
       <c r="Y86" s="20" t="s">
-        <v>1671</v>
+        <v>1688</v>
       </c>
       <c r="Z86" s="20" t="s">
-        <v>1672</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="32" t="s">
-        <v>1673</v>
+      <c r="A87" s="15" t="s">
+        <v>1690</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>1674</v>
+        <v>1691</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>1675</v>
+        <v>1692</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>1676</v>
+        <v>1693</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>1677</v>
+        <v>1694</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>1678</v>
+        <v>1695</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>1679</v>
+        <v>1696</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>1680</v>
+        <v>1697</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>1681</v>
+        <v>1698</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>1682</v>
+        <v>1699</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>1683</v>
+        <v>1700</v>
       </c>
       <c r="L87" s="19" t="s">
-        <v>1684</v>
+        <v>1701</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>1685</v>
+        <v>1702</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>1686</v>
+        <v>1703</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>1687</v>
+        <v>1704</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>1688</v>
+        <v>1705</v>
       </c>
       <c r="Q87" s="18" t="s">
-        <v>1689</v>
+        <v>1706</v>
       </c>
       <c r="R87" s="18" t="s">
-        <v>1690</v>
+        <v>1707</v>
       </c>
       <c r="S87" s="18" t="s">
-        <v>1691</v>
+        <v>1708</v>
       </c>
       <c r="T87" s="20" t="s">
-        <v>1692</v>
+        <v>1709</v>
       </c>
       <c r="U87" s="20" t="s">
-        <v>1693</v>
+        <v>1710</v>
       </c>
       <c r="V87" s="20" t="s">
-        <v>1694</v>
+        <v>1711</v>
       </c>
       <c r="W87" s="20" t="s">
-        <v>1695</v>
+        <v>1712</v>
       </c>
       <c r="X87" s="20" t="s">
-        <v>1696</v>
+        <v>1713</v>
       </c>
       <c r="Y87" s="20" t="s">
-        <v>1697</v>
+        <v>1714</v>
       </c>
       <c r="Z87" s="20" t="s">
-        <v>1698</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32" t="s">
-        <v>1699</v>
+      <c r="A88" s="15" t="s">
+        <v>1716</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>1701</v>
+        <v>1718</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>1702</v>
+        <v>1719</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>1703</v>
+        <v>1720</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>1704</v>
+        <v>1721</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>1705</v>
+        <v>1722</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>1706</v>
+        <v>1723</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>1707</v>
+        <v>1724</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>1708</v>
+        <v>1725</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>1709</v>
+        <v>1726</v>
       </c>
       <c r="L88" s="19" t="s">
-        <v>1710</v>
+        <v>1727</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>1711</v>
+        <v>1728</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>1712</v>
+        <v>1729</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>1713</v>
+        <v>1730</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>1714</v>
+        <v>1731</v>
       </c>
       <c r="Q88" s="18" t="s">
-        <v>1715</v>
+        <v>1732</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>1716</v>
+        <v>1733</v>
       </c>
       <c r="S88" s="18" t="s">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="T88" s="20" t="s">
-        <v>1718</v>
+        <v>1735</v>
       </c>
       <c r="U88" s="20" t="s">
-        <v>1719</v>
+        <v>1736</v>
       </c>
       <c r="V88" s="20" t="s">
-        <v>1720</v>
+        <v>1737</v>
       </c>
       <c r="W88" s="20" t="s">
-        <v>1721</v>
+        <v>1738</v>
       </c>
       <c r="X88" s="20" t="s">
-        <v>1722</v>
+        <v>1739</v>
       </c>
       <c r="Y88" s="20" t="s">
-        <v>1723</v>
+        <v>1740</v>
       </c>
       <c r="Z88" s="20" t="s">
-        <v>1724</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="32" t="s">
-        <v>1725</v>
+      <c r="A89" s="15" t="s">
+        <v>1742</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>1726</v>
+        <v>1743</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>1727</v>
+        <v>1744</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>1728</v>
+        <v>1745</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1729</v>
+        <v>1746</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>1730</v>
+        <v>1747</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>1731</v>
+        <v>1748</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>1733</v>
+        <v>1750</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>1734</v>
+        <v>1751</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>1735</v>
+        <v>1752</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>1736</v>
+        <v>1753</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>1737</v>
+        <v>1754</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>1738</v>
+        <v>1755</v>
       </c>
       <c r="O89" s="18" t="s">
-        <v>1739</v>
+        <v>1756</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>1740</v>
+        <v>1757</v>
       </c>
       <c r="Q89" s="18" t="s">
-        <v>1741</v>
+        <v>1758</v>
       </c>
       <c r="R89" s="18" t="s">
-        <v>1742</v>
+        <v>1759</v>
       </c>
       <c r="S89" s="18" t="s">
-        <v>1743</v>
+        <v>1760</v>
       </c>
       <c r="T89" s="20" t="s">
-        <v>1744</v>
+        <v>1761</v>
       </c>
       <c r="U89" s="20" t="s">
-        <v>1745</v>
+        <v>1762</v>
       </c>
       <c r="V89" s="20" t="s">
-        <v>1746</v>
+        <v>1763</v>
       </c>
       <c r="W89" s="20" t="s">
-        <v>1747</v>
+        <v>1764</v>
       </c>
       <c r="X89" s="20" t="s">
-        <v>1748</v>
+        <v>1765</v>
       </c>
       <c r="Y89" s="20" t="s">
-        <v>1749</v>
+        <v>1766</v>
       </c>
       <c r="Z89" s="20" t="s">
-        <v>1750</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="32" t="s">
-        <v>1751</v>
+      <c r="A90" s="15" t="s">
+        <v>1768</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>1752</v>
+        <v>1769</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>1753</v>
+        <v>1770</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>1754</v>
+        <v>1771</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>1755</v>
+        <v>1772</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>1756</v>
+        <v>1773</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>1757</v>
+        <v>1774</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>1758</v>
+        <v>1775</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>1759</v>
+        <v>1776</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>1760</v>
+        <v>1777</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>1761</v>
+        <v>1778</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>1762</v>
+        <v>1779</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>1763</v>
+        <v>1780</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>1764</v>
+        <v>1781</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>1765</v>
+        <v>1782</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>1766</v>
+        <v>1783</v>
       </c>
       <c r="Q90" s="18" t="s">
-        <v>1767</v>
+        <v>1784</v>
       </c>
       <c r="R90" s="18" t="s">
-        <v>1768</v>
+        <v>1785</v>
       </c>
       <c r="S90" s="18" t="s">
-        <v>1769</v>
+        <v>1786</v>
       </c>
       <c r="T90" s="20" t="s">
-        <v>1770</v>
+        <v>1787</v>
       </c>
       <c r="U90" s="20" t="s">
-        <v>1771</v>
+        <v>1788</v>
       </c>
       <c r="V90" s="20" t="s">
-        <v>1772</v>
+        <v>1789</v>
       </c>
       <c r="W90" s="20" t="s">
-        <v>1773</v>
+        <v>1790</v>
       </c>
       <c r="X90" s="20" t="s">
-        <v>1774</v>
+        <v>1791</v>
       </c>
       <c r="Y90" s="20" t="s">
-        <v>1775</v>
+        <v>1792</v>
       </c>
       <c r="Z90" s="20" t="s">
-        <v>1776</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="32" t="s">
-        <v>1777</v>
+      <c r="A91" s="15" t="s">
+        <v>1794</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>1778</v>
+        <v>1795</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>1779</v>
+        <v>1796</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>1780</v>
+        <v>1797</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>1781</v>
+        <v>1798</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>1782</v>
+        <v>1799</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>1783</v>
+        <v>1800</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>1784</v>
+        <v>1801</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>1785</v>
+        <v>1802</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>1786</v>
+        <v>1803</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="L91" s="19" t="s">
-        <v>1788</v>
+        <v>1805</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>1789</v>
+        <v>1806</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>1790</v>
+        <v>1807</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>1792</v>
+        <v>1809</v>
       </c>
       <c r="Q91" s="18" t="s">
-        <v>1793</v>
+        <v>1810</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>1794</v>
+        <v>1811</v>
       </c>
       <c r="S91" s="18" t="s">
-        <v>1795</v>
+        <v>1812</v>
       </c>
       <c r="T91" s="20" t="s">
-        <v>1796</v>
+        <v>1813</v>
       </c>
       <c r="U91" s="20" t="s">
-        <v>1797</v>
+        <v>1814</v>
       </c>
       <c r="V91" s="20" t="s">
-        <v>1798</v>
+        <v>1815</v>
       </c>
       <c r="W91" s="20" t="s">
-        <v>1799</v>
+        <v>1816</v>
       </c>
       <c r="X91" s="20" t="s">
-        <v>1800</v>
+        <v>1817</v>
       </c>
       <c r="Y91" s="20" t="s">
-        <v>1801</v>
+        <v>1818</v>
       </c>
       <c r="Z91" s="20" t="s">
-        <v>1802</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="32" t="s">
-        <v>1803</v>
+      <c r="A92" s="15" t="s">
+        <v>1820</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>1804</v>
+        <v>1821</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>1805</v>
+        <v>1822</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>1806</v>
+        <v>1823</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>1807</v>
+        <v>1824</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>1808</v>
+        <v>1825</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>1809</v>
+        <v>1826</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>1810</v>
+        <v>1827</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>1811</v>
+        <v>1828</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>1812</v>
+        <v>1829</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>1813</v>
+        <v>1830</v>
       </c>
       <c r="L92" s="19" t="s">
-        <v>1814</v>
+        <v>1831</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>1815</v>
+        <v>1832</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>1816</v>
+        <v>1833</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>1817</v>
+        <v>1834</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>1818</v>
+        <v>1835</v>
       </c>
       <c r="Q92" s="18" t="s">
-        <v>1819</v>
+        <v>1836</v>
       </c>
       <c r="R92" s="18" t="s">
-        <v>1820</v>
+        <v>1837</v>
       </c>
       <c r="S92" s="18" t="s">
-        <v>1821</v>
+        <v>1838</v>
       </c>
       <c r="T92" s="20" t="s">
-        <v>1822</v>
+        <v>1839</v>
       </c>
       <c r="U92" s="20" t="s">
-        <v>1823</v>
+        <v>1840</v>
       </c>
       <c r="V92" s="20" t="s">
-        <v>1824</v>
+        <v>1841</v>
       </c>
       <c r="W92" s="20" t="s">
-        <v>1825</v>
+        <v>1842</v>
       </c>
       <c r="X92" s="20" t="s">
-        <v>1826</v>
+        <v>1843</v>
       </c>
       <c r="Y92" s="20" t="s">
-        <v>1827</v>
+        <v>1844</v>
       </c>
       <c r="Z92" s="20" t="s">
-        <v>1828</v>
+        <v>1845</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/i18n.xlsx
+++ b/i18n/i18n.xlsx
@@ -184,79 +184,966 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">European Data Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europäisches Datenportal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal Europeo de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portail européen de données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portale Europeo dei Dati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europejski Portal Danych</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europees Data Portaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portál Európskych Údajov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europeiska Data Portalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europski Portal Podataka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Európai Adatportál</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal Europeu de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evropský Datový Portál</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euroopan Dataportaali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portalul European De Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Европейски Портал за данни</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ευρωπαϊκη Πυλη δεδομενων</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal tad-data Ewropew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Europæiske Dataportal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euroopa Andmeportaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tairseach Sonraí Oscailte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europos duomenų portalas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eiropas datu portāls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evropski podatkovni portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den europeiske dataportalen</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">European &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Data Portal&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europäisches &lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Datenportal&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portal Europeo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">de Datos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portail européen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">de données</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portale Europeo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dei Dati</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europejski </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portal Danych</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europees </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Data Portaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portál Európskych </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Údajov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europeiska </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Data Portalen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europski </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portal Podataka</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Európai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adatportál</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portal Europeu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">de Dados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Evropský </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Datový Portál</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Euroopan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dataportaali</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portalul European </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">De Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Европейски </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Портал за данни</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ευρωπαϊκη </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Πυλη δεδομενων</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Portal tad-data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ewropew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Den Europæiske </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dataportal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Euroopa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Andmeportaal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tairseach Sonraí</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Oscailte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Europos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">duomenų portalas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eiropas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">datu portāls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Evropski </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">podatkovni portal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Den europeiske </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dataportalen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">menu.legal-notice</t>
@@ -5569,7 +6456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5607,6 +6494,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5682,7 +6575,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5755,11 +6648,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5779,7 +6692,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5879,11 +6792,11 @@
   <dimension ref="A1:Z92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
-      <selection pane="bottomRight" activeCell="E77" activeCellId="0" sqref="E77"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z6" activeCellId="0" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6141,88 +7054,89 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="6" s="22" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="20" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="16"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
@@ -6235,79 +7149,79 @@
       <c r="A8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="O8" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="18" t="s">
+      <c r="Q8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="20" t="s">
+      <c r="V8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="W8" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="20" t="s">
+      <c r="X8" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z8" s="25" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6315,79 +7229,79 @@
       <c r="A9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="T9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="U9" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="V9" s="20" t="s">
+      <c r="V9" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="W9" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="X9" s="20" t="s">
+      <c r="X9" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="25" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6395,79 +7309,79 @@
       <c r="A10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="U10" s="20" t="s">
+      <c r="U10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="V10" s="20" t="s">
+      <c r="V10" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="X10" s="20" t="s">
+      <c r="X10" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="25" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6484,79 +7398,79 @@
       <c r="A12" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="25" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6564,79 +7478,79 @@
       <c r="A13" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="M13" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O13" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="Q13" s="18" t="s">
+      <c r="Q13" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="S13" s="18" t="s">
+      <c r="S13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="U13" s="20" t="s">
+      <c r="U13" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="V13" s="20" t="s">
+      <c r="V13" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="W13" s="20" t="s">
+      <c r="W13" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="X13" s="20" t="s">
+      <c r="X13" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="25" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6644,79 +7558,79 @@
       <c r="A14" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="O14" s="18" t="s">
+      <c r="O14" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="V14" s="20" t="s">
+      <c r="V14" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="W14" s="20" t="s">
+      <c r="W14" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="X14" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="Y14" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="Z14" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6724,79 +7638,79 @@
       <c r="A15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="U15" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="V15" s="20" t="s">
+      <c r="V15" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="W15" s="20" t="s">
+      <c r="W15" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="X15" s="20" t="s">
+      <c r="X15" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="Y15" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="Z15" s="20" t="s">
+      <c r="Z15" s="25" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6804,79 +7718,79 @@
       <c r="A16" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="P16" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="Q16" s="18" t="s">
+      <c r="Q16" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="U16" s="20" t="s">
+      <c r="U16" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="V16" s="20" t="s">
+      <c r="V16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="X16" s="20" t="s">
+      <c r="X16" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="Y16" s="20" t="s">
+      <c r="Y16" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="Z16" s="20" t="s">
+      <c r="Z16" s="25" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6893,79 +7807,79 @@
       <c r="A18" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="P18" s="18" t="s">
+      <c r="P18" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="Q18" s="18" t="s">
+      <c r="Q18" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="R18" s="18" t="s">
+      <c r="R18" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="U18" s="20" t="s">
+      <c r="U18" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="V18" s="20" t="s">
+      <c r="V18" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="W18" s="20" t="s">
+      <c r="W18" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="X18" s="20" t="s">
+      <c r="X18" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="Y18" s="20" t="s">
+      <c r="Y18" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="Z18" s="20" t="s">
+      <c r="Z18" s="25" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6973,79 +7887,79 @@
       <c r="A19" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P19" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q19" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="U19" s="20" t="s">
+      <c r="U19" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="W19" s="20" t="s">
+      <c r="W19" s="25" t="s">
         <v>289</v>
       </c>
-      <c r="X19" s="20" t="s">
+      <c r="X19" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="Y19" s="20" t="s">
+      <c r="Y19" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="25" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7053,79 +7967,79 @@
       <c r="A20" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="L20" s="19" t="s">
+      <c r="L20" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="O20" s="18" t="s">
+      <c r="O20" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="P20" s="18" t="s">
+      <c r="P20" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="Q20" s="18" t="s">
+      <c r="Q20" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="U20" s="20" t="s">
+      <c r="U20" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="V20" s="20" t="s">
+      <c r="V20" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="W20" s="20" t="s">
+      <c r="W20" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="X20" s="20" t="s">
+      <c r="X20" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="Y20" s="20" t="s">
+      <c r="Y20" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="Z20" s="20" t="s">
+      <c r="Z20" s="25" t="s">
         <v>318</v>
       </c>
     </row>
@@ -7133,79 +8047,79 @@
       <c r="A21" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="N21" s="18" t="s">
+      <c r="N21" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O21" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P21" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="Q21" s="18" t="s">
+      <c r="Q21" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="R21" s="18" t="s">
+      <c r="R21" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="S21" s="18" t="s">
+      <c r="S21" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="U21" s="20" t="s">
+      <c r="U21" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="V21" s="20" t="s">
+      <c r="V21" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="W21" s="20" t="s">
+      <c r="W21" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="X21" s="20" t="s">
+      <c r="X21" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="Y21" s="20" t="s">
+      <c r="Y21" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="Z21" s="20" t="s">
+      <c r="Z21" s="25" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7213,79 +8127,79 @@
       <c r="A22" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P22" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q22" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="R22" s="18" t="s">
+      <c r="R22" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="U22" s="20" t="s">
+      <c r="U22" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="V22" s="20" t="s">
+      <c r="V22" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="X22" s="20" t="s">
+      <c r="X22" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="Y22" s="20" t="s">
+      <c r="Y22" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="Z22" s="20" t="s">
+      <c r="Z22" s="25" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7293,79 +8207,79 @@
       <c r="A23" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="J23" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="M23" s="18" t="s">
+      <c r="M23" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O23" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P23" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="Q23" s="18" t="s">
+      <c r="Q23" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="R23" s="18" t="s">
+      <c r="R23" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="U23" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="V23" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="W23" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="X23" s="20" t="s">
+      <c r="X23" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="Y23" s="20" t="s">
+      <c r="Y23" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="Z23" s="20" t="s">
+      <c r="Z23" s="25" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7373,79 +8287,79 @@
       <c r="A24" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="P24" s="18" t="s">
+      <c r="P24" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="Q24" s="18" t="s">
+      <c r="Q24" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="R24" s="18" t="s">
+      <c r="R24" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="S24" s="18" t="s">
+      <c r="S24" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="U24" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="V24" s="20" t="s">
+      <c r="V24" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="W24" s="20" t="s">
+      <c r="W24" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="X24" s="20" t="s">
+      <c r="X24" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="Y24" s="20" t="s">
+      <c r="Y24" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="Z24" s="20" t="s">
+      <c r="Z24" s="25" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7453,79 +8367,79 @@
       <c r="A25" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M25" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="Q25" s="18" t="s">
+      <c r="Q25" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="S25" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="U25" s="20" t="s">
+      <c r="U25" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="V25" s="20" t="s">
+      <c r="V25" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="W25" s="20" t="s">
+      <c r="W25" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="X25" s="20" t="s">
+      <c r="X25" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="Y25" s="20" t="s">
+      <c r="Y25" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="Z25" s="20" t="s">
+      <c r="Z25" s="25" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7533,79 +8447,79 @@
       <c r="A26" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="23" t="s">
         <v>454</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="23" t="s">
         <v>459</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="23" t="s">
         <v>461</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="O26" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="P26" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="R26" s="18" t="s">
+      <c r="R26" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="T26" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="U26" s="20" t="s">
+      <c r="U26" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="V26" s="20" t="s">
+      <c r="V26" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="W26" s="20" t="s">
+      <c r="W26" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="X26" s="20" t="s">
+      <c r="X26" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="Y26" s="20" t="s">
+      <c r="Y26" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="Z26" s="20" t="s">
+      <c r="Z26" s="25" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7613,79 +8527,79 @@
       <c r="A27" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="23" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="K27" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="O27" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="P27" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="Q27" s="18" t="s">
+      <c r="Q27" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="R27" s="18" t="s">
+      <c r="R27" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="S27" s="18" t="s">
+      <c r="S27" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="T27" s="20" t="s">
+      <c r="T27" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="U27" s="20" t="s">
+      <c r="U27" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="V27" s="20" t="s">
+      <c r="V27" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="W27" s="20" t="s">
+      <c r="W27" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="X27" s="20" t="s">
+      <c r="X27" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="Y27" s="20" t="s">
+      <c r="Y27" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="Z27" s="20" t="s">
+      <c r="Z27" s="25" t="s">
         <v>500</v>
       </c>
     </row>
@@ -7693,79 +8607,79 @@
       <c r="A28" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="K28" s="18" t="s">
+      <c r="K28" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M28" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="O28" s="18" t="s">
+      <c r="O28" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="Q28" s="18" t="s">
+      <c r="Q28" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="R28" s="18" t="s">
+      <c r="R28" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="S28" s="18" t="s">
+      <c r="S28" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="U28" s="20" t="s">
+      <c r="U28" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="V28" s="20" t="s">
+      <c r="V28" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="W28" s="20" t="s">
+      <c r="W28" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="X28" s="20" t="s">
+      <c r="X28" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="Y28" s="20" t="s">
+      <c r="Y28" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="Z28" s="20" t="s">
+      <c r="Z28" s="25" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7773,79 +8687,79 @@
       <c r="A29" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="O29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="P29" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="Q29" s="18" t="s">
+      <c r="Q29" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="R29" s="18" t="s">
+      <c r="R29" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="S29" s="18" t="s">
+      <c r="S29" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="U29" s="20" t="s">
+      <c r="U29" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="V29" s="20" t="s">
+      <c r="V29" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="W29" s="20" t="s">
+      <c r="W29" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="X29" s="20" t="s">
+      <c r="X29" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="Y29" s="20" t="s">
+      <c r="Y29" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="Z29" s="20" t="s">
+      <c r="Z29" s="25" t="s">
         <v>528</v>
       </c>
     </row>
@@ -7862,79 +8776,79 @@
       <c r="A31" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="M31" s="18" t="s">
+      <c r="M31" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="O31" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="P31" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="Q31" s="18" t="s">
+      <c r="Q31" s="23" t="s">
         <v>553</v>
       </c>
-      <c r="R31" s="18" t="s">
+      <c r="R31" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="S31" s="18" t="s">
+      <c r="S31" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="U31" s="20" t="s">
+      <c r="U31" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="V31" s="20" t="s">
+      <c r="V31" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="W31" s="20" t="s">
+      <c r="W31" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="X31" s="20" t="s">
+      <c r="X31" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="Y31" s="20" t="s">
+      <c r="Y31" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="Z31" s="20" t="s">
+      <c r="Z31" s="25" t="s">
         <v>562</v>
       </c>
     </row>
@@ -7942,79 +8856,79 @@
       <c r="A32" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="23" t="s">
         <v>567</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="23" t="s">
         <v>568</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="J32" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="L32" s="19" t="s">
+      <c r="L32" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="M32" s="18" t="s">
+      <c r="M32" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="O32" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="Q32" s="18" t="s">
+      <c r="Q32" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="R32" s="18" t="s">
+      <c r="R32" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="S32" s="18" t="s">
+      <c r="S32" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="T32" s="20" t="s">
+      <c r="T32" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="U32" s="20" t="s">
+      <c r="U32" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="V32" s="20" t="s">
+      <c r="V32" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="W32" s="20" t="s">
+      <c r="W32" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="X32" s="20" t="s">
+      <c r="X32" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="Y32" s="20" t="s">
+      <c r="Y32" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="Z32" s="20" t="s">
+      <c r="Z32" s="25" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8022,79 +8936,79 @@
       <c r="A33" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="O33" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="P33" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="Q33" s="18" t="s">
+      <c r="Q33" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="R33" s="18" t="s">
+      <c r="R33" s="23" t="s">
         <v>606</v>
       </c>
-      <c r="S33" s="18" t="s">
+      <c r="S33" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="T33" s="20" t="s">
+      <c r="T33" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="U33" s="20" t="s">
+      <c r="U33" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="V33" s="20" t="s">
+      <c r="V33" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="W33" s="20" t="s">
+      <c r="W33" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="X33" s="20" t="s">
+      <c r="X33" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="Y33" s="20" t="s">
+      <c r="Y33" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="Z33" s="20" t="s">
+      <c r="Z33" s="25" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8102,79 +9016,79 @@
       <c r="A34" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="23" t="s">
         <v>617</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="K34" s="18" t="s">
+      <c r="K34" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="M34" s="18" t="s">
+      <c r="M34" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="P34" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="Q34" s="18" t="s">
+      <c r="Q34" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="R34" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="S34" s="18" t="s">
+      <c r="S34" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="U34" s="20" t="s">
+      <c r="U34" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="V34" s="20" t="s">
+      <c r="V34" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="W34" s="20" t="s">
+      <c r="W34" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="X34" s="20" t="s">
+      <c r="X34" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="Y34" s="20" t="s">
+      <c r="Y34" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="Z34" s="20" t="s">
+      <c r="Z34" s="25" t="s">
         <v>640</v>
       </c>
     </row>
@@ -8182,79 +9096,79 @@
       <c r="A35" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="J35" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="L35" s="19" t="s">
+      <c r="L35" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="M35" s="18" t="s">
+      <c r="M35" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="O35" s="18" t="s">
+      <c r="O35" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="P35" s="18" t="s">
+      <c r="P35" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="Q35" s="18" t="s">
+      <c r="Q35" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="R35" s="18" t="s">
+      <c r="R35" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="S35" s="18" t="s">
+      <c r="S35" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="U35" s="20" t="s">
+      <c r="U35" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="V35" s="20" t="s">
+      <c r="V35" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="W35" s="20" t="s">
+      <c r="W35" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="X35" s="20" t="s">
+      <c r="X35" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="Y35" s="20" t="s">
+      <c r="Y35" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="Z35" s="20" t="s">
+      <c r="Z35" s="25" t="s">
         <v>666</v>
       </c>
     </row>
@@ -8262,95 +9176,95 @@
       <c r="A36" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="J36" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="K36" s="18" t="s">
+      <c r="K36" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="M36" s="18" t="s">
+      <c r="M36" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="23" t="s">
         <v>680</v>
       </c>
-      <c r="O36" s="18" t="s">
+      <c r="O36" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="P36" s="18" t="s">
+      <c r="P36" s="23" t="s">
         <v>682</v>
       </c>
-      <c r="Q36" s="18" t="s">
+      <c r="Q36" s="23" t="s">
         <v>683</v>
       </c>
-      <c r="R36" s="18" t="s">
+      <c r="R36" s="23" t="s">
         <v>684</v>
       </c>
-      <c r="S36" s="18" t="s">
+      <c r="S36" s="23" t="s">
         <v>685</v>
       </c>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="U36" s="20" t="s">
+      <c r="U36" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="V36" s="20" t="s">
+      <c r="V36" s="25" t="s">
         <v>688</v>
       </c>
-      <c r="W36" s="20" t="s">
+      <c r="W36" s="25" t="s">
         <v>689</v>
       </c>
-      <c r="X36" s="20" t="s">
+      <c r="X36" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="Y36" s="20" t="s">
+      <c r="Y36" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="Z36" s="20" t="s">
+      <c r="Z36" s="25" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -8370,61 +9284,61 @@
       <c r="A38" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="23" t="s">
         <v>696</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="23" t="s">
         <v>697</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="23" t="s">
         <v>699</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="23" t="s">
         <v>700</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="23" t="s">
         <v>702</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="M38" s="18" t="s">
+      <c r="M38" s="23" t="s">
         <v>705</v>
       </c>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="23" t="s">
         <v>706</v>
       </c>
-      <c r="O38" s="18" t="s">
+      <c r="O38" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="P38" s="18" t="s">
+      <c r="P38" s="23" t="s">
         <v>708</v>
       </c>
-      <c r="Q38" s="18" t="s">
+      <c r="Q38" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="R38" s="18" t="s">
+      <c r="R38" s="23" t="s">
         <v>710</v>
       </c>
-      <c r="S38" s="18" t="s">
+      <c r="S38" s="23" t="s">
         <v>711</v>
       </c>
-      <c r="T38" s="20" t="s">
+      <c r="T38" s="25" t="s">
         <v>712</v>
       </c>
       <c r="U38" s="17" t="s">
@@ -8450,79 +9364,79 @@
       <c r="A39" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>720</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="23" t="s">
         <v>721</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="23" t="s">
         <v>723</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="23" t="s">
         <v>724</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="23" t="s">
         <v>725</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="23" t="s">
         <v>726</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="23" t="s">
         <v>727</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="23" t="s">
         <v>728</v>
       </c>
-      <c r="K39" s="18" t="s">
+      <c r="K39" s="23" t="s">
         <v>729</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="M39" s="18" t="s">
+      <c r="M39" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="O39" s="18" t="s">
+      <c r="O39" s="23" t="s">
         <v>732</v>
       </c>
-      <c r="P39" s="18" t="s">
+      <c r="P39" s="23" t="s">
         <v>733</v>
       </c>
-      <c r="Q39" s="18" t="s">
+      <c r="Q39" s="23" t="s">
         <v>734</v>
       </c>
-      <c r="R39" s="18" t="s">
+      <c r="R39" s="23" t="s">
         <v>735</v>
       </c>
-      <c r="S39" s="18" t="s">
+      <c r="S39" s="23" t="s">
         <v>736</v>
       </c>
-      <c r="T39" s="20" t="s">
+      <c r="T39" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="U39" s="20" t="s">
+      <c r="U39" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="V39" s="20" t="s">
+      <c r="V39" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="W39" s="20" t="s">
+      <c r="W39" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="X39" s="20" t="s">
+      <c r="X39" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="Y39" s="20" t="s">
+      <c r="Y39" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="Z39" s="20" t="s">
+      <c r="Z39" s="25" t="s">
         <v>743</v>
       </c>
     </row>
@@ -8530,79 +9444,79 @@
       <c r="A40" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="23" t="s">
         <v>746</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="23" t="s">
         <v>748</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="23" t="s">
         <v>749</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="23" t="s">
         <v>750</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="23" t="s">
         <v>751</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="23" t="s">
         <v>752</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="J40" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="K40" s="18" t="s">
+      <c r="K40" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="M40" s="18" t="s">
+      <c r="M40" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="O40" s="18" t="s">
+      <c r="O40" s="23" t="s">
         <v>758</v>
       </c>
-      <c r="P40" s="18" t="s">
+      <c r="P40" s="23" t="s">
         <v>759</v>
       </c>
-      <c r="Q40" s="18" t="s">
+      <c r="Q40" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="R40" s="18" t="s">
+      <c r="R40" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="S40" s="18" t="s">
+      <c r="S40" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="T40" s="20" t="s">
+      <c r="T40" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="U40" s="20" t="s">
+      <c r="U40" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="V40" s="20" t="s">
+      <c r="V40" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="W40" s="20" t="s">
+      <c r="W40" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="X40" s="20" t="s">
+      <c r="X40" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="Y40" s="20" t="s">
+      <c r="Y40" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="Z40" s="20" t="s">
+      <c r="Z40" s="25" t="s">
         <v>769</v>
       </c>
     </row>
@@ -8610,79 +9524,79 @@
       <c r="A41" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="23" t="s">
         <v>771</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="23" t="s">
         <v>772</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="23" t="s">
         <v>773</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="23" t="s">
         <v>774</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="23" t="s">
         <v>776</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="23" t="s">
         <v>777</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="J41" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="K41" s="18" t="s">
+      <c r="K41" s="23" t="s">
         <v>780</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="24" t="s">
         <v>781</v>
       </c>
-      <c r="M41" s="18" t="s">
+      <c r="M41" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="23" t="s">
         <v>778</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="O41" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="P41" s="18" t="s">
+      <c r="P41" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="Q41" s="18" t="s">
+      <c r="Q41" s="23" t="s">
         <v>785</v>
       </c>
-      <c r="R41" s="18" t="s">
+      <c r="R41" s="23" t="s">
         <v>786</v>
       </c>
-      <c r="S41" s="18" t="s">
+      <c r="S41" s="23" t="s">
         <v>787</v>
       </c>
-      <c r="T41" s="20" t="s">
+      <c r="T41" s="25" t="s">
         <v>788</v>
       </c>
-      <c r="U41" s="20" t="s">
+      <c r="U41" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="V41" s="20" t="s">
+      <c r="V41" s="25" t="s">
         <v>790</v>
       </c>
-      <c r="W41" s="20" t="s">
+      <c r="W41" s="25" t="s">
         <v>791</v>
       </c>
-      <c r="X41" s="20" t="s">
+      <c r="X41" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="Y41" s="20" t="s">
+      <c r="Y41" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="Z41" s="20" t="s">
+      <c r="Z41" s="25" t="s">
         <v>794</v>
       </c>
     </row>
@@ -8699,79 +9613,79 @@
       <c r="A43" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="23" t="s">
         <v>796</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="23" t="s">
         <v>797</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="23" t="s">
         <v>799</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="23" t="s">
         <v>800</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="23" t="s">
         <v>801</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="23" t="s">
         <v>806</v>
       </c>
-      <c r="M43" s="18" t="s">
+      <c r="M43" s="23" t="s">
         <v>807</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="23" t="s">
         <v>809</v>
       </c>
-      <c r="P43" s="18" t="s">
+      <c r="P43" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="Q43" s="18" t="s">
+      <c r="Q43" s="23" t="s">
         <v>811</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="23" t="s">
         <v>812</v>
       </c>
-      <c r="S43" s="18" t="s">
+      <c r="S43" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="T43" s="20" t="s">
+      <c r="T43" s="25" t="s">
         <v>814</v>
       </c>
-      <c r="U43" s="20" t="s">
+      <c r="U43" s="25" t="s">
         <v>815</v>
       </c>
-      <c r="V43" s="20" t="s">
+      <c r="V43" s="25" t="s">
         <v>816</v>
       </c>
-      <c r="W43" s="20" t="s">
+      <c r="W43" s="25" t="s">
         <v>817</v>
       </c>
-      <c r="X43" s="20" t="s">
+      <c r="X43" s="25" t="s">
         <v>818</v>
       </c>
-      <c r="Y43" s="20" t="s">
+      <c r="Y43" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="Z43" s="20" t="s">
+      <c r="Z43" s="25" t="s">
         <v>820</v>
       </c>
     </row>
@@ -8779,79 +9693,79 @@
       <c r="A44" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="23" t="s">
         <v>823</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="M44" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="23" t="s">
         <v>835</v>
       </c>
-      <c r="P44" s="18" t="s">
+      <c r="P44" s="23" t="s">
         <v>836</v>
       </c>
-      <c r="Q44" s="18" t="s">
+      <c r="Q44" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="R44" s="18" t="s">
+      <c r="R44" s="23" t="s">
         <v>838</v>
       </c>
-      <c r="S44" s="18" t="s">
+      <c r="S44" s="23" t="s">
         <v>839</v>
       </c>
-      <c r="T44" s="20" t="s">
+      <c r="T44" s="25" t="s">
         <v>840</v>
       </c>
-      <c r="U44" s="20" t="s">
+      <c r="U44" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="V44" s="20" t="s">
+      <c r="V44" s="25" t="s">
         <v>842</v>
       </c>
-      <c r="W44" s="20" t="s">
+      <c r="W44" s="25" t="s">
         <v>843</v>
       </c>
-      <c r="X44" s="20" t="s">
+      <c r="X44" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="Y44" s="20" t="s">
+      <c r="Y44" s="25" t="s">
         <v>845</v>
       </c>
-      <c r="Z44" s="20" t="s">
+      <c r="Z44" s="25" t="s">
         <v>846</v>
       </c>
     </row>
@@ -8859,79 +9773,79 @@
       <c r="A45" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="23" t="s">
         <v>848</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="23" t="s">
         <v>854</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="J45" s="23" t="s">
         <v>856</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="K45" s="23" t="s">
         <v>857</v>
       </c>
-      <c r="L45" s="19" t="s">
+      <c r="L45" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="M45" s="23" t="s">
         <v>859</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="23" t="s">
         <v>860</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="P45" s="18" t="s">
+      <c r="P45" s="23" t="s">
         <v>862</v>
       </c>
-      <c r="Q45" s="18" t="s">
+      <c r="Q45" s="23" t="s">
         <v>863</v>
       </c>
-      <c r="R45" s="18" t="s">
+      <c r="R45" s="23" t="s">
         <v>864</v>
       </c>
-      <c r="S45" s="18" t="s">
+      <c r="S45" s="23" t="s">
         <v>865</v>
       </c>
-      <c r="T45" s="20" t="s">
+      <c r="T45" s="25" t="s">
         <v>866</v>
       </c>
-      <c r="U45" s="20" t="s">
+      <c r="U45" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="V45" s="20" t="s">
+      <c r="V45" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="W45" s="20" t="s">
+      <c r="W45" s="25" t="s">
         <v>869</v>
       </c>
-      <c r="X45" s="20" t="s">
+      <c r="X45" s="25" t="s">
         <v>870</v>
       </c>
-      <c r="Y45" s="20" t="s">
+      <c r="Y45" s="25" t="s">
         <v>871</v>
       </c>
-      <c r="Z45" s="20" t="s">
+      <c r="Z45" s="25" t="s">
         <v>872</v>
       </c>
     </row>
@@ -8939,79 +9853,79 @@
       <c r="A46" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="23" t="s">
         <v>874</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="23" t="s">
         <v>876</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="23" t="s">
         <v>877</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="23" t="s">
         <v>878</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="23" t="s">
         <v>879</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="23" t="s">
         <v>880</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J46" s="23" t="s">
         <v>882</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="K46" s="23" t="s">
         <v>883</v>
       </c>
-      <c r="L46" s="19" t="s">
+      <c r="L46" s="24" t="s">
         <v>884</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M46" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="23" t="s">
         <v>886</v>
       </c>
-      <c r="O46" s="18" t="s">
+      <c r="O46" s="23" t="s">
         <v>887</v>
       </c>
-      <c r="P46" s="18" t="s">
+      <c r="P46" s="23" t="s">
         <v>888</v>
       </c>
-      <c r="Q46" s="18" t="s">
+      <c r="Q46" s="23" t="s">
         <v>889</v>
       </c>
-      <c r="R46" s="18" t="s">
+      <c r="R46" s="23" t="s">
         <v>890</v>
       </c>
-      <c r="S46" s="18" t="s">
+      <c r="S46" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="T46" s="20" t="s">
+      <c r="T46" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="U46" s="20" t="s">
+      <c r="U46" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="V46" s="20" t="s">
+      <c r="V46" s="25" t="s">
         <v>894</v>
       </c>
-      <c r="W46" s="20" t="s">
+      <c r="W46" s="25" t="s">
         <v>895</v>
       </c>
-      <c r="X46" s="20" t="s">
+      <c r="X46" s="25" t="s">
         <v>896</v>
       </c>
-      <c r="Y46" s="20" t="s">
+      <c r="Y46" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="Z46" s="20" t="s">
+      <c r="Z46" s="25" t="s">
         <v>898</v>
       </c>
     </row>
@@ -9028,45 +9942,45 @@
       <c r="A48" s="15" t="s">
         <v>899</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="23" t="s">
         <v>900</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
       <c r="S48" s="16"/>
-      <c r="T48" s="20" t="s">
+      <c r="T48" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="U48" s="20" t="s">
+      <c r="U48" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="V48" s="20" t="s">
+      <c r="V48" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="W48" s="20" t="s">
+      <c r="W48" s="25" t="s">
         <v>904</v>
       </c>
-      <c r="X48" s="20" t="s">
+      <c r="X48" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="Y48" s="20" t="s">
+      <c r="Y48" s="25" t="s">
         <v>906</v>
       </c>
-      <c r="Z48" s="20" t="s">
+      <c r="Z48" s="25" t="s">
         <v>907</v>
       </c>
     </row>
@@ -9074,45 +9988,45 @@
       <c r="A49" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
       <c r="S49" s="16"/>
-      <c r="T49" s="20" t="s">
+      <c r="T49" s="25" t="s">
         <v>910</v>
       </c>
-      <c r="U49" s="20" t="s">
+      <c r="U49" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="V49" s="20" t="s">
+      <c r="V49" s="25" t="s">
         <v>912</v>
       </c>
-      <c r="W49" s="20" t="s">
+      <c r="W49" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="X49" s="20" t="s">
+      <c r="X49" s="25" t="s">
         <v>914</v>
       </c>
-      <c r="Y49" s="20" t="s">
+      <c r="Y49" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="Z49" s="20" t="s">
+      <c r="Z49" s="25" t="s">
         <v>916</v>
       </c>
     </row>
@@ -9120,45 +10034,45 @@
       <c r="A50" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="23" t="s">
         <v>918</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
       <c r="S50" s="16"/>
-      <c r="T50" s="20" t="s">
+      <c r="T50" s="25" t="s">
         <v>919</v>
       </c>
-      <c r="U50" s="20" t="s">
+      <c r="U50" s="25" t="s">
         <v>920</v>
       </c>
-      <c r="V50" s="20" t="s">
+      <c r="V50" s="25" t="s">
         <v>921</v>
       </c>
-      <c r="W50" s="20" t="s">
+      <c r="W50" s="25" t="s">
         <v>922</v>
       </c>
-      <c r="X50" s="20" t="s">
+      <c r="X50" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="Y50" s="20" t="s">
+      <c r="Y50" s="25" t="s">
         <v>924</v>
       </c>
-      <c r="Z50" s="20" t="s">
+      <c r="Z50" s="25" t="s">
         <v>925</v>
       </c>
     </row>
@@ -9166,45 +10080,45 @@
       <c r="A51" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="23" t="s">
         <v>927</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
       <c r="S51" s="16"/>
-      <c r="T51" s="20" t="s">
+      <c r="T51" s="25" t="s">
         <v>928</v>
       </c>
-      <c r="U51" s="20" t="s">
+      <c r="U51" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="V51" s="20" t="s">
+      <c r="V51" s="25" t="s">
         <v>930</v>
       </c>
-      <c r="W51" s="20" t="s">
+      <c r="W51" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="X51" s="20" t="s">
+      <c r="X51" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="Y51" s="20" t="s">
+      <c r="Y51" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="Z51" s="20" t="s">
+      <c r="Z51" s="25" t="s">
         <v>932</v>
       </c>
     </row>
@@ -9221,79 +10135,79 @@
       <c r="A53" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="23" t="s">
         <v>934</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="23" t="s">
         <v>935</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="23" t="s">
         <v>937</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="23" t="s">
         <v>938</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="23" t="s">
         <v>939</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="23" t="s">
         <v>940</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="I53" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="J53" s="23" t="s">
         <v>942</v>
       </c>
-      <c r="K53" s="18" t="s">
+      <c r="K53" s="23" t="s">
         <v>943</v>
       </c>
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="24" t="s">
         <v>944</v>
       </c>
-      <c r="M53" s="18" t="s">
+      <c r="M53" s="23" t="s">
         <v>945</v>
       </c>
-      <c r="N53" s="18" t="s">
+      <c r="N53" s="23" t="s">
         <v>946</v>
       </c>
-      <c r="O53" s="18" t="s">
+      <c r="O53" s="23" t="s">
         <v>947</v>
       </c>
-      <c r="P53" s="18" t="s">
+      <c r="P53" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="Q53" s="18" t="s">
+      <c r="Q53" s="23" t="s">
         <v>949</v>
       </c>
-      <c r="R53" s="18" t="s">
+      <c r="R53" s="23" t="s">
         <v>950</v>
       </c>
-      <c r="S53" s="18" t="s">
+      <c r="S53" s="23" t="s">
         <v>951</v>
       </c>
-      <c r="T53" s="20" t="s">
+      <c r="T53" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="U53" s="20" t="s">
+      <c r="U53" s="25" t="s">
         <v>953</v>
       </c>
-      <c r="V53" s="20" t="s">
+      <c r="V53" s="25" t="s">
         <v>954</v>
       </c>
-      <c r="W53" s="20" t="s">
+      <c r="W53" s="25" t="s">
         <v>955</v>
       </c>
-      <c r="X53" s="20" t="s">
+      <c r="X53" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="Y53" s="20" t="s">
+      <c r="Y53" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="Z53" s="20" t="s">
+      <c r="Z53" s="25" t="s">
         <v>958</v>
       </c>
     </row>
@@ -9301,79 +10215,79 @@
       <c r="A54" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="23" t="s">
         <v>960</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="23" t="s">
         <v>961</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="23" t="s">
         <v>962</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="23" t="s">
         <v>963</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="23" t="s">
         <v>964</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="23" t="s">
         <v>965</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="23" t="s">
         <v>966</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="23" t="s">
         <v>967</v>
       </c>
-      <c r="J54" s="18" t="s">
+      <c r="J54" s="23" t="s">
         <v>968</v>
       </c>
-      <c r="K54" s="18" t="s">
+      <c r="K54" s="23" t="s">
         <v>969</v>
       </c>
-      <c r="L54" s="18" t="s">
+      <c r="L54" s="23" t="s">
         <v>970</v>
       </c>
-      <c r="M54" s="18" t="s">
+      <c r="M54" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="N54" s="18" t="s">
+      <c r="N54" s="23" t="s">
         <v>972</v>
       </c>
-      <c r="O54" s="18" t="s">
+      <c r="O54" s="23" t="s">
         <v>973</v>
       </c>
-      <c r="P54" s="18" t="s">
+      <c r="P54" s="23" t="s">
         <v>974</v>
       </c>
-      <c r="Q54" s="18" t="s">
+      <c r="Q54" s="23" t="s">
         <v>975</v>
       </c>
-      <c r="R54" s="18" t="s">
+      <c r="R54" s="23" t="s">
         <v>976</v>
       </c>
       <c r="S54" s="16" t="s">
         <v>977</v>
       </c>
-      <c r="T54" s="20" t="s">
+      <c r="T54" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="U54" s="20" t="s">
+      <c r="U54" s="25" t="s">
         <v>979</v>
       </c>
-      <c r="V54" s="20" t="s">
+      <c r="V54" s="25" t="s">
         <v>980</v>
       </c>
-      <c r="W54" s="20" t="s">
+      <c r="W54" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="X54" s="20" t="s">
+      <c r="X54" s="25" t="s">
         <v>982</v>
       </c>
-      <c r="Y54" s="20" t="s">
+      <c r="Y54" s="25" t="s">
         <v>983</v>
       </c>
-      <c r="Z54" s="20" t="s">
+      <c r="Z54" s="25" t="s">
         <v>984</v>
       </c>
     </row>
@@ -9381,79 +10295,79 @@
       <c r="A55" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="23" t="s">
         <v>986</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="23" t="s">
         <v>987</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="23" t="s">
         <v>988</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="23" t="s">
         <v>990</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="23" t="s">
         <v>992</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="J55" s="23" t="s">
         <v>994</v>
       </c>
-      <c r="K55" s="18" t="s">
+      <c r="K55" s="23" t="s">
         <v>995</v>
       </c>
-      <c r="L55" s="19" t="s">
+      <c r="L55" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="M55" s="18" t="s">
+      <c r="M55" s="23" t="s">
         <v>997</v>
       </c>
-      <c r="N55" s="18" t="s">
+      <c r="N55" s="23" t="s">
         <v>998</v>
       </c>
-      <c r="O55" s="18" t="s">
+      <c r="O55" s="23" t="s">
         <v>999</v>
       </c>
-      <c r="P55" s="18" t="s">
+      <c r="P55" s="23" t="s">
         <v>1000</v>
       </c>
-      <c r="Q55" s="18" t="s">
+      <c r="Q55" s="23" t="s">
         <v>1001</v>
       </c>
-      <c r="R55" s="18" t="s">
+      <c r="R55" s="23" t="s">
         <v>1002</v>
       </c>
-      <c r="S55" s="18" t="s">
+      <c r="S55" s="23" t="s">
         <v>1003</v>
       </c>
-      <c r="T55" s="20" t="s">
+      <c r="T55" s="25" t="s">
         <v>1004</v>
       </c>
-      <c r="U55" s="20" t="s">
+      <c r="U55" s="25" t="s">
         <v>1005</v>
       </c>
-      <c r="V55" s="20" t="s">
+      <c r="V55" s="25" t="s">
         <v>1006</v>
       </c>
-      <c r="W55" s="20" t="s">
+      <c r="W55" s="25" t="s">
         <v>1007</v>
       </c>
-      <c r="X55" s="20" t="s">
+      <c r="X55" s="25" t="s">
         <v>1008</v>
       </c>
-      <c r="Y55" s="20" t="s">
+      <c r="Y55" s="25" t="s">
         <v>1009</v>
       </c>
-      <c r="Z55" s="20" t="s">
+      <c r="Z55" s="25" t="s">
         <v>1010</v>
       </c>
     </row>
@@ -9461,79 +10375,79 @@
       <c r="A56" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="23" t="s">
         <v>1012</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="23" t="s">
         <v>1013</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="23" t="s">
         <v>1014</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="23" t="s">
         <v>1016</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="23" t="s">
         <v>1017</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="23" t="s">
         <v>1018</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="23" t="s">
         <v>1019</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J56" s="23" t="s">
         <v>1020</v>
       </c>
-      <c r="K56" s="18" t="s">
+      <c r="K56" s="23" t="s">
         <v>1021</v>
       </c>
-      <c r="L56" s="19" t="s">
+      <c r="L56" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="M56" s="18" t="s">
+      <c r="M56" s="23" t="s">
         <v>1023</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="23" t="s">
         <v>1024</v>
       </c>
-      <c r="O56" s="18" t="s">
+      <c r="O56" s="23" t="s">
         <v>1025</v>
       </c>
-      <c r="P56" s="18" t="s">
+      <c r="P56" s="23" t="s">
         <v>1026</v>
       </c>
-      <c r="Q56" s="18" t="s">
+      <c r="Q56" s="23" t="s">
         <v>1027</v>
       </c>
-      <c r="R56" s="18" t="s">
+      <c r="R56" s="23" t="s">
         <v>1028</v>
       </c>
-      <c r="S56" s="18" t="s">
+      <c r="S56" s="23" t="s">
         <v>1029</v>
       </c>
-      <c r="T56" s="20" t="s">
+      <c r="T56" s="25" t="s">
         <v>1030</v>
       </c>
-      <c r="U56" s="20" t="s">
+      <c r="U56" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="V56" s="20" t="s">
+      <c r="V56" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="W56" s="20" t="s">
+      <c r="W56" s="25" t="s">
         <v>1033</v>
       </c>
-      <c r="X56" s="20" t="s">
+      <c r="X56" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="Y56" s="20" t="s">
+      <c r="Y56" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="Z56" s="20" t="s">
+      <c r="Z56" s="25" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9541,79 +10455,79 @@
       <c r="A57" s="15" t="s">
         <v>1037</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>1038</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="23" t="s">
         <v>1039</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="23" t="s">
         <v>1040</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="23" t="s">
         <v>1041</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="23" t="s">
         <v>1042</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="23" t="s">
         <v>1043</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="23" t="s">
         <v>1044</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="23" t="s">
         <v>1045</v>
       </c>
-      <c r="J57" s="18" t="s">
+      <c r="J57" s="23" t="s">
         <v>1046</v>
       </c>
-      <c r="K57" s="18" t="s">
+      <c r="K57" s="23" t="s">
         <v>1047</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="24" t="s">
         <v>1048</v>
       </c>
-      <c r="M57" s="18" t="s">
+      <c r="M57" s="23" t="s">
         <v>1049</v>
       </c>
-      <c r="N57" s="18" t="s">
+      <c r="N57" s="23" t="s">
         <v>1050</v>
       </c>
-      <c r="O57" s="18" t="s">
+      <c r="O57" s="23" t="s">
         <v>1051</v>
       </c>
-      <c r="P57" s="18" t="s">
+      <c r="P57" s="23" t="s">
         <v>1052</v>
       </c>
-      <c r="Q57" s="18" t="s">
+      <c r="Q57" s="23" t="s">
         <v>1053</v>
       </c>
-      <c r="R57" s="18" t="s">
+      <c r="R57" s="23" t="s">
         <v>1054</v>
       </c>
-      <c r="S57" s="18" t="s">
+      <c r="S57" s="23" t="s">
         <v>1055</v>
       </c>
-      <c r="T57" s="20" t="s">
+      <c r="T57" s="25" t="s">
         <v>1056</v>
       </c>
-      <c r="U57" s="20" t="s">
+      <c r="U57" s="25" t="s">
         <v>1057</v>
       </c>
-      <c r="V57" s="20" t="s">
+      <c r="V57" s="25" t="s">
         <v>1058</v>
       </c>
-      <c r="W57" s="20" t="s">
+      <c r="W57" s="25" t="s">
         <v>1059</v>
       </c>
-      <c r="X57" s="20" t="s">
+      <c r="X57" s="25" t="s">
         <v>1060</v>
       </c>
-      <c r="Y57" s="20" t="s">
+      <c r="Y57" s="25" t="s">
         <v>1061</v>
       </c>
-      <c r="Z57" s="20" t="s">
+      <c r="Z57" s="25" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -9621,159 +10535,159 @@
       <c r="A58" s="15" t="s">
         <v>1063</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="23" t="s">
         <v>1064</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="23" t="s">
         <v>1065</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="23" t="s">
         <v>1066</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="23" t="s">
         <v>1067</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="23" t="s">
         <v>1068</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="23" t="s">
         <v>1069</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="23" t="s">
         <v>1070</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="23" t="s">
         <v>1071</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="23" t="s">
         <v>1072</v>
       </c>
-      <c r="K58" s="18" t="s">
+      <c r="K58" s="23" t="s">
         <v>1073</v>
       </c>
-      <c r="L58" s="19" t="s">
+      <c r="L58" s="24" t="s">
         <v>1074</v>
       </c>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="23" t="s">
         <v>1075</v>
       </c>
-      <c r="N58" s="18" t="s">
+      <c r="N58" s="23" t="s">
         <v>1076</v>
       </c>
-      <c r="O58" s="18" t="s">
+      <c r="O58" s="23" t="s">
         <v>1077</v>
       </c>
-      <c r="P58" s="18" t="s">
+      <c r="P58" s="23" t="s">
         <v>1078</v>
       </c>
-      <c r="Q58" s="18" t="s">
+      <c r="Q58" s="23" t="s">
         <v>1079</v>
       </c>
-      <c r="R58" s="18" t="s">
+      <c r="R58" s="23" t="s">
         <v>1080</v>
       </c>
-      <c r="S58" s="18" t="s">
+      <c r="S58" s="23" t="s">
         <v>1081</v>
       </c>
-      <c r="T58" s="20" t="s">
+      <c r="T58" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="U58" s="20" t="s">
+      <c r="U58" s="25" t="s">
         <v>1083</v>
       </c>
-      <c r="V58" s="20" t="s">
+      <c r="V58" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="W58" s="20" t="s">
+      <c r="W58" s="25" t="s">
         <v>1085</v>
       </c>
-      <c r="X58" s="20" t="s">
+      <c r="X58" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="Y58" s="20" t="s">
+      <c r="Y58" s="25" t="s">
         <v>1087</v>
       </c>
-      <c r="Z58" s="20" t="s">
+      <c r="Z58" s="25" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="59" s="26" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
+    <row r="59" s="31" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="28" t="s">
         <v>1090</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="28" t="s">
         <v>1091</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="28" t="s">
         <v>1092</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="28" t="s">
         <v>1093</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="28" t="s">
         <v>1094</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="28" t="s">
         <v>1095</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="28" t="s">
         <v>1096</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="28" t="s">
         <v>1097</v>
       </c>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="28" t="s">
         <v>1098</v>
       </c>
-      <c r="K59" s="23" t="s">
+      <c r="K59" s="28" t="s">
         <v>1099</v>
       </c>
-      <c r="L59" s="24" t="s">
+      <c r="L59" s="29" t="s">
         <v>1100</v>
       </c>
-      <c r="M59" s="23" t="s">
+      <c r="M59" s="28" t="s">
         <v>1101</v>
       </c>
-      <c r="N59" s="23" t="s">
+      <c r="N59" s="28" t="s">
         <v>1102</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" s="28" t="s">
         <v>1103</v>
       </c>
-      <c r="P59" s="23" t="s">
+      <c r="P59" s="28" t="s">
         <v>1104</v>
       </c>
-      <c r="Q59" s="23" t="s">
+      <c r="Q59" s="28" t="s">
         <v>1105</v>
       </c>
-      <c r="R59" s="23" t="s">
+      <c r="R59" s="28" t="s">
         <v>1106</v>
       </c>
-      <c r="S59" s="23" t="s">
+      <c r="S59" s="28" t="s">
         <v>1107</v>
       </c>
-      <c r="T59" s="25" t="s">
+      <c r="T59" s="30" t="s">
         <v>1108</v>
       </c>
-      <c r="U59" s="25" t="s">
+      <c r="U59" s="30" t="s">
         <v>1109</v>
       </c>
-      <c r="V59" s="25" t="s">
+      <c r="V59" s="30" t="s">
         <v>1110</v>
       </c>
-      <c r="W59" s="25" t="s">
+      <c r="W59" s="30" t="s">
         <v>1111</v>
       </c>
-      <c r="X59" s="25" t="s">
+      <c r="X59" s="30" t="s">
         <v>1112</v>
       </c>
-      <c r="Y59" s="25" t="s">
+      <c r="Y59" s="30" t="s">
         <v>1113</v>
       </c>
-      <c r="Z59" s="25" t="s">
+      <c r="Z59" s="30" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -9781,79 +10695,79 @@
       <c r="A60" s="15" t="s">
         <v>1115</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="23" t="s">
         <v>1116</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="23" t="s">
         <v>1117</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="23" t="s">
         <v>1118</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="23" t="s">
         <v>1119</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="23" t="s">
         <v>1120</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="23" t="s">
         <v>1121</v>
       </c>
-      <c r="H60" s="18" t="s">
+      <c r="H60" s="23" t="s">
         <v>1122</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="23" t="s">
         <v>1123</v>
       </c>
-      <c r="J60" s="18" t="s">
+      <c r="J60" s="23" t="s">
         <v>1124</v>
       </c>
-      <c r="K60" s="18" t="s">
+      <c r="K60" s="23" t="s">
         <v>1125</v>
       </c>
-      <c r="L60" s="19" t="s">
+      <c r="L60" s="24" t="s">
         <v>1126</v>
       </c>
-      <c r="M60" s="18" t="s">
+      <c r="M60" s="23" t="s">
         <v>1127</v>
       </c>
-      <c r="N60" s="18" t="s">
+      <c r="N60" s="23" t="s">
         <v>1123</v>
       </c>
-      <c r="O60" s="18" t="s">
+      <c r="O60" s="23" t="s">
         <v>1128</v>
       </c>
-      <c r="P60" s="18" t="s">
+      <c r="P60" s="23" t="s">
         <v>1129</v>
       </c>
-      <c r="Q60" s="18" t="s">
+      <c r="Q60" s="23" t="s">
         <v>1130</v>
       </c>
-      <c r="R60" s="18" t="s">
+      <c r="R60" s="23" t="s">
         <v>1131</v>
       </c>
-      <c r="S60" s="18" t="s">
+      <c r="S60" s="23" t="s">
         <v>1132</v>
       </c>
-      <c r="T60" s="20" t="s">
+      <c r="T60" s="25" t="s">
         <v>1133</v>
       </c>
-      <c r="U60" s="20" t="s">
+      <c r="U60" s="25" t="s">
         <v>1134</v>
       </c>
-      <c r="V60" s="20" t="s">
+      <c r="V60" s="25" t="s">
         <v>1135</v>
       </c>
-      <c r="W60" s="20" t="s">
+      <c r="W60" s="25" t="s">
         <v>1136</v>
       </c>
-      <c r="X60" s="20" t="s">
+      <c r="X60" s="25" t="s">
         <v>1137</v>
       </c>
-      <c r="Y60" s="20" t="s">
+      <c r="Y60" s="25" t="s">
         <v>1138</v>
       </c>
-      <c r="Z60" s="20" t="s">
+      <c r="Z60" s="25" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -9861,79 +10775,79 @@
       <c r="A61" s="15" t="s">
         <v>1140</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="23" t="s">
         <v>1141</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="23" t="s">
         <v>1142</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="23" t="s">
         <v>1143</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="23" t="s">
         <v>1144</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="23" t="s">
         <v>1145</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="23" t="s">
         <v>1146</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="23" t="s">
         <v>1147</v>
       </c>
-      <c r="I61" s="18" t="s">
+      <c r="I61" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="J61" s="18" t="s">
+      <c r="J61" s="23" t="s">
         <v>1149</v>
       </c>
-      <c r="K61" s="18" t="s">
+      <c r="K61" s="23" t="s">
         <v>1150</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="24" t="s">
         <v>1151</v>
       </c>
-      <c r="M61" s="18" t="s">
+      <c r="M61" s="23" t="s">
         <v>1152</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="N61" s="23" t="s">
         <v>1153</v>
       </c>
-      <c r="O61" s="18" t="s">
+      <c r="O61" s="23" t="s">
         <v>1154</v>
       </c>
-      <c r="P61" s="18" t="s">
+      <c r="P61" s="23" t="s">
         <v>1155</v>
       </c>
-      <c r="Q61" s="18" t="s">
+      <c r="Q61" s="23" t="s">
         <v>1156</v>
       </c>
-      <c r="R61" s="18" t="s">
+      <c r="R61" s="23" t="s">
         <v>1157</v>
       </c>
-      <c r="S61" s="18" t="s">
+      <c r="S61" s="23" t="s">
         <v>1158</v>
       </c>
-      <c r="T61" s="20" t="s">
+      <c r="T61" s="25" t="s">
         <v>1159</v>
       </c>
-      <c r="U61" s="20" t="s">
+      <c r="U61" s="25" t="s">
         <v>1160</v>
       </c>
-      <c r="V61" s="20" t="s">
+      <c r="V61" s="25" t="s">
         <v>1161</v>
       </c>
-      <c r="W61" s="20" t="s">
+      <c r="W61" s="25" t="s">
         <v>1162</v>
       </c>
-      <c r="X61" s="20" t="s">
+      <c r="X61" s="25" t="s">
         <v>1163</v>
       </c>
-      <c r="Y61" s="20" t="s">
+      <c r="Y61" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="Z61" s="20" t="s">
+      <c r="Z61" s="25" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -9941,79 +10855,79 @@
       <c r="A62" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="23" t="s">
         <v>1168</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="23" t="s">
         <v>429</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="23" t="s">
         <v>1169</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="23" t="s">
         <v>1170</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="J62" s="23" t="s">
         <v>1171</v>
       </c>
-      <c r="K62" s="18" t="s">
+      <c r="K62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="24" t="s">
         <v>1167</v>
       </c>
-      <c r="M62" s="18" t="s">
+      <c r="M62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="N62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="O62" s="18" t="s">
+      <c r="O62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="P62" s="18" t="s">
+      <c r="P62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="Q62" s="18" t="s">
+      <c r="Q62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="R62" s="18" t="s">
+      <c r="R62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="S62" s="18" t="s">
+      <c r="S62" s="23" t="s">
         <v>1167</v>
       </c>
-      <c r="T62" s="20" t="s">
+      <c r="T62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="U62" s="20" t="s">
+      <c r="U62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="V62" s="20" t="s">
+      <c r="V62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="W62" s="20" t="s">
+      <c r="W62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="X62" s="20" t="s">
+      <c r="X62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="Y62" s="20" t="s">
+      <c r="Y62" s="25" t="s">
         <v>1167</v>
       </c>
-      <c r="Z62" s="20" t="s">
+      <c r="Z62" s="25" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -10021,79 +10935,79 @@
       <c r="A63" s="15" t="s">
         <v>1173</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="23" t="s">
         <v>1174</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="23" t="s">
         <v>1175</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="23" t="s">
         <v>1143</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="23" t="s">
         <v>1176</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="23" t="s">
         <v>1177</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="23" t="s">
         <v>1178</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="23" t="s">
         <v>1179</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="23" t="s">
         <v>1180</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="J63" s="23" t="s">
         <v>1181</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K63" s="23" t="s">
         <v>1182</v>
       </c>
-      <c r="L63" s="19" t="s">
+      <c r="L63" s="24" t="s">
         <v>1183</v>
       </c>
-      <c r="M63" s="18" t="s">
+      <c r="M63" s="23" t="s">
         <v>1184</v>
       </c>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="23" t="s">
         <v>1185</v>
       </c>
-      <c r="O63" s="18" t="s">
+      <c r="O63" s="23" t="s">
         <v>1186</v>
       </c>
-      <c r="P63" s="18" t="s">
+      <c r="P63" s="23" t="s">
         <v>1187</v>
       </c>
-      <c r="Q63" s="18" t="s">
+      <c r="Q63" s="23" t="s">
         <v>1188</v>
       </c>
-      <c r="R63" s="18" t="s">
+      <c r="R63" s="23" t="s">
         <v>1189</v>
       </c>
-      <c r="S63" s="18" t="s">
+      <c r="S63" s="23" t="s">
         <v>1190</v>
       </c>
-      <c r="T63" s="20" t="s">
+      <c r="T63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="U63" s="20" t="s">
+      <c r="U63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="V63" s="20" t="s">
+      <c r="V63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="W63" s="20" t="s">
+      <c r="W63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="X63" s="20" t="s">
+      <c r="X63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="Y63" s="20" t="s">
+      <c r="Y63" s="25" t="s">
         <v>1174</v>
       </c>
-      <c r="Z63" s="20" t="s">
+      <c r="Z63" s="25" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -10181,79 +11095,79 @@
       <c r="A65" s="15" t="s">
         <v>1194</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="23" t="s">
         <v>1195</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="23" t="s">
         <v>1196</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="23" t="s">
         <v>1197</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="23" t="s">
         <v>1198</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="23" t="s">
         <v>1199</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="23" t="s">
         <v>1200</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="23" t="s">
         <v>1201</v>
       </c>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="23" t="s">
         <v>1202</v>
       </c>
-      <c r="J65" s="18" t="s">
+      <c r="J65" s="23" t="s">
         <v>1203</v>
       </c>
-      <c r="K65" s="18" t="s">
+      <c r="K65" s="23" t="s">
         <v>1204</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="24" t="s">
         <v>1205</v>
       </c>
-      <c r="M65" s="18" t="s">
+      <c r="M65" s="23" t="s">
         <v>1206</v>
       </c>
-      <c r="N65" s="18" t="s">
+      <c r="N65" s="23" t="s">
         <v>1207</v>
       </c>
-      <c r="O65" s="18" t="s">
+      <c r="O65" s="23" t="s">
         <v>1208</v>
       </c>
-      <c r="P65" s="18" t="s">
+      <c r="P65" s="23" t="s">
         <v>1209</v>
       </c>
-      <c r="Q65" s="18" t="s">
+      <c r="Q65" s="23" t="s">
         <v>1210</v>
       </c>
-      <c r="R65" s="18" t="s">
+      <c r="R65" s="23" t="s">
         <v>1211</v>
       </c>
-      <c r="S65" s="18" t="s">
+      <c r="S65" s="23" t="s">
         <v>1212</v>
       </c>
-      <c r="T65" s="20" t="s">
+      <c r="T65" s="25" t="s">
         <v>1213</v>
       </c>
-      <c r="U65" s="20" t="s">
+      <c r="U65" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="V65" s="20" t="s">
+      <c r="V65" s="25" t="s">
         <v>1215</v>
       </c>
-      <c r="W65" s="20" t="s">
+      <c r="W65" s="25" t="s">
         <v>1216</v>
       </c>
-      <c r="X65" s="20" t="s">
+      <c r="X65" s="25" t="s">
         <v>1217</v>
       </c>
-      <c r="Y65" s="20" t="s">
+      <c r="Y65" s="25" t="s">
         <v>1218</v>
       </c>
-      <c r="Z65" s="20" t="s">
+      <c r="Z65" s="25" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -10261,419 +11175,419 @@
       <c r="T66" s="17"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
         <v>1220</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="23" t="s">
         <v>1221</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="23" t="s">
         <v>1222</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="23" t="s">
         <v>1223</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="23" t="s">
         <v>1224</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="23" t="s">
         <v>1225</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="23" t="s">
         <v>1226</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="23" t="s">
         <v>1227</v>
       </c>
-      <c r="I67" s="18" t="s">
+      <c r="I67" s="23" t="s">
         <v>1228</v>
       </c>
-      <c r="J67" s="18" t="s">
+      <c r="J67" s="23" t="s">
         <v>1229</v>
       </c>
-      <c r="K67" s="18" t="s">
+      <c r="K67" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="L67" s="19" t="s">
+      <c r="L67" s="24" t="s">
         <v>1231</v>
       </c>
-      <c r="M67" s="18" t="s">
+      <c r="M67" s="23" t="s">
         <v>1232</v>
       </c>
-      <c r="N67" s="18" t="s">
+      <c r="N67" s="23" t="s">
         <v>1233</v>
       </c>
-      <c r="O67" s="18" t="s">
+      <c r="O67" s="23" t="s">
         <v>1234</v>
       </c>
-      <c r="P67" s="18" t="s">
+      <c r="P67" s="23" t="s">
         <v>1235</v>
       </c>
-      <c r="Q67" s="18" t="s">
+      <c r="Q67" s="23" t="s">
         <v>1236</v>
       </c>
-      <c r="R67" s="18" t="s">
+      <c r="R67" s="23" t="s">
         <v>1237</v>
       </c>
-      <c r="S67" s="18" t="s">
+      <c r="S67" s="23" t="s">
         <v>1238</v>
       </c>
-      <c r="T67" s="27" t="s">
+      <c r="T67" s="32" t="s">
         <v>1239</v>
       </c>
-      <c r="U67" s="27" t="s">
+      <c r="U67" s="32" t="s">
         <v>1240</v>
       </c>
-      <c r="V67" s="27" t="s">
+      <c r="V67" s="32" t="s">
         <v>1241</v>
       </c>
-      <c r="W67" s="27" t="s">
+      <c r="W67" s="32" t="s">
         <v>1242</v>
       </c>
-      <c r="X67" s="27" t="s">
+      <c r="X67" s="32" t="s">
         <v>1243</v>
       </c>
-      <c r="Y67" s="27" t="s">
+      <c r="Y67" s="32" t="s">
         <v>1244</v>
       </c>
-      <c r="Z67" s="27" t="s">
+      <c r="Z67" s="32" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="68" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="15" t="s">
         <v>1246</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="23" t="s">
         <v>1247</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="23" t="s">
         <v>1248</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="23" t="s">
         <v>1249</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="23" t="s">
         <v>1247</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="23" t="s">
         <v>1247</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="23" t="s">
         <v>1250</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="23" t="s">
         <v>1251</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="23" t="s">
         <v>1252</v>
       </c>
-      <c r="J68" s="18" t="s">
+      <c r="J68" s="23" t="s">
         <v>1253</v>
       </c>
-      <c r="K68" s="18" t="s">
+      <c r="K68" s="23" t="s">
         <v>1254</v>
       </c>
-      <c r="L68" s="19" t="s">
+      <c r="L68" s="24" t="s">
         <v>1255</v>
       </c>
-      <c r="M68" s="18" t="s">
+      <c r="M68" s="23" t="s">
         <v>1256</v>
       </c>
-      <c r="N68" s="18" t="s">
+      <c r="N68" s="23" t="s">
         <v>1257</v>
       </c>
-      <c r="O68" s="18" t="s">
+      <c r="O68" s="23" t="s">
         <v>1258</v>
       </c>
-      <c r="P68" s="18" t="s">
+      <c r="P68" s="23" t="s">
         <v>1259</v>
       </c>
-      <c r="Q68" s="18" t="s">
+      <c r="Q68" s="23" t="s">
         <v>1260</v>
       </c>
-      <c r="R68" s="18" t="s">
+      <c r="R68" s="23" t="s">
         <v>1261</v>
       </c>
-      <c r="S68" s="18" t="s">
+      <c r="S68" s="23" t="s">
         <v>1262</v>
       </c>
-      <c r="T68" s="27" t="s">
+      <c r="T68" s="32" t="s">
         <v>1263</v>
       </c>
-      <c r="U68" s="27" t="s">
+      <c r="U68" s="32" t="s">
         <v>1264</v>
       </c>
-      <c r="V68" s="27" t="s">
+      <c r="V68" s="32" t="s">
         <v>1265</v>
       </c>
-      <c r="W68" s="27" t="s">
+      <c r="W68" s="32" t="s">
         <v>1266</v>
       </c>
-      <c r="X68" s="27" t="s">
+      <c r="X68" s="32" t="s">
         <v>1267</v>
       </c>
-      <c r="Y68" s="27" t="s">
+      <c r="Y68" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="Z68" s="27" t="s">
+      <c r="Z68" s="32" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="69" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="15" t="s">
         <v>1270</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="23" t="s">
         <v>1271</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="23" t="s">
         <v>1272</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="23" t="s">
         <v>1273</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="23" t="s">
         <v>1271</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="23" t="s">
         <v>1271</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="23" t="s">
         <v>1274</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="23" t="s">
         <v>1275</v>
       </c>
-      <c r="I69" s="18" t="s">
+      <c r="I69" s="23" t="s">
         <v>1276</v>
       </c>
-      <c r="J69" s="18" t="s">
+      <c r="J69" s="23" t="s">
         <v>1277</v>
       </c>
-      <c r="K69" s="18" t="s">
+      <c r="K69" s="23" t="s">
         <v>1278</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="L69" s="24" t="s">
         <v>1279</v>
       </c>
-      <c r="M69" s="18" t="s">
+      <c r="M69" s="23" t="s">
         <v>1280</v>
       </c>
-      <c r="N69" s="18" t="s">
+      <c r="N69" s="23" t="s">
         <v>1281</v>
       </c>
-      <c r="O69" s="18" t="s">
+      <c r="O69" s="23" t="s">
         <v>1282</v>
       </c>
-      <c r="P69" s="18" t="s">
+      <c r="P69" s="23" t="s">
         <v>1283</v>
       </c>
-      <c r="Q69" s="18" t="s">
+      <c r="Q69" s="23" t="s">
         <v>1284</v>
       </c>
-      <c r="R69" s="18" t="s">
+      <c r="R69" s="23" t="s">
         <v>1285</v>
       </c>
-      <c r="S69" s="18" t="s">
+      <c r="S69" s="23" t="s">
         <v>1286</v>
       </c>
-      <c r="T69" s="27" t="s">
+      <c r="T69" s="32" t="s">
         <v>1287</v>
       </c>
-      <c r="U69" s="27" t="s">
+      <c r="U69" s="32" t="s">
         <v>1288</v>
       </c>
-      <c r="V69" s="27" t="s">
+      <c r="V69" s="32" t="s">
         <v>1289</v>
       </c>
-      <c r="W69" s="27" t="s">
+      <c r="W69" s="32" t="s">
         <v>1290</v>
       </c>
-      <c r="X69" s="27" t="s">
+      <c r="X69" s="32" t="s">
         <v>1291</v>
       </c>
-      <c r="Y69" s="27" t="s">
+      <c r="Y69" s="32" t="s">
         <v>1292</v>
       </c>
-      <c r="Z69" s="27" t="s">
+      <c r="Z69" s="32" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="70" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
         <v>1294</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="23" t="s">
         <v>1295</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="23" t="s">
         <v>1296</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="23" t="s">
         <v>1297</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="23" t="s">
         <v>1298</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="23" t="s">
         <v>1299</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="23" t="s">
         <v>1300</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="23" t="s">
         <v>1301</v>
       </c>
-      <c r="I70" s="18" t="s">
+      <c r="I70" s="23" t="s">
         <v>1302</v>
       </c>
-      <c r="J70" s="18" t="s">
+      <c r="J70" s="23" t="s">
         <v>1303</v>
       </c>
-      <c r="K70" s="18" t="s">
+      <c r="K70" s="23" t="s">
         <v>1304</v>
       </c>
-      <c r="L70" s="19" t="s">
+      <c r="L70" s="24" t="s">
         <v>1305</v>
       </c>
-      <c r="M70" s="18" t="s">
+      <c r="M70" s="23" t="s">
         <v>1297</v>
       </c>
-      <c r="N70" s="18" t="s">
+      <c r="N70" s="23" t="s">
         <v>1306</v>
       </c>
-      <c r="O70" s="18" t="s">
+      <c r="O70" s="23" t="s">
         <v>1307</v>
       </c>
-      <c r="P70" s="18" t="s">
+      <c r="P70" s="23" t="s">
         <v>1308</v>
       </c>
-      <c r="Q70" s="18" t="s">
+      <c r="Q70" s="23" t="s">
         <v>1309</v>
       </c>
-      <c r="R70" s="18" t="s">
+      <c r="R70" s="23" t="s">
         <v>1310</v>
       </c>
-      <c r="S70" s="18" t="s">
+      <c r="S70" s="23" t="s">
         <v>1311</v>
       </c>
-      <c r="T70" s="27" t="s">
+      <c r="T70" s="32" t="s">
         <v>1312</v>
       </c>
-      <c r="U70" s="27" t="s">
+      <c r="U70" s="32" t="s">
         <v>1313</v>
       </c>
-      <c r="V70" s="27" t="s">
+      <c r="V70" s="32" t="s">
         <v>1314</v>
       </c>
-      <c r="W70" s="27" t="s">
+      <c r="W70" s="32" t="s">
         <v>1315</v>
       </c>
-      <c r="X70" s="27" t="s">
+      <c r="X70" s="32" t="s">
         <v>1316</v>
       </c>
-      <c r="Y70" s="27" t="s">
+      <c r="Y70" s="32" t="s">
         <v>1317</v>
       </c>
-      <c r="Z70" s="27" t="s">
+      <c r="Z70" s="32" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="71" s="28" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="33" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
         <v>1319</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="23" t="s">
         <v>1320</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="23" t="s">
         <v>1321</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="23" t="s">
         <v>1322</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="23" t="s">
         <v>1323</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="23" t="s">
         <v>1324</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="23" t="s">
         <v>1325</v>
       </c>
-      <c r="H71" s="18" t="s">
+      <c r="H71" s="23" t="s">
         <v>1326</v>
       </c>
-      <c r="I71" s="18" t="s">
+      <c r="I71" s="23" t="s">
         <v>1327</v>
       </c>
-      <c r="J71" s="18" t="s">
+      <c r="J71" s="23" t="s">
         <v>1328</v>
       </c>
-      <c r="K71" s="18" t="s">
+      <c r="K71" s="23" t="s">
         <v>1329</v>
       </c>
-      <c r="L71" s="19" t="s">
+      <c r="L71" s="24" t="s">
         <v>1330</v>
       </c>
-      <c r="M71" s="18" t="s">
+      <c r="M71" s="23" t="s">
         <v>1331</v>
       </c>
-      <c r="N71" s="18" t="s">
+      <c r="N71" s="23" t="s">
         <v>1332</v>
       </c>
-      <c r="O71" s="18" t="s">
+      <c r="O71" s="23" t="s">
         <v>1333</v>
       </c>
-      <c r="P71" s="18" t="s">
+      <c r="P71" s="23" t="s">
         <v>1334</v>
       </c>
-      <c r="Q71" s="18" t="s">
+      <c r="Q71" s="23" t="s">
         <v>1335</v>
       </c>
-      <c r="R71" s="18" t="s">
+      <c r="R71" s="23" t="s">
         <v>1336</v>
       </c>
-      <c r="S71" s="18" t="s">
+      <c r="S71" s="23" t="s">
         <v>1337</v>
       </c>
-      <c r="T71" s="27" t="s">
+      <c r="T71" s="32" t="s">
         <v>1338</v>
       </c>
-      <c r="U71" s="27" t="s">
+      <c r="U71" s="32" t="s">
         <v>1339</v>
       </c>
-      <c r="V71" s="27" t="s">
+      <c r="V71" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="W71" s="27" t="s">
+      <c r="W71" s="32" t="s">
         <v>1341</v>
       </c>
-      <c r="X71" s="27" t="s">
+      <c r="X71" s="32" t="s">
         <v>1342</v>
       </c>
-      <c r="Y71" s="27" t="s">
+      <c r="Y71" s="32" t="s">
         <v>1343</v>
       </c>
-      <c r="Z71" s="27" t="s">
+      <c r="Z71" s="32" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="72" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="33" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
       <c r="H72" s="16"/>
-      <c r="I72" s="18"/>
+      <c r="I72" s="23"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -10686,79 +11600,79 @@
       <c r="A73" s="15" t="s">
         <v>1345</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="23" t="s">
         <v>1346</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="23" t="s">
         <v>1347</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="23" t="s">
         <v>1348</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="23" t="s">
         <v>1349</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="23" t="s">
         <v>1350</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="23" t="s">
         <v>1351</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="23" t="s">
         <v>1352</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="I73" s="23" t="s">
         <v>1353</v>
       </c>
-      <c r="J73" s="18" t="s">
+      <c r="J73" s="23" t="s">
         <v>1354</v>
       </c>
-      <c r="K73" s="18" t="s">
+      <c r="K73" s="23" t="s">
         <v>1355</v>
       </c>
-      <c r="L73" s="19" t="s">
+      <c r="L73" s="24" t="s">
         <v>1356</v>
       </c>
-      <c r="M73" s="18" t="s">
+      <c r="M73" s="23" t="s">
         <v>1357</v>
       </c>
-      <c r="N73" s="18" t="s">
+      <c r="N73" s="23" t="s">
         <v>1358</v>
       </c>
-      <c r="O73" s="18" t="s">
+      <c r="O73" s="23" t="s">
         <v>1359</v>
       </c>
-      <c r="P73" s="18" t="s">
+      <c r="P73" s="23" t="s">
         <v>1360</v>
       </c>
-      <c r="Q73" s="18" t="s">
+      <c r="Q73" s="23" t="s">
         <v>1361</v>
       </c>
-      <c r="R73" s="18" t="s">
+      <c r="R73" s="23" t="s">
         <v>1362</v>
       </c>
-      <c r="S73" s="18" t="s">
+      <c r="S73" s="23" t="s">
         <v>1363</v>
       </c>
-      <c r="T73" s="20" t="s">
+      <c r="T73" s="25" t="s">
         <v>1364</v>
       </c>
-      <c r="U73" s="20" t="s">
+      <c r="U73" s="25" t="s">
         <v>1365</v>
       </c>
-      <c r="V73" s="20" t="s">
+      <c r="V73" s="25" t="s">
         <v>1366</v>
       </c>
-      <c r="W73" s="20" t="s">
+      <c r="W73" s="25" t="s">
         <v>1367</v>
       </c>
-      <c r="X73" s="20" t="s">
+      <c r="X73" s="25" t="s">
         <v>1368</v>
       </c>
-      <c r="Y73" s="20" t="s">
+      <c r="Y73" s="25" t="s">
         <v>1369</v>
       </c>
-      <c r="Z73" s="20" t="s">
+      <c r="Z73" s="25" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -10766,79 +11680,79 @@
       <c r="A74" s="15" t="s">
         <v>1371</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="23" t="s">
         <v>1372</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="23" t="s">
         <v>1373</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="23" t="s">
         <v>1374</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="23" t="s">
         <v>1375</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="23" t="s">
         <v>1376</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="23" t="s">
         <v>1377</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="23" t="s">
         <v>1378</v>
       </c>
-      <c r="I74" s="18" t="s">
+      <c r="I74" s="23" t="s">
         <v>1379</v>
       </c>
-      <c r="J74" s="18" t="s">
+      <c r="J74" s="23" t="s">
         <v>1380</v>
       </c>
-      <c r="K74" s="18" t="s">
+      <c r="K74" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="L74" s="19" t="s">
+      <c r="L74" s="24" t="s">
         <v>1382</v>
       </c>
-      <c r="M74" s="18" t="s">
+      <c r="M74" s="23" t="s">
         <v>1383</v>
       </c>
-      <c r="N74" s="18" t="s">
+      <c r="N74" s="23" t="s">
         <v>1384</v>
       </c>
-      <c r="O74" s="18" t="s">
+      <c r="O74" s="23" t="s">
         <v>1385</v>
       </c>
-      <c r="P74" s="18" t="s">
+      <c r="P74" s="23" t="s">
         <v>1386</v>
       </c>
-      <c r="Q74" s="18" t="s">
+      <c r="Q74" s="23" t="s">
         <v>1387</v>
       </c>
-      <c r="R74" s="18" t="s">
+      <c r="R74" s="23" t="s">
         <v>1388</v>
       </c>
-      <c r="S74" s="18" t="s">
+      <c r="S74" s="23" t="s">
         <v>1389</v>
       </c>
-      <c r="T74" s="20" t="s">
+      <c r="T74" s="25" t="s">
         <v>1390</v>
       </c>
-      <c r="U74" s="20" t="s">
+      <c r="U74" s="25" t="s">
         <v>1391</v>
       </c>
-      <c r="V74" s="20" t="s">
+      <c r="V74" s="25" t="s">
         <v>1392</v>
       </c>
-      <c r="W74" s="20" t="s">
+      <c r="W74" s="25" t="s">
         <v>1393</v>
       </c>
-      <c r="X74" s="20" t="s">
+      <c r="X74" s="25" t="s">
         <v>1394</v>
       </c>
-      <c r="Y74" s="20" t="s">
+      <c r="Y74" s="25" t="s">
         <v>1395</v>
       </c>
-      <c r="Z74" s="20" t="s">
+      <c r="Z74" s="25" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -10846,79 +11760,79 @@
       <c r="A75" s="15" t="s">
         <v>1397</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="23" t="s">
         <v>1398</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="23" t="s">
         <v>1091</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="23" t="s">
         <v>1093</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="23" t="s">
         <v>1094</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="23" t="s">
         <v>1095</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="23" t="s">
         <v>1096</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="23" t="s">
         <v>1097</v>
       </c>
-      <c r="J75" s="18" t="s">
+      <c r="J75" s="23" t="s">
         <v>1098</v>
       </c>
-      <c r="K75" s="18" t="s">
+      <c r="K75" s="23" t="s">
         <v>1099</v>
       </c>
-      <c r="L75" s="19" t="s">
+      <c r="L75" s="24" t="s">
         <v>1100</v>
       </c>
-      <c r="M75" s="18" t="s">
+      <c r="M75" s="23" t="s">
         <v>1101</v>
       </c>
-      <c r="N75" s="18" t="s">
+      <c r="N75" s="23" t="s">
         <v>1102</v>
       </c>
-      <c r="O75" s="18" t="s">
+      <c r="O75" s="23" t="s">
         <v>1103</v>
       </c>
-      <c r="P75" s="18" t="s">
+      <c r="P75" s="23" t="s">
         <v>1104</v>
       </c>
-      <c r="Q75" s="18" t="s">
+      <c r="Q75" s="23" t="s">
         <v>1105</v>
       </c>
-      <c r="R75" s="18" t="s">
+      <c r="R75" s="23" t="s">
         <v>1106</v>
       </c>
-      <c r="S75" s="18" t="s">
+      <c r="S75" s="23" t="s">
         <v>1107</v>
       </c>
-      <c r="T75" s="20" t="s">
+      <c r="T75" s="25" t="s">
         <v>1399</v>
       </c>
-      <c r="U75" s="20" t="s">
+      <c r="U75" s="25" t="s">
         <v>1109</v>
       </c>
-      <c r="V75" s="20" t="s">
+      <c r="V75" s="25" t="s">
         <v>1110</v>
       </c>
-      <c r="W75" s="20" t="s">
+      <c r="W75" s="25" t="s">
         <v>1400</v>
       </c>
-      <c r="X75" s="20" t="s">
+      <c r="X75" s="25" t="s">
         <v>1401</v>
       </c>
-      <c r="Y75" s="20" t="s">
+      <c r="Y75" s="25" t="s">
         <v>1402</v>
       </c>
-      <c r="Z75" s="20" t="s">
+      <c r="Z75" s="25" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -10926,79 +11840,79 @@
       <c r="A76" s="15" t="s">
         <v>1404</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="23" t="s">
         <v>1405</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="23" t="s">
         <v>1406</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="23" t="s">
         <v>1407</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="23" t="s">
         <v>1408</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="23" t="s">
         <v>1409</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="23" t="s">
         <v>1410</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="23" t="s">
         <v>1411</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="23" t="s">
         <v>1412</v>
       </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="23" t="s">
         <v>1413</v>
       </c>
-      <c r="K76" s="18" t="s">
+      <c r="K76" s="23" t="s">
         <v>1414</v>
       </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="24" t="s">
         <v>1415</v>
       </c>
-      <c r="M76" s="18" t="s">
+      <c r="M76" s="23" t="s">
         <v>1416</v>
       </c>
-      <c r="N76" s="18" t="s">
+      <c r="N76" s="23" t="s">
         <v>1417</v>
       </c>
-      <c r="O76" s="18" t="s">
+      <c r="O76" s="23" t="s">
         <v>1418</v>
       </c>
-      <c r="P76" s="18" t="s">
+      <c r="P76" s="23" t="s">
         <v>1419</v>
       </c>
-      <c r="Q76" s="18" t="s">
+      <c r="Q76" s="23" t="s">
         <v>1420</v>
       </c>
-      <c r="R76" s="18" t="s">
+      <c r="R76" s="23" t="s">
         <v>1421</v>
       </c>
-      <c r="S76" s="18" t="s">
+      <c r="S76" s="23" t="s">
         <v>1422</v>
       </c>
-      <c r="T76" s="20" t="s">
+      <c r="T76" s="25" t="s">
         <v>1423</v>
       </c>
-      <c r="U76" s="20" t="s">
+      <c r="U76" s="25" t="s">
         <v>1424</v>
       </c>
-      <c r="V76" s="20" t="s">
+      <c r="V76" s="25" t="s">
         <v>1425</v>
       </c>
-      <c r="W76" s="20" t="s">
+      <c r="W76" s="25" t="s">
         <v>1426</v>
       </c>
-      <c r="X76" s="20" t="s">
+      <c r="X76" s="25" t="s">
         <v>1427</v>
       </c>
-      <c r="Y76" s="20" t="s">
+      <c r="Y76" s="25" t="s">
         <v>1428</v>
       </c>
-      <c r="Z76" s="20" t="s">
+      <c r="Z76" s="25" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -11006,79 +11920,79 @@
       <c r="A77" s="15" t="s">
         <v>1430</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="23" t="s">
         <v>1431</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="23" t="s">
         <v>1432</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="23" t="s">
         <v>1433</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="23" t="s">
         <v>1434</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="23" t="s">
         <v>1435</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="23" t="s">
         <v>1436</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="23" t="s">
         <v>1437</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="23" t="s">
         <v>1438</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="23" t="s">
         <v>1439</v>
       </c>
-      <c r="K77" s="18" t="s">
+      <c r="K77" s="23" t="s">
         <v>1440</v>
       </c>
-      <c r="L77" s="19" t="s">
+      <c r="L77" s="24" t="s">
         <v>1441</v>
       </c>
-      <c r="M77" s="18" t="s">
+      <c r="M77" s="23" t="s">
         <v>1442</v>
       </c>
-      <c r="N77" s="18" t="s">
+      <c r="N77" s="23" t="s">
         <v>1443</v>
       </c>
-      <c r="O77" s="18" t="s">
+      <c r="O77" s="23" t="s">
         <v>1444</v>
       </c>
-      <c r="P77" s="18" t="s">
+      <c r="P77" s="23" t="s">
         <v>1445</v>
       </c>
-      <c r="Q77" s="18" t="s">
+      <c r="Q77" s="23" t="s">
         <v>1446</v>
       </c>
-      <c r="R77" s="18" t="s">
+      <c r="R77" s="23" t="s">
         <v>1447</v>
       </c>
-      <c r="S77" s="18" t="s">
+      <c r="S77" s="23" t="s">
         <v>1448</v>
       </c>
-      <c r="T77" s="20" t="s">
+      <c r="T77" s="25" t="s">
         <v>1449</v>
       </c>
-      <c r="U77" s="20" t="s">
+      <c r="U77" s="25" t="s">
         <v>1450</v>
       </c>
-      <c r="V77" s="20" t="s">
+      <c r="V77" s="25" t="s">
         <v>1451</v>
       </c>
-      <c r="W77" s="20" t="s">
+      <c r="W77" s="25" t="s">
         <v>1452</v>
       </c>
-      <c r="X77" s="20" t="s">
+      <c r="X77" s="25" t="s">
         <v>1453</v>
       </c>
-      <c r="Y77" s="20" t="s">
+      <c r="Y77" s="25" t="s">
         <v>1454</v>
       </c>
-      <c r="Z77" s="20" t="s">
+      <c r="Z77" s="25" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -11086,79 +12000,79 @@
       <c r="A78" s="15" t="s">
         <v>1456</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="23" t="s">
         <v>1457</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="23" t="s">
         <v>1458</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="23" t="s">
         <v>1459</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="23" t="s">
         <v>1460</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="23" t="s">
         <v>1461</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="23" t="s">
         <v>1462</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="23" t="s">
         <v>1463</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="23" t="s">
         <v>1464</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="23" t="s">
         <v>1465</v>
       </c>
-      <c r="K78" s="18" t="s">
+      <c r="K78" s="23" t="s">
         <v>1466</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="L78" s="24" t="s">
         <v>1467</v>
       </c>
-      <c r="M78" s="18" t="s">
+      <c r="M78" s="23" t="s">
         <v>1468</v>
       </c>
-      <c r="N78" s="18" t="s">
+      <c r="N78" s="23" t="s">
         <v>1469</v>
       </c>
-      <c r="O78" s="18" t="s">
+      <c r="O78" s="23" t="s">
         <v>1470</v>
       </c>
-      <c r="P78" s="18" t="s">
+      <c r="P78" s="23" t="s">
         <v>1471</v>
       </c>
-      <c r="Q78" s="18" t="s">
+      <c r="Q78" s="23" t="s">
         <v>1472</v>
       </c>
-      <c r="R78" s="18" t="s">
+      <c r="R78" s="23" t="s">
         <v>1473</v>
       </c>
-      <c r="S78" s="18" t="s">
+      <c r="S78" s="23" t="s">
         <v>1474</v>
       </c>
-      <c r="T78" s="20" t="s">
+      <c r="T78" s="25" t="s">
         <v>1475</v>
       </c>
-      <c r="U78" s="20" t="s">
+      <c r="U78" s="25" t="s">
         <v>1476</v>
       </c>
-      <c r="V78" s="20" t="s">
+      <c r="V78" s="25" t="s">
         <v>1477</v>
       </c>
-      <c r="W78" s="20" t="s">
+      <c r="W78" s="25" t="s">
         <v>1478</v>
       </c>
-      <c r="X78" s="20" t="s">
+      <c r="X78" s="25" t="s">
         <v>1479</v>
       </c>
-      <c r="Y78" s="20" t="s">
+      <c r="Y78" s="25" t="s">
         <v>1480</v>
       </c>
-      <c r="Z78" s="20" t="s">
+      <c r="Z78" s="25" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -11166,79 +12080,79 @@
       <c r="A79" s="15" t="s">
         <v>1482</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="23" t="s">
         <v>1483</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="23" t="s">
         <v>1484</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="23" t="s">
         <v>1485</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="23" t="s">
         <v>1486</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="23" t="s">
         <v>1487</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="23" t="s">
         <v>1488</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="23" t="s">
         <v>1489</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="23" t="s">
         <v>1490</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="23" t="s">
         <v>1491</v>
       </c>
-      <c r="K79" s="18" t="s">
+      <c r="K79" s="23" t="s">
         <v>1492</v>
       </c>
-      <c r="L79" s="19" t="s">
+      <c r="L79" s="24" t="s">
         <v>1493</v>
       </c>
-      <c r="M79" s="18" t="s">
+      <c r="M79" s="23" t="s">
         <v>1494</v>
       </c>
-      <c r="N79" s="18" t="s">
+      <c r="N79" s="23" t="s">
         <v>1495</v>
       </c>
-      <c r="O79" s="18" t="s">
+      <c r="O79" s="23" t="s">
         <v>1496</v>
       </c>
-      <c r="P79" s="18" t="s">
+      <c r="P79" s="23" t="s">
         <v>1497</v>
       </c>
-      <c r="Q79" s="18" t="s">
+      <c r="Q79" s="23" t="s">
         <v>1498</v>
       </c>
-      <c r="R79" s="18" t="s">
+      <c r="R79" s="23" t="s">
         <v>1499</v>
       </c>
-      <c r="S79" s="18" t="s">
+      <c r="S79" s="23" t="s">
         <v>1500</v>
       </c>
-      <c r="T79" s="20" t="s">
+      <c r="T79" s="25" t="s">
         <v>1501</v>
       </c>
-      <c r="U79" s="20" t="s">
+      <c r="U79" s="25" t="s">
         <v>1502</v>
       </c>
-      <c r="V79" s="20" t="s">
+      <c r="V79" s="25" t="s">
         <v>1503</v>
       </c>
-      <c r="W79" s="20" t="s">
+      <c r="W79" s="25" t="s">
         <v>1504</v>
       </c>
-      <c r="X79" s="20" t="s">
+      <c r="X79" s="25" t="s">
         <v>1505</v>
       </c>
-      <c r="Y79" s="20" t="s">
+      <c r="Y79" s="25" t="s">
         <v>1506</v>
       </c>
-      <c r="Z79" s="20" t="s">
+      <c r="Z79" s="25" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -11246,79 +12160,79 @@
       <c r="A80" s="15" t="s">
         <v>1508</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="23" t="s">
         <v>1509</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="23" t="s">
         <v>1510</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="23" t="s">
         <v>1511</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="23" t="s">
         <v>1512</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="23" t="s">
         <v>1513</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="23" t="s">
         <v>1514</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="23" t="s">
         <v>1515</v>
       </c>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="23" t="s">
         <v>1516</v>
       </c>
-      <c r="J80" s="18" t="s">
+      <c r="J80" s="23" t="s">
         <v>1517</v>
       </c>
-      <c r="K80" s="18" t="s">
+      <c r="K80" s="23" t="s">
         <v>1518</v>
       </c>
-      <c r="L80" s="19" t="s">
+      <c r="L80" s="24" t="s">
         <v>1519</v>
       </c>
-      <c r="M80" s="18" t="s">
+      <c r="M80" s="23" t="s">
         <v>1520</v>
       </c>
-      <c r="N80" s="18" t="s">
+      <c r="N80" s="23" t="s">
         <v>1521</v>
       </c>
-      <c r="O80" s="18" t="s">
+      <c r="O80" s="23" t="s">
         <v>1522</v>
       </c>
-      <c r="P80" s="18" t="s">
+      <c r="P80" s="23" t="s">
         <v>1523</v>
       </c>
-      <c r="Q80" s="18" t="s">
+      <c r="Q80" s="23" t="s">
         <v>1524</v>
       </c>
-      <c r="R80" s="18" t="s">
+      <c r="R80" s="23" t="s">
         <v>1525</v>
       </c>
-      <c r="S80" s="18" t="s">
+      <c r="S80" s="23" t="s">
         <v>1526</v>
       </c>
-      <c r="T80" s="20" t="s">
+      <c r="T80" s="25" t="s">
         <v>1527</v>
       </c>
-      <c r="U80" s="20" t="s">
+      <c r="U80" s="25" t="s">
         <v>1528</v>
       </c>
-      <c r="V80" s="20" t="s">
+      <c r="V80" s="25" t="s">
         <v>1529</v>
       </c>
-      <c r="W80" s="20" t="s">
+      <c r="W80" s="25" t="s">
         <v>1530</v>
       </c>
-      <c r="X80" s="20" t="s">
+      <c r="X80" s="25" t="s">
         <v>1531</v>
       </c>
-      <c r="Y80" s="20" t="s">
+      <c r="Y80" s="25" t="s">
         <v>1532</v>
       </c>
-      <c r="Z80" s="20" t="s">
+      <c r="Z80" s="25" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -11326,79 +12240,79 @@
       <c r="A81" s="15" t="s">
         <v>1534</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="23" t="s">
         <v>1535</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="23" t="s">
         <v>1536</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="23" t="s">
         <v>1537</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="23" t="s">
         <v>1538</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="23" t="s">
         <v>1539</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="23" t="s">
         <v>1540</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="23" t="s">
         <v>1541</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I81" s="23" t="s">
         <v>1542</v>
       </c>
-      <c r="J81" s="18" t="s">
+      <c r="J81" s="23" t="s">
         <v>1543</v>
       </c>
-      <c r="K81" s="18" t="s">
+      <c r="K81" s="23" t="s">
         <v>1544</v>
       </c>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="24" t="s">
         <v>1545</v>
       </c>
-      <c r="M81" s="18" t="s">
+      <c r="M81" s="23" t="s">
         <v>1546</v>
       </c>
-      <c r="N81" s="18" t="s">
+      <c r="N81" s="23" t="s">
         <v>1547</v>
       </c>
-      <c r="O81" s="18" t="s">
+      <c r="O81" s="23" t="s">
         <v>1548</v>
       </c>
-      <c r="P81" s="18" t="s">
+      <c r="P81" s="23" t="s">
         <v>1549</v>
       </c>
-      <c r="Q81" s="18" t="s">
+      <c r="Q81" s="23" t="s">
         <v>1550</v>
       </c>
-      <c r="R81" s="18" t="s">
+      <c r="R81" s="23" t="s">
         <v>1551</v>
       </c>
-      <c r="S81" s="18" t="s">
+      <c r="S81" s="23" t="s">
         <v>1552</v>
       </c>
-      <c r="T81" s="20" t="s">
+      <c r="T81" s="25" t="s">
         <v>1553</v>
       </c>
-      <c r="U81" s="20" t="s">
+      <c r="U81" s="25" t="s">
         <v>1554</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="V81" s="25" t="s">
         <v>1555</v>
       </c>
-      <c r="W81" s="20" t="s">
+      <c r="W81" s="25" t="s">
         <v>1556</v>
       </c>
-      <c r="X81" s="20" t="s">
+      <c r="X81" s="25" t="s">
         <v>1557</v>
       </c>
-      <c r="Y81" s="20" t="s">
+      <c r="Y81" s="25" t="s">
         <v>1558</v>
       </c>
-      <c r="Z81" s="20" t="s">
+      <c r="Z81" s="25" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -11406,79 +12320,79 @@
       <c r="A82" s="15" t="s">
         <v>1560</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="23" t="s">
         <v>1561</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="23" t="s">
         <v>1562</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="23" t="s">
         <v>1563</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="23" t="s">
         <v>1564</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="23" t="s">
         <v>1565</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="23" t="s">
         <v>1566</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="23" t="s">
         <v>1567</v>
       </c>
-      <c r="I82" s="18" t="s">
+      <c r="I82" s="23" t="s">
         <v>1568</v>
       </c>
-      <c r="J82" s="18" t="s">
+      <c r="J82" s="23" t="s">
         <v>1569</v>
       </c>
-      <c r="K82" s="18" t="s">
+      <c r="K82" s="23" t="s">
         <v>1570</v>
       </c>
-      <c r="L82" s="19" t="s">
+      <c r="L82" s="24" t="s">
         <v>1571</v>
       </c>
-      <c r="M82" s="18" t="s">
+      <c r="M82" s="23" t="s">
         <v>1572</v>
       </c>
-      <c r="N82" s="18" t="s">
+      <c r="N82" s="23" t="s">
         <v>1573</v>
       </c>
-      <c r="O82" s="18" t="s">
+      <c r="O82" s="23" t="s">
         <v>1574</v>
       </c>
-      <c r="P82" s="18" t="s">
+      <c r="P82" s="23" t="s">
         <v>1575</v>
       </c>
-      <c r="Q82" s="18" t="s">
+      <c r="Q82" s="23" t="s">
         <v>1576</v>
       </c>
-      <c r="R82" s="18" t="s">
+      <c r="R82" s="23" t="s">
         <v>1577</v>
       </c>
-      <c r="S82" s="18" t="s">
+      <c r="S82" s="23" t="s">
         <v>1578</v>
       </c>
-      <c r="T82" s="20" t="s">
+      <c r="T82" s="25" t="s">
         <v>1579</v>
       </c>
-      <c r="U82" s="20" t="s">
+      <c r="U82" s="25" t="s">
         <v>1580</v>
       </c>
-      <c r="V82" s="20" t="s">
+      <c r="V82" s="25" t="s">
         <v>1581</v>
       </c>
-      <c r="W82" s="20" t="s">
+      <c r="W82" s="25" t="s">
         <v>1582</v>
       </c>
-      <c r="X82" s="20" t="s">
+      <c r="X82" s="25" t="s">
         <v>1583</v>
       </c>
-      <c r="Y82" s="20" t="s">
+      <c r="Y82" s="25" t="s">
         <v>1584</v>
       </c>
-      <c r="Z82" s="20" t="s">
+      <c r="Z82" s="25" t="s">
         <v>1585</v>
       </c>
     </row>
@@ -11486,79 +12400,79 @@
       <c r="A83" s="15" t="s">
         <v>1586</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="23" t="s">
         <v>1587</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="23" t="s">
         <v>1588</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="23" t="s">
         <v>1589</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="23" t="s">
         <v>1590</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="23" t="s">
         <v>1591</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="23" t="s">
         <v>1592</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="23" t="s">
         <v>1593</v>
       </c>
-      <c r="I83" s="18" t="s">
+      <c r="I83" s="23" t="s">
         <v>1594</v>
       </c>
-      <c r="J83" s="18" t="s">
+      <c r="J83" s="23" t="s">
         <v>1595</v>
       </c>
-      <c r="K83" s="18" t="s">
+      <c r="K83" s="23" t="s">
         <v>1596</v>
       </c>
-      <c r="L83" s="19" t="s">
+      <c r="L83" s="24" t="s">
         <v>1597</v>
       </c>
-      <c r="M83" s="18" t="s">
+      <c r="M83" s="23" t="s">
         <v>1598</v>
       </c>
-      <c r="N83" s="18" t="s">
+      <c r="N83" s="23" t="s">
         <v>1599</v>
       </c>
-      <c r="O83" s="18" t="s">
+      <c r="O83" s="23" t="s">
         <v>1600</v>
       </c>
-      <c r="P83" s="18" t="s">
+      <c r="P83" s="23" t="s">
         <v>1601</v>
       </c>
-      <c r="Q83" s="18" t="s">
+      <c r="Q83" s="23" t="s">
         <v>1602</v>
       </c>
-      <c r="R83" s="18" t="s">
+      <c r="R83" s="23" t="s">
         <v>1603</v>
       </c>
-      <c r="S83" s="18" t="s">
+      <c r="S83" s="23" t="s">
         <v>1604</v>
       </c>
-      <c r="T83" s="20" t="s">
+      <c r="T83" s="25" t="s">
         <v>1605</v>
       </c>
-      <c r="U83" s="20" t="s">
+      <c r="U83" s="25" t="s">
         <v>1606</v>
       </c>
-      <c r="V83" s="20" t="s">
+      <c r="V83" s="25" t="s">
         <v>1607</v>
       </c>
-      <c r="W83" s="20" t="s">
+      <c r="W83" s="25" t="s">
         <v>1608</v>
       </c>
-      <c r="X83" s="20" t="s">
+      <c r="X83" s="25" t="s">
         <v>1609</v>
       </c>
-      <c r="Y83" s="20" t="s">
+      <c r="Y83" s="25" t="s">
         <v>1610</v>
       </c>
-      <c r="Z83" s="20" t="s">
+      <c r="Z83" s="25" t="s">
         <v>1611</v>
       </c>
     </row>
@@ -11566,79 +12480,79 @@
       <c r="A84" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="23" t="s">
         <v>1613</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="23" t="s">
         <v>1614</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="23" t="s">
         <v>1615</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="23" t="s">
         <v>1616</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="23" t="s">
         <v>1617</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="23" t="s">
         <v>1618</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="23" t="s">
         <v>1619</v>
       </c>
-      <c r="I84" s="18" t="s">
+      <c r="I84" s="23" t="s">
         <v>1620</v>
       </c>
-      <c r="J84" s="18" t="s">
+      <c r="J84" s="23" t="s">
         <v>1621</v>
       </c>
-      <c r="K84" s="18" t="s">
+      <c r="K84" s="23" t="s">
         <v>1622</v>
       </c>
-      <c r="L84" s="19" t="s">
+      <c r="L84" s="24" t="s">
         <v>1623</v>
       </c>
-      <c r="M84" s="18" t="s">
+      <c r="M84" s="23" t="s">
         <v>1624</v>
       </c>
-      <c r="N84" s="18" t="s">
+      <c r="N84" s="23" t="s">
         <v>1625</v>
       </c>
-      <c r="O84" s="18" t="s">
+      <c r="O84" s="23" t="s">
         <v>1626</v>
       </c>
-      <c r="P84" s="18" t="s">
+      <c r="P84" s="23" t="s">
         <v>1627</v>
       </c>
-      <c r="Q84" s="18" t="s">
+      <c r="Q84" s="23" t="s">
         <v>1628</v>
       </c>
-      <c r="R84" s="18" t="s">
+      <c r="R84" s="23" t="s">
         <v>1629</v>
       </c>
-      <c r="S84" s="18" t="s">
+      <c r="S84" s="23" t="s">
         <v>1630</v>
       </c>
-      <c r="T84" s="20" t="s">
+      <c r="T84" s="25" t="s">
         <v>1631</v>
       </c>
-      <c r="U84" s="20" t="s">
+      <c r="U84" s="25" t="s">
         <v>1632</v>
       </c>
-      <c r="V84" s="20" t="s">
+      <c r="V84" s="25" t="s">
         <v>1633</v>
       </c>
-      <c r="W84" s="20" t="s">
+      <c r="W84" s="25" t="s">
         <v>1634</v>
       </c>
-      <c r="X84" s="20" t="s">
+      <c r="X84" s="25" t="s">
         <v>1635</v>
       </c>
-      <c r="Y84" s="20" t="s">
+      <c r="Y84" s="25" t="s">
         <v>1636</v>
       </c>
-      <c r="Z84" s="20" t="s">
+      <c r="Z84" s="25" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -11646,79 +12560,79 @@
       <c r="A85" s="15" t="s">
         <v>1638</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="23" t="s">
         <v>1639</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="23" t="s">
         <v>1640</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="23" t="s">
         <v>1641</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="23" t="s">
         <v>1642</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="23" t="s">
         <v>1643</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="23" t="s">
         <v>1644</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="H85" s="23" t="s">
         <v>1645</v>
       </c>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="23" t="s">
         <v>1646</v>
       </c>
-      <c r="J85" s="18" t="s">
+      <c r="J85" s="23" t="s">
         <v>1647</v>
       </c>
-      <c r="K85" s="18" t="s">
+      <c r="K85" s="23" t="s">
         <v>1648</v>
       </c>
-      <c r="L85" s="19" t="s">
+      <c r="L85" s="24" t="s">
         <v>1649</v>
       </c>
-      <c r="M85" s="18" t="s">
+      <c r="M85" s="23" t="s">
         <v>1650</v>
       </c>
-      <c r="N85" s="18" t="s">
+      <c r="N85" s="23" t="s">
         <v>1651</v>
       </c>
-      <c r="O85" s="18" t="s">
+      <c r="O85" s="23" t="s">
         <v>1652</v>
       </c>
-      <c r="P85" s="18" t="s">
+      <c r="P85" s="23" t="s">
         <v>1653</v>
       </c>
-      <c r="Q85" s="18" t="s">
+      <c r="Q85" s="23" t="s">
         <v>1654</v>
       </c>
-      <c r="R85" s="18" t="s">
+      <c r="R85" s="23" t="s">
         <v>1655</v>
       </c>
-      <c r="S85" s="18" t="s">
+      <c r="S85" s="23" t="s">
         <v>1656</v>
       </c>
-      <c r="T85" s="20" t="s">
+      <c r="T85" s="25" t="s">
         <v>1657</v>
       </c>
-      <c r="U85" s="20" t="s">
+      <c r="U85" s="25" t="s">
         <v>1658</v>
       </c>
-      <c r="V85" s="20" t="s">
+      <c r="V85" s="25" t="s">
         <v>1659</v>
       </c>
-      <c r="W85" s="20" t="s">
+      <c r="W85" s="25" t="s">
         <v>1660</v>
       </c>
-      <c r="X85" s="20" t="s">
+      <c r="X85" s="25" t="s">
         <v>1661</v>
       </c>
-      <c r="Y85" s="20" t="s">
+      <c r="Y85" s="25" t="s">
         <v>1662</v>
       </c>
-      <c r="Z85" s="20" t="s">
+      <c r="Z85" s="25" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -11726,79 +12640,79 @@
       <c r="A86" s="15" t="s">
         <v>1664</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="23" t="s">
         <v>1665</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="23" t="s">
         <v>1666</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="23" t="s">
         <v>1667</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="23" t="s">
         <v>1668</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="23" t="s">
         <v>1669</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="23" t="s">
         <v>1670</v>
       </c>
-      <c r="H86" s="18" t="s">
+      <c r="H86" s="23" t="s">
         <v>1671</v>
       </c>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="23" t="s">
         <v>1672</v>
       </c>
-      <c r="J86" s="18" t="s">
+      <c r="J86" s="23" t="s">
         <v>1673</v>
       </c>
-      <c r="K86" s="18" t="s">
+      <c r="K86" s="23" t="s">
         <v>1674</v>
       </c>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="24" t="s">
         <v>1675</v>
       </c>
-      <c r="M86" s="18" t="s">
+      <c r="M86" s="23" t="s">
         <v>1676</v>
       </c>
-      <c r="N86" s="18" t="s">
+      <c r="N86" s="23" t="s">
         <v>1677</v>
       </c>
-      <c r="O86" s="18" t="s">
+      <c r="O86" s="23" t="s">
         <v>1678</v>
       </c>
-      <c r="P86" s="18" t="s">
+      <c r="P86" s="23" t="s">
         <v>1679</v>
       </c>
-      <c r="Q86" s="18" t="s">
+      <c r="Q86" s="23" t="s">
         <v>1680</v>
       </c>
-      <c r="R86" s="18" t="s">
+      <c r="R86" s="23" t="s">
         <v>1681</v>
       </c>
-      <c r="S86" s="18" t="s">
+      <c r="S86" s="23" t="s">
         <v>1682</v>
       </c>
-      <c r="T86" s="20" t="s">
+      <c r="T86" s="25" t="s">
         <v>1683</v>
       </c>
-      <c r="U86" s="20" t="s">
+      <c r="U86" s="25" t="s">
         <v>1684</v>
       </c>
-      <c r="V86" s="20" t="s">
+      <c r="V86" s="25" t="s">
         <v>1685</v>
       </c>
-      <c r="W86" s="20" t="s">
+      <c r="W86" s="25" t="s">
         <v>1686</v>
       </c>
-      <c r="X86" s="20" t="s">
+      <c r="X86" s="25" t="s">
         <v>1687</v>
       </c>
-      <c r="Y86" s="20" t="s">
+      <c r="Y86" s="25" t="s">
         <v>1688</v>
       </c>
-      <c r="Z86" s="20" t="s">
+      <c r="Z86" s="25" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -11806,79 +12720,79 @@
       <c r="A87" s="15" t="s">
         <v>1690</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="23" t="s">
         <v>1691</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="23" t="s">
         <v>1692</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="23" t="s">
         <v>1693</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="23" t="s">
         <v>1694</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="23" t="s">
         <v>1695</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="23" t="s">
         <v>1696</v>
       </c>
-      <c r="H87" s="18" t="s">
+      <c r="H87" s="23" t="s">
         <v>1697</v>
       </c>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="23" t="s">
         <v>1698</v>
       </c>
-      <c r="J87" s="18" t="s">
+      <c r="J87" s="23" t="s">
         <v>1699</v>
       </c>
-      <c r="K87" s="18" t="s">
+      <c r="K87" s="23" t="s">
         <v>1700</v>
       </c>
-      <c r="L87" s="19" t="s">
+      <c r="L87" s="24" t="s">
         <v>1701</v>
       </c>
-      <c r="M87" s="18" t="s">
+      <c r="M87" s="23" t="s">
         <v>1702</v>
       </c>
-      <c r="N87" s="18" t="s">
+      <c r="N87" s="23" t="s">
         <v>1703</v>
       </c>
-      <c r="O87" s="18" t="s">
+      <c r="O87" s="23" t="s">
         <v>1704</v>
       </c>
-      <c r="P87" s="18" t="s">
+      <c r="P87" s="23" t="s">
         <v>1705</v>
       </c>
-      <c r="Q87" s="18" t="s">
+      <c r="Q87" s="23" t="s">
         <v>1706</v>
       </c>
-      <c r="R87" s="18" t="s">
+      <c r="R87" s="23" t="s">
         <v>1707</v>
       </c>
-      <c r="S87" s="18" t="s">
+      <c r="S87" s="23" t="s">
         <v>1708</v>
       </c>
-      <c r="T87" s="20" t="s">
+      <c r="T87" s="25" t="s">
         <v>1709</v>
       </c>
-      <c r="U87" s="20" t="s">
+      <c r="U87" s="25" t="s">
         <v>1710</v>
       </c>
-      <c r="V87" s="20" t="s">
+      <c r="V87" s="25" t="s">
         <v>1711</v>
       </c>
-      <c r="W87" s="20" t="s">
+      <c r="W87" s="25" t="s">
         <v>1712</v>
       </c>
-      <c r="X87" s="20" t="s">
+      <c r="X87" s="25" t="s">
         <v>1713</v>
       </c>
-      <c r="Y87" s="20" t="s">
+      <c r="Y87" s="25" t="s">
         <v>1714</v>
       </c>
-      <c r="Z87" s="20" t="s">
+      <c r="Z87" s="25" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -11886,79 +12800,79 @@
       <c r="A88" s="15" t="s">
         <v>1716</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="23" t="s">
         <v>1717</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="23" t="s">
         <v>1718</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="23" t="s">
         <v>1719</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="23" t="s">
         <v>1720</v>
       </c>
-      <c r="F88" s="18" t="s">
+      <c r="F88" s="23" t="s">
         <v>1721</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="23" t="s">
         <v>1722</v>
       </c>
-      <c r="H88" s="18" t="s">
+      <c r="H88" s="23" t="s">
         <v>1723</v>
       </c>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="23" t="s">
         <v>1724</v>
       </c>
-      <c r="J88" s="18" t="s">
+      <c r="J88" s="23" t="s">
         <v>1725</v>
       </c>
-      <c r="K88" s="18" t="s">
+      <c r="K88" s="23" t="s">
         <v>1726</v>
       </c>
-      <c r="L88" s="19" t="s">
+      <c r="L88" s="24" t="s">
         <v>1727</v>
       </c>
-      <c r="M88" s="18" t="s">
+      <c r="M88" s="23" t="s">
         <v>1728</v>
       </c>
-      <c r="N88" s="18" t="s">
+      <c r="N88" s="23" t="s">
         <v>1729</v>
       </c>
-      <c r="O88" s="18" t="s">
+      <c r="O88" s="23" t="s">
         <v>1730</v>
       </c>
-      <c r="P88" s="18" t="s">
+      <c r="P88" s="23" t="s">
         <v>1731</v>
       </c>
-      <c r="Q88" s="18" t="s">
+      <c r="Q88" s="23" t="s">
         <v>1732</v>
       </c>
-      <c r="R88" s="18" t="s">
+      <c r="R88" s="23" t="s">
         <v>1733</v>
       </c>
-      <c r="S88" s="18" t="s">
+      <c r="S88" s="23" t="s">
         <v>1734</v>
       </c>
-      <c r="T88" s="20" t="s">
+      <c r="T88" s="25" t="s">
         <v>1735</v>
       </c>
-      <c r="U88" s="20" t="s">
+      <c r="U88" s="25" t="s">
         <v>1736</v>
       </c>
-      <c r="V88" s="20" t="s">
+      <c r="V88" s="25" t="s">
         <v>1737</v>
       </c>
-      <c r="W88" s="20" t="s">
+      <c r="W88" s="25" t="s">
         <v>1738</v>
       </c>
-      <c r="X88" s="20" t="s">
+      <c r="X88" s="25" t="s">
         <v>1739</v>
       </c>
-      <c r="Y88" s="20" t="s">
+      <c r="Y88" s="25" t="s">
         <v>1740</v>
       </c>
-      <c r="Z88" s="20" t="s">
+      <c r="Z88" s="25" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -11966,79 +12880,79 @@
       <c r="A89" s="15" t="s">
         <v>1742</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="23" t="s">
         <v>1743</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="23" t="s">
         <v>1744</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="23" t="s">
         <v>1745</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="23" t="s">
         <v>1746</v>
       </c>
-      <c r="F89" s="18" t="s">
+      <c r="F89" s="23" t="s">
         <v>1747</v>
       </c>
-      <c r="G89" s="18" t="s">
+      <c r="G89" s="23" t="s">
         <v>1748</v>
       </c>
-      <c r="H89" s="18" t="s">
+      <c r="H89" s="23" t="s">
         <v>1749</v>
       </c>
-      <c r="I89" s="18" t="s">
+      <c r="I89" s="23" t="s">
         <v>1750</v>
       </c>
-      <c r="J89" s="18" t="s">
+      <c r="J89" s="23" t="s">
         <v>1751</v>
       </c>
-      <c r="K89" s="18" t="s">
+      <c r="K89" s="23" t="s">
         <v>1752</v>
       </c>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="24" t="s">
         <v>1753</v>
       </c>
-      <c r="M89" s="18" t="s">
+      <c r="M89" s="23" t="s">
         <v>1754</v>
       </c>
-      <c r="N89" s="18" t="s">
+      <c r="N89" s="23" t="s">
         <v>1755</v>
       </c>
-      <c r="O89" s="18" t="s">
+      <c r="O89" s="23" t="s">
         <v>1756</v>
       </c>
-      <c r="P89" s="18" t="s">
+      <c r="P89" s="23" t="s">
         <v>1757</v>
       </c>
-      <c r="Q89" s="18" t="s">
+      <c r="Q89" s="23" t="s">
         <v>1758</v>
       </c>
-      <c r="R89" s="18" t="s">
+      <c r="R89" s="23" t="s">
         <v>1759</v>
       </c>
-      <c r="S89" s="18" t="s">
+      <c r="S89" s="23" t="s">
         <v>1760</v>
       </c>
-      <c r="T89" s="20" t="s">
+      <c r="T89" s="25" t="s">
         <v>1761</v>
       </c>
-      <c r="U89" s="20" t="s">
+      <c r="U89" s="25" t="s">
         <v>1762</v>
       </c>
-      <c r="V89" s="20" t="s">
+      <c r="V89" s="25" t="s">
         <v>1763</v>
       </c>
-      <c r="W89" s="20" t="s">
+      <c r="W89" s="25" t="s">
         <v>1764</v>
       </c>
-      <c r="X89" s="20" t="s">
+      <c r="X89" s="25" t="s">
         <v>1765</v>
       </c>
-      <c r="Y89" s="20" t="s">
+      <c r="Y89" s="25" t="s">
         <v>1766</v>
       </c>
-      <c r="Z89" s="20" t="s">
+      <c r="Z89" s="25" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -12046,79 +12960,79 @@
       <c r="A90" s="15" t="s">
         <v>1768</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="23" t="s">
         <v>1769</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="23" t="s">
         <v>1770</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="23" t="s">
         <v>1771</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="23" t="s">
         <v>1772</v>
       </c>
-      <c r="F90" s="18" t="s">
+      <c r="F90" s="23" t="s">
         <v>1773</v>
       </c>
-      <c r="G90" s="18" t="s">
+      <c r="G90" s="23" t="s">
         <v>1774</v>
       </c>
-      <c r="H90" s="18" t="s">
+      <c r="H90" s="23" t="s">
         <v>1775</v>
       </c>
-      <c r="I90" s="18" t="s">
+      <c r="I90" s="23" t="s">
         <v>1776</v>
       </c>
-      <c r="J90" s="18" t="s">
+      <c r="J90" s="23" t="s">
         <v>1777</v>
       </c>
-      <c r="K90" s="18" t="s">
+      <c r="K90" s="23" t="s">
         <v>1778</v>
       </c>
-      <c r="L90" s="19" t="s">
+      <c r="L90" s="24" t="s">
         <v>1779</v>
       </c>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="23" t="s">
         <v>1780</v>
       </c>
-      <c r="N90" s="18" t="s">
+      <c r="N90" s="23" t="s">
         <v>1781</v>
       </c>
-      <c r="O90" s="18" t="s">
+      <c r="O90" s="23" t="s">
         <v>1782</v>
       </c>
-      <c r="P90" s="18" t="s">
+      <c r="P90" s="23" t="s">
         <v>1783</v>
       </c>
-      <c r="Q90" s="18" t="s">
+      <c r="Q90" s="23" t="s">
         <v>1784</v>
       </c>
-      <c r="R90" s="18" t="s">
+      <c r="R90" s="23" t="s">
         <v>1785</v>
       </c>
-      <c r="S90" s="18" t="s">
+      <c r="S90" s="23" t="s">
         <v>1786</v>
       </c>
-      <c r="T90" s="20" t="s">
+      <c r="T90" s="25" t="s">
         <v>1787</v>
       </c>
-      <c r="U90" s="20" t="s">
+      <c r="U90" s="25" t="s">
         <v>1788</v>
       </c>
-      <c r="V90" s="20" t="s">
+      <c r="V90" s="25" t="s">
         <v>1789</v>
       </c>
-      <c r="W90" s="20" t="s">
+      <c r="W90" s="25" t="s">
         <v>1790</v>
       </c>
-      <c r="X90" s="20" t="s">
+      <c r="X90" s="25" t="s">
         <v>1791</v>
       </c>
-      <c r="Y90" s="20" t="s">
+      <c r="Y90" s="25" t="s">
         <v>1792</v>
       </c>
-      <c r="Z90" s="20" t="s">
+      <c r="Z90" s="25" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -12126,79 +13040,79 @@
       <c r="A91" s="15" t="s">
         <v>1794</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="23" t="s">
         <v>1795</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="23" t="s">
         <v>1796</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="23" t="s">
         <v>1797</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="23" t="s">
         <v>1798</v>
       </c>
-      <c r="F91" s="18" t="s">
+      <c r="F91" s="23" t="s">
         <v>1799</v>
       </c>
-      <c r="G91" s="18" t="s">
+      <c r="G91" s="23" t="s">
         <v>1800</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="23" t="s">
         <v>1801</v>
       </c>
-      <c r="I91" s="18" t="s">
+      <c r="I91" s="23" t="s">
         <v>1802</v>
       </c>
-      <c r="J91" s="18" t="s">
+      <c r="J91" s="23" t="s">
         <v>1803</v>
       </c>
-      <c r="K91" s="18" t="s">
+      <c r="K91" s="23" t="s">
         <v>1804</v>
       </c>
-      <c r="L91" s="19" t="s">
+      <c r="L91" s="24" t="s">
         <v>1805</v>
       </c>
-      <c r="M91" s="18" t="s">
+      <c r="M91" s="23" t="s">
         <v>1806</v>
       </c>
-      <c r="N91" s="18" t="s">
+      <c r="N91" s="23" t="s">
         <v>1807</v>
       </c>
-      <c r="O91" s="18" t="s">
+      <c r="O91" s="23" t="s">
         <v>1808</v>
       </c>
-      <c r="P91" s="18" t="s">
+      <c r="P91" s="23" t="s">
         <v>1809</v>
       </c>
-      <c r="Q91" s="18" t="s">
+      <c r="Q91" s="23" t="s">
         <v>1810</v>
       </c>
-      <c r="R91" s="18" t="s">
+      <c r="R91" s="23" t="s">
         <v>1811</v>
       </c>
-      <c r="S91" s="18" t="s">
+      <c r="S91" s="23" t="s">
         <v>1812</v>
       </c>
-      <c r="T91" s="20" t="s">
+      <c r="T91" s="25" t="s">
         <v>1813</v>
       </c>
-      <c r="U91" s="20" t="s">
+      <c r="U91" s="25" t="s">
         <v>1814</v>
       </c>
-      <c r="V91" s="20" t="s">
+      <c r="V91" s="25" t="s">
         <v>1815</v>
       </c>
-      <c r="W91" s="20" t="s">
+      <c r="W91" s="25" t="s">
         <v>1816</v>
       </c>
-      <c r="X91" s="20" t="s">
+      <c r="X91" s="25" t="s">
         <v>1817</v>
       </c>
-      <c r="Y91" s="20" t="s">
+      <c r="Y91" s="25" t="s">
         <v>1818</v>
       </c>
-      <c r="Z91" s="20" t="s">
+      <c r="Z91" s="25" t="s">
         <v>1819</v>
       </c>
     </row>
@@ -12206,79 +13120,79 @@
       <c r="A92" s="15" t="s">
         <v>1820</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="23" t="s">
         <v>1821</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="23" t="s">
         <v>1822</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="23" t="s">
         <v>1823</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="23" t="s">
         <v>1824</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="23" t="s">
         <v>1825</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="23" t="s">
         <v>1826</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="23" t="s">
         <v>1827</v>
       </c>
-      <c r="I92" s="18" t="s">
+      <c r="I92" s="23" t="s">
         <v>1828</v>
       </c>
-      <c r="J92" s="18" t="s">
+      <c r="J92" s="23" t="s">
         <v>1829</v>
       </c>
-      <c r="K92" s="18" t="s">
+      <c r="K92" s="23" t="s">
         <v>1830</v>
       </c>
-      <c r="L92" s="19" t="s">
+      <c r="L92" s="24" t="s">
         <v>1831</v>
       </c>
-      <c r="M92" s="18" t="s">
+      <c r="M92" s="23" t="s">
         <v>1832</v>
       </c>
-      <c r="N92" s="18" t="s">
+      <c r="N92" s="23" t="s">
         <v>1833</v>
       </c>
-      <c r="O92" s="18" t="s">
+      <c r="O92" s="23" t="s">
         <v>1834</v>
       </c>
-      <c r="P92" s="18" t="s">
+      <c r="P92" s="23" t="s">
         <v>1835</v>
       </c>
-      <c r="Q92" s="18" t="s">
+      <c r="Q92" s="23" t="s">
         <v>1836</v>
       </c>
-      <c r="R92" s="18" t="s">
+      <c r="R92" s="23" t="s">
         <v>1837</v>
       </c>
-      <c r="S92" s="18" t="s">
+      <c r="S92" s="23" t="s">
         <v>1838</v>
       </c>
-      <c r="T92" s="20" t="s">
+      <c r="T92" s="25" t="s">
         <v>1839</v>
       </c>
-      <c r="U92" s="20" t="s">
+      <c r="U92" s="25" t="s">
         <v>1840</v>
       </c>
-      <c r="V92" s="20" t="s">
+      <c r="V92" s="25" t="s">
         <v>1841</v>
       </c>
-      <c r="W92" s="20" t="s">
+      <c r="W92" s="25" t="s">
         <v>1842</v>
       </c>
-      <c r="X92" s="20" t="s">
+      <c r="X92" s="25" t="s">
         <v>1843</v>
       </c>
-      <c r="Y92" s="20" t="s">
+      <c r="Y92" s="25" t="s">
         <v>1844</v>
       </c>
-      <c r="Z92" s="20" t="s">
+      <c r="Z92" s="25" t="s">
         <v>1845</v>
       </c>
     </row>

--- a/i18n/i18n.xlsx
+++ b/i18n/i18n.xlsx
@@ -820,10 +820,10 @@
     <t xml:space="preserve">welcome-screen.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the map viewer of the data.europa.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willkommen im Map Viewer des data.europa.eu</t>
+    <t xml:space="preserve">Welcome to the map viewer of data.europa.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willkommen im Map Viewer von data.europa.eu</t>
   </si>
   <si>
     <t xml:space="preserve">Bienvenido/a al visualizador de mapas del data.europa.eu</t>
@@ -903,7 +903,7 @@
     <t xml:space="preserve">Merħba fil-viżwalizzatur tal-mappa tal-data.europa.eu</t>
   </si>
   <si>
-    <t xml:space="preserve">Velkommen til Den data.europa.eu kortviser</t>
+    <t xml:space="preserve">Velkommen til den data.europa.eu kortviser</t>
   </si>
   <si>
     <t xml:space="preserve">Tere! Siin on data.europa.eu kaardivaatur.</t>
@@ -1897,7 +1897,7 @@
     <t xml:space="preserve">These buttons change the zoom level on the map. Alternatively you can use the mouse wheel to adjust the zoom.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit diesen Tasten ändern Sie den Zoomfaktor auf der Karte. Alternativ können Sie das Mausrad verwenden, um den Zoom einzustellen.</t>
+    <t xml:space="preserve">Mit diesen Schaltflächen ändern Sie den Zoomfaktor auf der Karte. Alternativ können Sie das Mausrad verwenden, um den Zoom einzustellen.</t>
   </si>
   <si>
     <t xml:space="preserve">Estos botones permiten modificar el nivel de zoom del mapa. También puede utilizar la rueda del ratón para ajustar el zoom.</t>
@@ -1975,7 +1975,7 @@
     <t xml:space="preserve">Additional functionality is available through these buttons. They act as toggles and enable or disable the given functionality.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusätzliche Funktionalität wird durch diese Tasten zur Verfügung gestellt. Sie fungieren als Schalter und aktivieren oder deaktivieren die angegebene Funktionalität.</t>
+    <t xml:space="preserve">Zusätzliche Funktionalität wird durch diese Schaltflächen zur Verfügung gestellt. Sie fungieren als Schalter und aktivieren oder deaktivieren die angegebene Funktionalität.</t>
   </si>
   <si>
     <t xml:space="preserve">Con estos botones puede acceder a funciones adicionales. Sirven para habilitar/deshabilitar las distintas funciones.</t>
@@ -5984,11 +5984,11 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8206,7 +8206,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
         <v>613</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
         <v>639</v>
       </c>
